--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(40-44) - (60-64).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(40-44) - (60-64).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="440">
   <si>
     <t>Sex</t>
   </si>
@@ -298,7 +298,7 @@
     <t>22.2 (±10.7)</t>
   </si>
   <si>
-    <t>145.4 (±152.5)</t>
+    <t>144.4 (±152.5)</t>
   </si>
   <si>
     <t>-191.4 (±129.5)</t>
@@ -361,7 +361,7 @@
     <t>71.8 (±274.3)</t>
   </si>
   <si>
-    <t>67.0 (±132.1)</t>
+    <t>69.0 (±132.1)</t>
   </si>
   <si>
     <t>-17.8 (±34.7)</t>
@@ -391,7 +391,7 @@
     <t>10.0% (±5.1%)</t>
   </si>
   <si>
-    <t>3.1% (±3.2%)</t>
+    <t>3.1% (±3.3%)</t>
   </si>
   <si>
     <t>-8.1% (±4.8%)</t>
@@ -454,7 +454,7 @@
     <t>1.4% (±5.1%)</t>
   </si>
   <si>
-    <t>2.3% (±4.4%)</t>
+    <t>2.3% (±4.3%)</t>
   </si>
   <si>
     <t>-2.2% (±4.1%)</t>
@@ -484,396 +484,399 @@
     <t>16.2(±7.9)</t>
   </si>
   <si>
+    <t>7.8(±8.2)</t>
+  </si>
+  <si>
+    <t>-20.2(±13.7)</t>
+  </si>
+  <si>
+    <t>33.4(±13.7)</t>
+  </si>
+  <si>
+    <t>-18.1(±7.4)</t>
+  </si>
+  <si>
+    <t>0.6(±3.1)</t>
+  </si>
+  <si>
+    <t>12.3(±2.9)</t>
+  </si>
+  <si>
+    <t>-13.0(±23.4)</t>
+  </si>
+  <si>
+    <t>12.1(±14.6)</t>
+  </si>
+  <si>
+    <t>12.2(±3.7)</t>
+  </si>
+  <si>
+    <t>-10.9(±14.2)</t>
+  </si>
+  <si>
+    <t>-19.1(±34.1)</t>
+  </si>
+  <si>
+    <t>43.6(±19.0)</t>
+  </si>
+  <si>
+    <t>-12.7(±8.4)</t>
+  </si>
+  <si>
+    <t>6.5(±14.7)</t>
+  </si>
+  <si>
+    <t>26.0(±18.0)</t>
+  </si>
+  <si>
+    <t>-7.8(±7.7)</t>
+  </si>
+  <si>
+    <t>-10.2(±5.3)</t>
+  </si>
+  <si>
+    <t>4.8(±12.3)</t>
+  </si>
+  <si>
+    <t>8.8(±2.0)</t>
+  </si>
+  <si>
+    <t>37.0(±11.6)</t>
+  </si>
+  <si>
+    <t>5.9(±22.4)</t>
+  </si>
+  <si>
+    <t>7.2(±13.7)</t>
+  </si>
+  <si>
+    <t>-4.8(±9.4)</t>
+  </si>
+  <si>
+    <t>24.7(±1.7)</t>
+  </si>
+  <si>
+    <t>-10.7(±6.2)</t>
+  </si>
+  <si>
+    <t>-2.5(±4.0)</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>5597.2 (±112.2)</t>
+  </si>
+  <si>
+    <t>7588.8 (±306.8)</t>
+  </si>
+  <si>
+    <t>11547.0 (±304.2)</t>
+  </si>
+  <si>
+    <t>4770.8 (±216.6)</t>
+  </si>
+  <si>
+    <t>400.2 (±14.6)</t>
+  </si>
+  <si>
+    <t>9844.8 (±319.9)</t>
+  </si>
+  <si>
+    <t>3758.2 (±133.4)</t>
+  </si>
+  <si>
+    <t>1610.2 (±61.1)</t>
+  </si>
+  <si>
+    <t>3850.8 (±225.9)</t>
+  </si>
+  <si>
+    <t>46342.6 (±1672.8)</t>
+  </si>
+  <si>
+    <t>8003.0 (±151.5)</t>
+  </si>
+  <si>
+    <t>15043.0 (±648.1)</t>
+  </si>
+  <si>
+    <t>148.6 (±14.9)</t>
+  </si>
+  <si>
+    <t>32686.0 (±858.5)</t>
+  </si>
+  <si>
+    <t>3340.4 (±124.7)</t>
+  </si>
+  <si>
+    <t>18.2 (±1.8)</t>
+  </si>
+  <si>
+    <t>4913.8 (±375.9)</t>
+  </si>
+  <si>
+    <t>340.4 (±11.5)</t>
+  </si>
+  <si>
+    <t>241.0 (±12.6)</t>
+  </si>
+  <si>
+    <t>723.2 (±15.8)</t>
+  </si>
+  <si>
+    <t>9078.8 (±226.8)</t>
+  </si>
+  <si>
+    <t>2405.0 (±65.7)</t>
+  </si>
+  <si>
+    <t>51241.2 (±1807.7)</t>
+  </si>
+  <si>
+    <t>8258.8 (±111.2)</t>
+  </si>
+  <si>
+    <t>32265.8 (±411.7)</t>
+  </si>
+  <si>
+    <t>9853.4 (±495.5)</t>
+  </si>
+  <si>
+    <t>6877.8 (±266.7)</t>
+  </si>
+  <si>
+    <t>1763.0 (±101.9)</t>
+  </si>
+  <si>
+    <t>28657.0 (±320.6)</t>
+  </si>
+  <si>
+    <t>3990.4 (±251.2)</t>
+  </si>
+  <si>
+    <t>3907.6 (±105.7)</t>
+  </si>
+  <si>
+    <t>453.8 (±112.2)</t>
+  </si>
+  <si>
+    <t>445.2 (±306.8)</t>
+  </si>
+  <si>
+    <t>2055.0 (±304.2)</t>
+  </si>
+  <si>
+    <t>-122.8 (±216.6)</t>
+  </si>
+  <si>
+    <t>72.8 (±14.6)</t>
+  </si>
+  <si>
+    <t>460.2 (±319.9)</t>
+  </si>
+  <si>
+    <t>-361.2 (±133.4)</t>
+  </si>
+  <si>
+    <t>41.8 (±61.1)</t>
+  </si>
+  <si>
+    <t>-60.8 (±225.9)</t>
+  </si>
+  <si>
+    <t>-463.6 (±1672.8)</t>
+  </si>
+  <si>
+    <t>143.0 (±151.5)</t>
+  </si>
+  <si>
+    <t>-282.0 (±648.1)</t>
+  </si>
+  <si>
+    <t>9.4 (±14.9)</t>
+  </si>
+  <si>
+    <t>4069.0 (±858.5)</t>
+  </si>
+  <si>
+    <t>-196.4 (±124.7)</t>
+  </si>
+  <si>
+    <t>-4.2 (±1.8)</t>
+  </si>
+  <si>
+    <t>539.2 (±375.9)</t>
+  </si>
+  <si>
+    <t>40.6 (±11.5)</t>
+  </si>
+  <si>
+    <t>25.0 (±12.6)</t>
+  </si>
+  <si>
+    <t>45.8 (±15.8)</t>
+  </si>
+  <si>
+    <t>285.2 (±226.8)</t>
+  </si>
+  <si>
+    <t>-129.0 (±65.7)</t>
+  </si>
+  <si>
+    <t>2549.8 (±1807.7)</t>
+  </si>
+  <si>
+    <t>569.2 (±111.2)</t>
+  </si>
+  <si>
+    <t>3469.2 (±411.7)</t>
+  </si>
+  <si>
+    <t>651.6 (±495.5)</t>
+  </si>
+  <si>
+    <t>-143.8 (±266.7)</t>
+  </si>
+  <si>
+    <t>-40.0 (±101.9)</t>
+  </si>
+  <si>
+    <t>3531.0 (±320.6)</t>
+  </si>
+  <si>
+    <t>16.6 (±251.2)</t>
+  </si>
+  <si>
+    <t>33.4 (±105.7)</t>
+  </si>
+  <si>
+    <t>8.1% (±2.1%)</t>
+  </si>
+  <si>
+    <t>5.9% (±4.1%)</t>
+  </si>
+  <si>
+    <t>17.8% (±3.0%)</t>
+  </si>
+  <si>
+    <t>-2.6% (±4.2%)</t>
+  </si>
+  <si>
+    <t>18.2% (±4.2%)</t>
+  </si>
+  <si>
+    <t>4.7% (±3.3%)</t>
+  </si>
+  <si>
+    <t>-9.6% (±3.1%)</t>
+  </si>
+  <si>
+    <t>2.6% (±3.8%)</t>
+  </si>
+  <si>
+    <t>-1.6% (±5.4%)</t>
+  </si>
+  <si>
+    <t>-1.0% (±3.4%)</t>
+  </si>
+  <si>
+    <t>1.8% (±1.9%)</t>
+  </si>
+  <si>
+    <t>-1.9% (±4.0%)</t>
+  </si>
+  <si>
+    <t>6.3% (±9.7%)</t>
+  </si>
+  <si>
+    <t>12.4% (±2.8%)</t>
+  </si>
+  <si>
+    <t>-5.9% (±3.4%)</t>
+  </si>
+  <si>
+    <t>-23.1% (±6.9%)</t>
+  </si>
+  <si>
+    <t>11.0% (±7.9%)</t>
+  </si>
+  <si>
+    <t>11.9% (±3.6%)</t>
+  </si>
+  <si>
+    <t>10.4% (±5.5%)</t>
+  </si>
+  <si>
+    <t>6.3% (±2.2%)</t>
+  </si>
+  <si>
+    <t>3.1% (±2.5%)</t>
+  </si>
+  <si>
+    <t>-5.4% (±2.5%)</t>
+  </si>
+  <si>
+    <t>5.0% (±3.6%)</t>
+  </si>
+  <si>
+    <t>6.9% (±1.4%)</t>
+  </si>
+  <si>
+    <t>10.8% (±1.4%)</t>
+  </si>
+  <si>
+    <t>6.6% (±5.1%)</t>
+  </si>
+  <si>
+    <t>-2.1% (±3.6%)</t>
+  </si>
+  <si>
+    <t>-2.3% (±5.3%)</t>
+  </si>
+  <si>
+    <t>12.3% (±1.2%)</t>
+  </si>
+  <si>
+    <t>0.4% (±5.9%)</t>
+  </si>
+  <si>
+    <t>0.9% (±2.7%)</t>
+  </si>
+  <si>
+    <t>29.0(±7.1)</t>
+  </si>
+  <si>
+    <t>23.2(±16.0)</t>
+  </si>
+  <si>
+    <t>165.7(±24.6)</t>
+  </si>
+  <si>
+    <t>-17.6(±31.0)</t>
+  </si>
+  <si>
+    <t>55.1(±11.1)</t>
+  </si>
+  <si>
+    <t>24.2(±16.8)</t>
+  </si>
+  <si>
+    <t>-38.0(±14.1)</t>
+  </si>
+  <si>
+    <t>19.5(±28.5)</t>
+  </si>
+  <si>
+    <t>-6.9(±25.7)</t>
+  </si>
+  <si>
+    <t>-4.4(±15.9)</t>
+  </si>
+  <si>
     <t>7.8(±8.3)</t>
   </si>
   <si>
-    <t>-20.2(±13.7)</t>
-  </si>
-  <si>
-    <t>33.4(±13.7)</t>
-  </si>
-  <si>
-    <t>-18.1(±7.4)</t>
-  </si>
-  <si>
-    <t>0.6(±3.1)</t>
-  </si>
-  <si>
-    <t>12.3(±2.9)</t>
-  </si>
-  <si>
-    <t>-13.0(±23.4)</t>
-  </si>
-  <si>
-    <t>12.1(±14.6)</t>
-  </si>
-  <si>
-    <t>12.2(±3.7)</t>
-  </si>
-  <si>
-    <t>-10.9(±14.2)</t>
-  </si>
-  <si>
-    <t>-19.1(±34.1)</t>
-  </si>
-  <si>
-    <t>43.6(±19.0)</t>
-  </si>
-  <si>
-    <t>-12.7(±8.4)</t>
-  </si>
-  <si>
-    <t>6.5(±14.7)</t>
-  </si>
-  <si>
-    <t>26.0(±18.0)</t>
-  </si>
-  <si>
-    <t>-7.8(±7.7)</t>
-  </si>
-  <si>
-    <t>-10.2(±5.3)</t>
-  </si>
-  <si>
-    <t>4.8(±12.3)</t>
-  </si>
-  <si>
-    <t>8.8(±2.0)</t>
-  </si>
-  <si>
-    <t>37.0(±11.6)</t>
-  </si>
-  <si>
-    <t>5.9(±22.4)</t>
-  </si>
-  <si>
-    <t>7.0(±13.7)</t>
-  </si>
-  <si>
-    <t>-4.8(±9.4)</t>
-  </si>
-  <si>
-    <t>24.7(±1.7)</t>
-  </si>
-  <si>
-    <t>-10.7(±6.2)</t>
-  </si>
-  <si>
-    <t>-2.5(±4.0)</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>5597.2 (±112.2)</t>
-  </si>
-  <si>
-    <t>7588.8 (±306.8)</t>
-  </si>
-  <si>
-    <t>11547.0 (±304.2)</t>
-  </si>
-  <si>
-    <t>4770.8 (±216.6)</t>
-  </si>
-  <si>
-    <t>400.2 (±14.6)</t>
-  </si>
-  <si>
-    <t>9844.8 (±319.9)</t>
-  </si>
-  <si>
-    <t>3758.2 (±133.4)</t>
-  </si>
-  <si>
-    <t>1610.2 (±61.1)</t>
-  </si>
-  <si>
-    <t>3850.8 (±225.9)</t>
-  </si>
-  <si>
-    <t>46342.6 (±1672.8)</t>
-  </si>
-  <si>
-    <t>8003.0 (±151.5)</t>
-  </si>
-  <si>
-    <t>15043.0 (±648.1)</t>
-  </si>
-  <si>
-    <t>148.6 (±14.9)</t>
-  </si>
-  <si>
-    <t>32686.0 (±858.5)</t>
-  </si>
-  <si>
-    <t>3340.4 (±124.7)</t>
-  </si>
-  <si>
-    <t>18.2 (±1.8)</t>
-  </si>
-  <si>
-    <t>4913.8 (±375.9)</t>
-  </si>
-  <si>
-    <t>340.4 (±11.5)</t>
-  </si>
-  <si>
-    <t>241.0 (±12.6)</t>
-  </si>
-  <si>
-    <t>723.2 (±15.8)</t>
-  </si>
-  <si>
-    <t>9078.8 (±226.8)</t>
-  </si>
-  <si>
-    <t>2405.0 (±65.7)</t>
-  </si>
-  <si>
-    <t>51241.2 (±1807.7)</t>
-  </si>
-  <si>
-    <t>8258.8 (±111.2)</t>
-  </si>
-  <si>
-    <t>32265.8 (±411.7)</t>
-  </si>
-  <si>
-    <t>9853.4 (±495.5)</t>
-  </si>
-  <si>
-    <t>6877.8 (±266.7)</t>
-  </si>
-  <si>
-    <t>1763.0 (±101.9)</t>
-  </si>
-  <si>
-    <t>28657.0 (±320.6)</t>
-  </si>
-  <si>
-    <t>3990.4 (±251.2)</t>
-  </si>
-  <si>
-    <t>3907.6 (±105.7)</t>
-  </si>
-  <si>
-    <t>453.8 (±112.2)</t>
-  </si>
-  <si>
-    <t>445.2 (±306.8)</t>
-  </si>
-  <si>
-    <t>2055.0 (±304.2)</t>
-  </si>
-  <si>
-    <t>-122.8 (±216.6)</t>
-  </si>
-  <si>
-    <t>72.8 (±14.6)</t>
-  </si>
-  <si>
-    <t>460.2 (±319.9)</t>
-  </si>
-  <si>
-    <t>-361.2 (±133.4)</t>
-  </si>
-  <si>
-    <t>41.8 (±61.1)</t>
-  </si>
-  <si>
-    <t>-60.8 (±225.9)</t>
-  </si>
-  <si>
-    <t>-463.6 (±1672.8)</t>
-  </si>
-  <si>
-    <t>143.0 (±151.5)</t>
-  </si>
-  <si>
-    <t>-282.0 (±648.1)</t>
-  </si>
-  <si>
-    <t>9.4 (±14.9)</t>
-  </si>
-  <si>
-    <t>4069.0 (±858.5)</t>
-  </si>
-  <si>
-    <t>-196.4 (±124.7)</t>
-  </si>
-  <si>
-    <t>-4.2 (±1.8)</t>
-  </si>
-  <si>
-    <t>539.2 (±375.9)</t>
-  </si>
-  <si>
-    <t>40.6 (±11.5)</t>
-  </si>
-  <si>
-    <t>25.0 (±12.6)</t>
-  </si>
-  <si>
-    <t>45.8 (±15.8)</t>
-  </si>
-  <si>
-    <t>285.2 (±226.8)</t>
-  </si>
-  <si>
-    <t>-129.0 (±65.7)</t>
-  </si>
-  <si>
-    <t>2549.8 (±1807.7)</t>
-  </si>
-  <si>
-    <t>569.2 (±111.2)</t>
-  </si>
-  <si>
-    <t>3469.2 (±411.7)</t>
-  </si>
-  <si>
-    <t>651.6 (±495.5)</t>
-  </si>
-  <si>
-    <t>-144.8 (±266.7)</t>
-  </si>
-  <si>
-    <t>-40.0 (±101.9)</t>
-  </si>
-  <si>
-    <t>3531.0 (±320.6)</t>
-  </si>
-  <si>
-    <t>16.6 (±251.2)</t>
-  </si>
-  <si>
-    <t>33.4 (±105.7)</t>
-  </si>
-  <si>
-    <t>8.1% (±2.1%)</t>
-  </si>
-  <si>
-    <t>5.9% (±4.1%)</t>
-  </si>
-  <si>
-    <t>17.8% (±3.0%)</t>
-  </si>
-  <si>
-    <t>-2.6% (±4.2%)</t>
-  </si>
-  <si>
-    <t>18.2% (±4.2%)</t>
-  </si>
-  <si>
-    <t>4.7% (±3.3%)</t>
-  </si>
-  <si>
-    <t>-9.6% (±3.1%)</t>
-  </si>
-  <si>
-    <t>2.6% (±3.8%)</t>
-  </si>
-  <si>
-    <t>-1.6% (±5.4%)</t>
-  </si>
-  <si>
-    <t>-1.0% (±3.4%)</t>
-  </si>
-  <si>
-    <t>1.8% (±1.9%)</t>
-  </si>
-  <si>
-    <t>-1.9% (±4.0%)</t>
-  </si>
-  <si>
-    <t>6.3% (±9.7%)</t>
-  </si>
-  <si>
-    <t>12.4% (±2.8%)</t>
-  </si>
-  <si>
-    <t>-5.9% (±3.4%)</t>
-  </si>
-  <si>
-    <t>-23.1% (±6.9%)</t>
-  </si>
-  <si>
-    <t>11.0% (±7.9%)</t>
-  </si>
-  <si>
-    <t>11.9% (±3.6%)</t>
-  </si>
-  <si>
-    <t>10.4% (±5.5%)</t>
-  </si>
-  <si>
-    <t>6.3% (±2.2%)</t>
-  </si>
-  <si>
-    <t>3.1% (±2.5%)</t>
-  </si>
-  <si>
-    <t>-5.4% (±2.5%)</t>
-  </si>
-  <si>
-    <t>5.0% (±3.6%)</t>
-  </si>
-  <si>
-    <t>6.9% (±1.4%)</t>
-  </si>
-  <si>
-    <t>10.8% (±1.4%)</t>
-  </si>
-  <si>
-    <t>6.6% (±5.1%)</t>
-  </si>
-  <si>
-    <t>-2.1% (±3.7%)</t>
-  </si>
-  <si>
-    <t>-2.3% (±5.3%)</t>
-  </si>
-  <si>
-    <t>12.3% (±1.2%)</t>
-  </si>
-  <si>
-    <t>0.4% (±5.9%)</t>
-  </si>
-  <si>
-    <t>0.9% (±2.7%)</t>
-  </si>
-  <si>
-    <t>29.0(±7.1)</t>
-  </si>
-  <si>
-    <t>23.2(±16.0)</t>
-  </si>
-  <si>
-    <t>165.7(±24.6)</t>
-  </si>
-  <si>
-    <t>-17.6(±31.0)</t>
-  </si>
-  <si>
-    <t>55.1(±11.1)</t>
-  </si>
-  <si>
-    <t>24.2(±16.8)</t>
-  </si>
-  <si>
-    <t>-38.0(±14.1)</t>
-  </si>
-  <si>
-    <t>19.5(±28.5)</t>
-  </si>
-  <si>
-    <t>-6.9(±25.7)</t>
-  </si>
-  <si>
-    <t>-4.4(±15.9)</t>
-  </si>
-  <si>
     <t>-16.6(±38.1)</t>
   </si>
   <si>
@@ -919,7 +922,7 @@
     <t>55.5(±42.2)</t>
   </si>
   <si>
-    <t>-15.2(±28.0)</t>
+    <t>-15.1(±28.0)</t>
   </si>
   <si>
     <t>-10.3(±26.2)</t>
@@ -1045,7 +1048,7 @@
     <t>95.0 (±21.1)</t>
   </si>
   <si>
-    <t>605.6 (±469.6)</t>
+    <t>604.6 (±469.6)</t>
   </si>
   <si>
     <t>-552.6 (±260.5)</t>
@@ -1108,7 +1111,7 @@
     <t>723.4 (±746.6)</t>
   </si>
   <si>
-    <t>-77.8 (±395.7)</t>
+    <t>-74.8 (±395.7)</t>
   </si>
   <si>
     <t>-57.8 (±128.6)</t>
@@ -1294,7 +1297,7 @@
     <t>30.1(±31.2)</t>
   </si>
   <si>
-    <t>-4.1(±20.7)</t>
+    <t>-3.9(±20.6)</t>
   </si>
   <si>
     <t>-7.6(±17.0)</t>
@@ -2182,7 +2185,7 @@
         <v>4386</v>
       </c>
       <c r="H7">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="I7">
         <v>4657.600000000001</v>
@@ -2203,7 +2206,7 @@
         <v>4810.100000000001</v>
       </c>
       <c r="O7">
-        <v>145.4</v>
+        <v>144.4</v>
       </c>
       <c r="P7">
         <v>152.5</v>
@@ -2212,7 +2215,7 @@
         <v>3.1</v>
       </c>
       <c r="R7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="S7" t="s">
         <v>62</v>
@@ -2230,7 +2233,7 @@
         <v>7.8</v>
       </c>
       <c r="X7">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -3799,7 +3802,7 @@
         <v>2692</v>
       </c>
       <c r="H28">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="I28">
         <v>2971.999999999999</v>
@@ -3820,7 +3823,7 @@
         <v>3104.099999999999</v>
       </c>
       <c r="O28">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P28">
         <v>132.1</v>
@@ -3829,7 +3832,7 @@
         <v>2.3</v>
       </c>
       <c r="R28">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3844,7 +3847,7 @@
         <v>963841</v>
       </c>
       <c r="W28">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X28">
         <v>13.7</v>
@@ -5095,7 +5098,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Y12" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -5172,7 +5175,7 @@
         <v>38.1</v>
       </c>
       <c r="Y13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -5249,7 +5252,7 @@
         <v>26.1</v>
       </c>
       <c r="Y14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5326,7 +5329,7 @@
         <v>7.8</v>
       </c>
       <c r="Y15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -5403,7 +5406,7 @@
         <v>40.6</v>
       </c>
       <c r="Y16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -5480,7 +5483,7 @@
         <v>25.1</v>
       </c>
       <c r="Y17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -5557,7 +5560,7 @@
         <v>80.7</v>
       </c>
       <c r="Y18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -5634,7 +5637,7 @@
         <v>10.4</v>
       </c>
       <c r="Y19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -5711,7 +5714,7 @@
         <v>15</v>
       </c>
       <c r="Y20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -5788,7 +5791,7 @@
         <v>15.7</v>
       </c>
       <c r="Y21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -5865,7 +5868,7 @@
         <v>7.8</v>
       </c>
       <c r="Y22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -5942,7 +5945,7 @@
         <v>7.5</v>
       </c>
       <c r="Y23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -6019,7 +6022,7 @@
         <v>28.6</v>
       </c>
       <c r="Y24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -6096,7 +6099,7 @@
         <v>6.3</v>
       </c>
       <c r="Y25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -6173,7 +6176,7 @@
         <v>12</v>
       </c>
       <c r="Y26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -6250,7 +6253,7 @@
         <v>42.2</v>
       </c>
       <c r="Y27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -6276,7 +6279,7 @@
         <v>6309</v>
       </c>
       <c r="H28">
-        <v>6733</v>
+        <v>6734</v>
       </c>
       <c r="I28">
         <v>6877.799999999998</v>
@@ -6297,7 +6300,7 @@
         <v>7144.499999999998</v>
       </c>
       <c r="O28">
-        <v>-144.8</v>
+        <v>-143.8</v>
       </c>
       <c r="P28">
         <v>266.7</v>
@@ -6306,7 +6309,7 @@
         <v>-2.1</v>
       </c>
       <c r="R28">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="S28" t="s">
         <v>208</v>
@@ -6321,13 +6324,13 @@
         <v>954836</v>
       </c>
       <c r="W28">
-        <v>-15.2</v>
+        <v>-15.1</v>
       </c>
       <c r="X28">
         <v>28</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -6404,7 +6407,7 @@
         <v>26.2</v>
       </c>
       <c r="Y29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -6481,7 +6484,7 @@
         <v>3.6</v>
       </c>
       <c r="Y30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -6558,7 +6561,7 @@
         <v>15.7</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -6635,7 +6638,7 @@
         <v>7</v>
       </c>
       <c r="Y32" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +6733,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -6784,13 +6787,13 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="T2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="U2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V2">
         <v>3149418</v>
@@ -6802,12 +6805,12 @@
         <v>5.4</v>
       </c>
       <c r="Y2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -6861,13 +6864,13 @@
         <v>3.7</v>
       </c>
       <c r="S3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="T3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V3">
         <v>3823073</v>
@@ -6879,12 +6882,12 @@
         <v>11.7</v>
       </c>
       <c r="Y3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -6938,13 +6941,13 @@
         <v>3.2</v>
       </c>
       <c r="S4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="T4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V4">
         <v>2483521</v>
@@ -6956,12 +6959,12 @@
         <v>18.7</v>
       </c>
       <c r="Y4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -7015,13 +7018,13 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V5">
         <v>1411276</v>
@@ -7033,12 +7036,12 @@
         <v>20.6</v>
       </c>
       <c r="Y5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -7092,13 +7095,13 @@
         <v>3.8</v>
       </c>
       <c r="S6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V6">
         <v>268729</v>
@@ -7110,12 +7113,12 @@
         <v>7.8</v>
       </c>
       <c r="Y6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -7136,7 +7139,7 @@
         <v>13573</v>
       </c>
       <c r="H7">
-        <v>15108</v>
+        <v>15107</v>
       </c>
       <c r="I7">
         <v>14502.4</v>
@@ -7157,7 +7160,7 @@
         <v>14972</v>
       </c>
       <c r="O7">
-        <v>605.6</v>
+        <v>604.6</v>
       </c>
       <c r="P7">
         <v>469.6</v>
@@ -7169,13 +7172,13 @@
         <v>3.3</v>
       </c>
       <c r="S7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V7">
         <v>3754028</v>
@@ -7187,12 +7190,12 @@
         <v>12.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -7246,13 +7249,13 @@
         <v>3.7</v>
       </c>
       <c r="S8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="T8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V8">
         <v>1900863</v>
@@ -7264,12 +7267,12 @@
         <v>13.7</v>
       </c>
       <c r="Y8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7323,13 +7326,13 @@
         <v>3.9</v>
       </c>
       <c r="S9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="T9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V9">
         <v>439984</v>
@@ -7341,12 +7344,12 @@
         <v>19.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -7400,13 +7403,13 @@
         <v>4.6</v>
       </c>
       <c r="S10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="T10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V10">
         <v>1745132</v>
@@ -7418,12 +7421,12 @@
         <v>16.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -7477,13 +7480,13 @@
         <v>2.7</v>
       </c>
       <c r="S11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V11">
         <v>21517650</v>
@@ -7495,12 +7498,12 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7554,13 +7557,13 @@
         <v>1.1</v>
       </c>
       <c r="S12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V12">
         <v>3797626</v>
@@ -7572,12 +7575,12 @@
         <v>3.2</v>
       </c>
       <c r="Y12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7631,13 +7634,13 @@
         <v>4.3</v>
       </c>
       <c r="S13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V13">
         <v>3474333</v>
@@ -7649,12 +7652,12 @@
         <v>30.3</v>
       </c>
       <c r="Y13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -7708,13 +7711,13 @@
         <v>5.9</v>
       </c>
       <c r="S14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V14">
         <v>111401</v>
@@ -7726,12 +7729,12 @@
         <v>13.4</v>
       </c>
       <c r="Y14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -7785,13 +7788,13 @@
         <v>2.6</v>
       </c>
       <c r="S15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V15">
         <v>22244774</v>
@@ -7803,12 +7806,12 @@
         <v>5.7</v>
       </c>
       <c r="Y15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -7862,13 +7865,13 @@
         <v>3.3</v>
       </c>
       <c r="S16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V16">
         <v>653837</v>
@@ -7880,12 +7883,12 @@
         <v>25.9</v>
       </c>
       <c r="Y16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -7939,13 +7942,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V17">
         <v>14530</v>
@@ -7957,12 +7960,12 @@
         <v>26.8</v>
       </c>
       <c r="Y17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -8016,13 +8019,13 @@
         <v>7.2</v>
       </c>
       <c r="S18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V18">
         <v>985469</v>
@@ -8034,12 +8037,12 @@
         <v>47.8</v>
       </c>
       <c r="Y18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -8093,13 +8096,13 @@
         <v>2.6</v>
       </c>
       <c r="S19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V19">
         <v>217216</v>
@@ -8111,12 +8114,12 @@
         <v>6.1</v>
       </c>
       <c r="Y19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -8170,13 +8173,13 @@
         <v>3.2</v>
       </c>
       <c r="S20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="U20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V20">
         <v>160331</v>
@@ -8188,12 +8191,12 @@
         <v>7.4</v>
       </c>
       <c r="Y20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -8247,13 +8250,13 @@
         <v>2.5</v>
       </c>
       <c r="S21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="T21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V21">
         <v>205268</v>
@@ -8265,12 +8268,12 @@
         <v>12.6</v>
       </c>
       <c r="Y21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -8324,13 +8327,13 @@
         <v>2.8</v>
       </c>
       <c r="S22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V22">
         <v>5858292</v>
@@ -8342,12 +8345,12 @@
         <v>7.6</v>
       </c>
       <c r="Y22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -8401,13 +8404,13 @@
         <v>2.5</v>
       </c>
       <c r="S23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U23" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V23">
         <v>1734716</v>
@@ -8419,12 +8422,12 @@
         <v>6.2</v>
       </c>
       <c r="Y23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -8478,13 +8481,13 @@
         <v>3.5</v>
       </c>
       <c r="S24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="U24" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V24">
         <v>12856410</v>
@@ -8496,12 +8499,12 @@
         <v>20.2</v>
       </c>
       <c r="Y24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -8555,13 +8558,13 @@
         <v>1.1</v>
       </c>
       <c r="S25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="U25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V25">
         <v>3736038</v>
@@ -8573,12 +8576,12 @@
         <v>3.3</v>
       </c>
       <c r="Y25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -8632,13 +8635,13 @@
         <v>1.9</v>
       </c>
       <c r="S26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U26" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V26">
         <v>6858653</v>
@@ -8650,12 +8653,12 @@
         <v>11.4</v>
       </c>
       <c r="Y26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -8709,13 +8712,13 @@
         <v>4.9</v>
       </c>
       <c r="S27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V27">
         <v>2399380</v>
@@ -8727,12 +8730,12 @@
         <v>31.2</v>
       </c>
       <c r="Y27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
@@ -8753,7 +8756,7 @@
         <v>9001</v>
       </c>
       <c r="H28">
-        <v>9772</v>
+        <v>9775</v>
       </c>
       <c r="I28">
         <v>9849.799999999999</v>
@@ -8774,7 +8777,7 @@
         <v>10245.5</v>
       </c>
       <c r="O28">
-        <v>-77.8</v>
+        <v>-74.8</v>
       </c>
       <c r="P28">
         <v>395.7</v>
@@ -8786,30 +8789,30 @@
         <v>3.8</v>
       </c>
       <c r="S28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V28">
         <v>1918677</v>
       </c>
       <c r="W28">
-        <v>-4.1</v>
+        <v>-3.9</v>
       </c>
       <c r="X28">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Y28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -8863,13 +8866,13 @@
         <v>4.6</v>
       </c>
       <c r="S29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V29">
         <v>756559</v>
@@ -8881,12 +8884,12 @@
         <v>17</v>
       </c>
       <c r="Y29" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -8940,13 +8943,13 @@
         <v>0.9</v>
       </c>
       <c r="S30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="T30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="U30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V30">
         <v>17787666</v>
@@ -8958,12 +8961,12 @@
         <v>1.9</v>
       </c>
       <c r="Y30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
@@ -9017,13 +9020,13 @@
         <v>4.8</v>
       </c>
       <c r="S31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V31">
         <v>3164608</v>
@@ -9035,12 +9038,12 @@
         <v>10.9</v>
       </c>
       <c r="Y31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -9094,13 +9097,13 @@
         <v>2.2</v>
       </c>
       <c r="S32" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="U32" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V32">
         <v>3008509</v>
@@ -9112,7 +9115,7 @@
         <v>4.7</v>
       </c>
       <c r="Y32" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9130,7 +9133,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9139,18 +9142,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9170,7 +9173,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9190,7 +9193,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -9210,7 +9213,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9230,7 +9233,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9250,7 +9253,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>181</v>
@@ -9270,7 +9273,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
@@ -9290,7 +9293,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
@@ -9310,7 +9313,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>181</v>
@@ -9330,7 +9333,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -9350,10 +9353,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -9370,10 +9373,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -9390,10 +9393,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -9410,10 +9413,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -9430,10 +9433,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -9450,7 +9453,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9470,7 +9473,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -9490,7 +9493,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -9510,7 +9513,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9530,7 +9533,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -9550,7 +9553,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
         <v>181</v>
@@ -9570,7 +9573,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B23" t="s">
         <v>181</v>
@@ -9590,7 +9593,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B24" t="s">
         <v>181</v>
@@ -9610,7 +9613,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
         <v>181</v>
@@ -9630,7 +9633,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
         <v>181</v>
@@ -9650,10 +9653,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -9670,10 +9673,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -9690,10 +9693,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -9710,10 +9713,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -9730,10 +9733,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -9750,7 +9753,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -9810,7 +9813,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -9830,7 +9833,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -9850,7 +9853,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B37" t="s">
         <v>181</v>
@@ -9870,7 +9873,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B38" t="s">
         <v>181</v>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -9930,7 +9933,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -9950,10 +9953,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B42" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -9970,10 +9973,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -9990,10 +9993,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -10010,10 +10013,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -10030,10 +10033,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -10050,7 +10053,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -10070,7 +10073,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -10090,7 +10093,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -10110,7 +10113,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -10130,7 +10133,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -10150,7 +10153,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s">
         <v>181</v>
@@ -10170,7 +10173,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s">
         <v>181</v>
@@ -10190,7 +10193,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B55" t="s">
         <v>181</v>
@@ -10230,7 +10233,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s">
         <v>181</v>
@@ -10250,10 +10253,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -10270,10 +10273,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -10290,10 +10293,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -10310,10 +10313,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -10330,10 +10333,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -10350,7 +10353,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -10370,7 +10373,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -10390,7 +10393,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -10410,7 +10413,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -10430,7 +10433,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -10450,7 +10453,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -10470,7 +10473,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B68" t="s">
         <v>181</v>
@@ -10490,7 +10493,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s">
         <v>181</v>
@@ -10510,7 +10513,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
@@ -10530,7 +10533,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B71" t="s">
         <v>181</v>
@@ -10550,10 +10553,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -10570,10 +10573,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -10590,10 +10593,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -10610,10 +10613,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -10630,10 +10633,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -10650,7 +10653,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -10670,7 +10673,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -10690,7 +10693,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -10710,7 +10713,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -10730,7 +10733,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -10750,7 +10753,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s">
         <v>181</v>
@@ -10770,7 +10773,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s">
         <v>181</v>
@@ -10790,7 +10793,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B84" t="s">
         <v>181</v>
@@ -10810,7 +10813,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B85" t="s">
         <v>181</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B86" t="s">
         <v>181</v>
@@ -10850,10 +10853,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -10870,10 +10873,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -10890,10 +10893,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B89" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -10910,10 +10913,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B90" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -10930,10 +10933,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -10950,7 +10953,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -10970,7 +10973,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -10990,7 +10993,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -11010,7 +11013,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
@@ -11030,7 +11033,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -11050,7 +11053,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B97" t="s">
         <v>181</v>
@@ -11070,7 +11073,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
@@ -11090,7 +11093,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B99" t="s">
         <v>181</v>
@@ -11110,7 +11113,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
         <v>181</v>
@@ -11130,7 +11133,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -11150,10 +11153,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
@@ -11170,10 +11173,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
         <v>32</v>
@@ -11190,10 +11193,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
@@ -11210,10 +11213,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
@@ -11230,10 +11233,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B106" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
@@ -11250,7 +11253,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
         <v>25</v>
@@ -11270,7 +11273,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B108" t="s">
         <v>25</v>
@@ -11290,7 +11293,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
@@ -11310,7 +11313,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -11330,7 +11333,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B112" t="s">
         <v>181</v>
@@ -11370,7 +11373,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B113" t="s">
         <v>181</v>
@@ -11390,7 +11393,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B114" t="s">
         <v>181</v>
@@ -11410,7 +11413,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B115" t="s">
         <v>181</v>
@@ -11430,7 +11433,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B116" t="s">
         <v>181</v>
@@ -11450,10 +11453,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B117" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C117" t="s">
         <v>33</v>
@@ -11470,10 +11473,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C118" t="s">
         <v>33</v>
@@ -11490,10 +11493,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B119" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C119" t="s">
         <v>33</v>
@@ -11510,10 +11513,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C120" t="s">
         <v>33</v>
@@ -11530,10 +11533,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B121" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C121" t="s">
         <v>33</v>
@@ -11550,7 +11553,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -11570,7 +11573,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -11590,7 +11593,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -11610,7 +11613,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
@@ -11630,7 +11633,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -11650,7 +11653,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B127" t="s">
         <v>181</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B128" t="s">
         <v>181</v>
@@ -11690,7 +11693,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B129" t="s">
         <v>181</v>
@@ -11710,7 +11713,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B130" t="s">
         <v>181</v>
@@ -11730,7 +11733,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B131" t="s">
         <v>181</v>
@@ -11750,10 +11753,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -11770,10 +11773,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
@@ -11790,10 +11793,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -11810,10 +11813,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B135" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C135" t="s">
         <v>34</v>
@@ -11830,10 +11833,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B136" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C136" t="s">
         <v>34</v>
@@ -11850,7 +11853,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
@@ -11870,7 +11873,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
@@ -11890,7 +11893,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
@@ -11910,7 +11913,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
@@ -11930,7 +11933,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B142" t="s">
         <v>181</v>
@@ -11970,7 +11973,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B143" t="s">
         <v>181</v>
@@ -11990,7 +11993,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B144" t="s">
         <v>181</v>
@@ -12010,7 +12013,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
         <v>181</v>
@@ -12030,7 +12033,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B146" t="s">
         <v>181</v>
@@ -12050,10 +12053,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -12070,10 +12073,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B148" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -12090,10 +12093,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B149" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -12110,10 +12113,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -12130,10 +12133,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -12150,7 +12153,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
@@ -12170,7 +12173,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
@@ -12190,7 +12193,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s">
         <v>25</v>
@@ -12210,7 +12213,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
@@ -12230,7 +12233,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -12250,7 +12253,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B157" t="s">
         <v>181</v>
@@ -12270,7 +12273,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B158" t="s">
         <v>181</v>
@@ -12290,7 +12293,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B159" t="s">
         <v>181</v>
@@ -12310,7 +12313,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B160" t="s">
         <v>181</v>
@@ -12330,7 +12333,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B161" t="s">
         <v>181</v>
@@ -12350,10 +12353,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
@@ -12370,10 +12373,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C163" t="s">
         <v>36</v>
@@ -12390,10 +12393,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C164" t="s">
         <v>36</v>
@@ -12410,10 +12413,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -12430,10 +12433,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B166" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C166" t="s">
         <v>36</v>
@@ -12450,7 +12453,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B167" t="s">
         <v>25</v>
@@ -12470,7 +12473,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B168" t="s">
         <v>25</v>
@@ -12490,7 +12493,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B169" t="s">
         <v>25</v>
@@ -12510,7 +12513,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
@@ -12530,7 +12533,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
@@ -12550,7 +12553,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B172" t="s">
         <v>181</v>
@@ -12570,7 +12573,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
@@ -12590,7 +12593,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
@@ -12610,7 +12613,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B175" t="s">
         <v>181</v>
@@ -12630,7 +12633,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B176" t="s">
         <v>181</v>
@@ -12650,10 +12653,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C177" t="s">
         <v>37</v>
@@ -12670,10 +12673,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C178" t="s">
         <v>37</v>
@@ -12690,10 +12693,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B179" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
@@ -12710,10 +12713,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -12730,10 +12733,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B181" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -12750,7 +12753,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -12770,7 +12773,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -12790,7 +12793,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
@@ -12810,7 +12813,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s">
         <v>25</v>
@@ -12830,7 +12833,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B186" t="s">
         <v>25</v>
@@ -12850,7 +12853,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B187" t="s">
         <v>181</v>
@@ -12870,7 +12873,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B188" t="s">
         <v>181</v>
@@ -12890,7 +12893,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B189" t="s">
         <v>181</v>
@@ -12910,7 +12913,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B190" t="s">
         <v>181</v>
@@ -12930,7 +12933,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B191" t="s">
         <v>181</v>
@@ -12950,10 +12953,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
@@ -12970,10 +12973,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B193" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C193" t="s">
         <v>38</v>
@@ -12990,10 +12993,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B194" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -13010,10 +13013,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C195" t="s">
         <v>38</v>
@@ -13030,10 +13033,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B196" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C196" t="s">
         <v>38</v>
@@ -13050,7 +13053,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B197" t="s">
         <v>25</v>
@@ -13070,7 +13073,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B198" t="s">
         <v>25</v>
@@ -13090,7 +13093,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -13110,7 +13113,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -13130,7 +13133,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -13150,7 +13153,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B202" t="s">
         <v>181</v>
@@ -13170,7 +13173,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B203" t="s">
         <v>181</v>
@@ -13190,7 +13193,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B204" t="s">
         <v>181</v>
@@ -13210,7 +13213,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B205" t="s">
         <v>181</v>
@@ -13230,7 +13233,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B206" t="s">
         <v>181</v>
@@ -13250,10 +13253,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B207" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
@@ -13270,10 +13273,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B208" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C208" t="s">
         <v>39</v>
@@ -13290,10 +13293,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B209" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C209" t="s">
         <v>39</v>
@@ -13310,10 +13313,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C210" t="s">
         <v>39</v>
@@ -13330,10 +13333,10 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B211" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C211" t="s">
         <v>39</v>
@@ -13350,7 +13353,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B212" t="s">
         <v>25</v>
@@ -13370,7 +13373,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B213" t="s">
         <v>25</v>
@@ -13390,7 +13393,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B214" t="s">
         <v>25</v>
@@ -13410,7 +13413,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B215" t="s">
         <v>25</v>
@@ -13430,7 +13433,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B216" t="s">
         <v>25</v>
@@ -13450,7 +13453,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B217" t="s">
         <v>181</v>
@@ -13470,7 +13473,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B218" t="s">
         <v>181</v>
@@ -13490,7 +13493,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B219" t="s">
         <v>181</v>
@@ -13510,7 +13513,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s">
         <v>181</v>
@@ -13530,7 +13533,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
         <v>181</v>
@@ -13550,10 +13553,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C222" t="s">
         <v>40</v>
@@ -13570,10 +13573,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C223" t="s">
         <v>40</v>
@@ -13590,10 +13593,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B224" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C224" t="s">
         <v>40</v>
@@ -13610,10 +13613,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B225" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
         <v>40</v>
@@ -13630,10 +13633,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C226" t="s">
         <v>40</v>
@@ -13650,7 +13653,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B227" t="s">
         <v>25</v>
@@ -13670,7 +13673,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
@@ -13690,7 +13693,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B229" t="s">
         <v>25</v>
@@ -13710,7 +13713,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B230" t="s">
         <v>25</v>
@@ -13730,7 +13733,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -13750,7 +13753,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B232" t="s">
         <v>181</v>
@@ -13770,7 +13773,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B233" t="s">
         <v>181</v>
@@ -13790,7 +13793,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B234" t="s">
         <v>181</v>
@@ -13810,7 +13813,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B235" t="s">
         <v>181</v>
@@ -13830,7 +13833,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B236" t="s">
         <v>181</v>
@@ -13850,10 +13853,10 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
@@ -13870,10 +13873,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B238" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C238" t="s">
         <v>41</v>
@@ -13890,10 +13893,10 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B239" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
@@ -13910,10 +13913,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B240" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C240" t="s">
         <v>41</v>
@@ -13930,10 +13933,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B241" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C241" t="s">
         <v>41</v>
@@ -13950,7 +13953,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B242" t="s">
         <v>25</v>
@@ -13970,7 +13973,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B243" t="s">
         <v>25</v>
@@ -13990,7 +13993,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B244" t="s">
         <v>25</v>
@@ -14010,7 +14013,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B245" t="s">
         <v>25</v>
@@ -14030,7 +14033,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B246" t="s">
         <v>25</v>
@@ -14050,7 +14053,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B247" t="s">
         <v>181</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B248" t="s">
         <v>181</v>
@@ -14090,7 +14093,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B249" t="s">
         <v>181</v>
@@ -14110,7 +14113,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B250" t="s">
         <v>181</v>
@@ -14130,7 +14133,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B251" t="s">
         <v>181</v>
@@ -14150,10 +14153,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B252" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C252" t="s">
         <v>42</v>
@@ -14170,10 +14173,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B253" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C253" t="s">
         <v>42</v>
@@ -14190,10 +14193,10 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B254" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C254" t="s">
         <v>42</v>
@@ -14210,10 +14213,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B255" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C255" t="s">
         <v>42</v>
@@ -14230,10 +14233,10 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B256" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C256" t="s">
         <v>42</v>
@@ -14250,7 +14253,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B257" t="s">
         <v>25</v>
@@ -14270,7 +14273,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B258" t="s">
         <v>25</v>
@@ -14290,7 +14293,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B259" t="s">
         <v>25</v>
@@ -14310,7 +14313,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B260" t="s">
         <v>25</v>
@@ -14330,7 +14333,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B261" t="s">
         <v>25</v>
@@ -14350,7 +14353,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B262" t="s">
         <v>181</v>
@@ -14370,7 +14373,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B263" t="s">
         <v>181</v>
@@ -14390,7 +14393,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B264" t="s">
         <v>181</v>
@@ -14410,7 +14413,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B265" t="s">
         <v>181</v>
@@ -14430,7 +14433,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B266" t="s">
         <v>181</v>
@@ -14450,10 +14453,10 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B267" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C267" t="s">
         <v>43</v>
@@ -14470,10 +14473,10 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B268" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C268" t="s">
         <v>43</v>
@@ -14490,10 +14493,10 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B269" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C269" t="s">
         <v>43</v>
@@ -14510,10 +14513,10 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B270" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C270" t="s">
         <v>43</v>
@@ -14530,10 +14533,10 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B271" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C271" t="s">
         <v>43</v>
@@ -14550,7 +14553,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B272" t="s">
         <v>25</v>
@@ -14570,7 +14573,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B273" t="s">
         <v>25</v>
@@ -14590,7 +14593,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B274" t="s">
         <v>25</v>
@@ -14610,7 +14613,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B275" t="s">
         <v>25</v>
@@ -14630,7 +14633,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B276" t="s">
         <v>25</v>
@@ -14650,7 +14653,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B277" t="s">
         <v>181</v>
@@ -14670,7 +14673,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B278" t="s">
         <v>181</v>
@@ -14690,7 +14693,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B279" t="s">
         <v>181</v>
@@ -14710,7 +14713,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B280" t="s">
         <v>181</v>
@@ -14730,7 +14733,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B281" t="s">
         <v>181</v>
@@ -14750,10 +14753,10 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B282" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C282" t="s">
         <v>44</v>
@@ -14770,10 +14773,10 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B283" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C283" t="s">
         <v>44</v>
@@ -14790,10 +14793,10 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C284" t="s">
         <v>44</v>
@@ -14810,10 +14813,10 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B285" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C285" t="s">
         <v>44</v>
@@ -14830,10 +14833,10 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B286" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C286" t="s">
         <v>44</v>
@@ -14850,7 +14853,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B287" t="s">
         <v>25</v>
@@ -14870,7 +14873,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B288" t="s">
         <v>25</v>
@@ -14890,7 +14893,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B289" t="s">
         <v>25</v>
@@ -14910,7 +14913,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B290" t="s">
         <v>25</v>
@@ -14930,7 +14933,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B291" t="s">
         <v>25</v>
@@ -14950,7 +14953,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B292" t="s">
         <v>181</v>
@@ -14970,7 +14973,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B293" t="s">
         <v>181</v>
@@ -14990,7 +14993,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B294" t="s">
         <v>181</v>
@@ -15010,7 +15013,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B295" t="s">
         <v>181</v>
@@ -15030,7 +15033,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B296" t="s">
         <v>181</v>
@@ -15050,10 +15053,10 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B297" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C297" t="s">
         <v>45</v>
@@ -15070,10 +15073,10 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B298" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C298" t="s">
         <v>45</v>
@@ -15090,10 +15093,10 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C299" t="s">
         <v>45</v>
@@ -15110,10 +15113,10 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B300" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C300" t="s">
         <v>45</v>
@@ -15130,10 +15133,10 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C301" t="s">
         <v>45</v>
@@ -15150,7 +15153,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B302" t="s">
         <v>25</v>
@@ -15170,7 +15173,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B303" t="s">
         <v>25</v>
@@ -15190,7 +15193,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B304" t="s">
         <v>25</v>
@@ -15210,7 +15213,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B305" t="s">
         <v>25</v>
@@ -15230,7 +15233,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B306" t="s">
         <v>25</v>
@@ -15250,7 +15253,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B307" t="s">
         <v>181</v>
@@ -15270,7 +15273,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B308" t="s">
         <v>181</v>
@@ -15290,7 +15293,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B309" t="s">
         <v>181</v>
@@ -15310,7 +15313,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B310" t="s">
         <v>181</v>
@@ -15330,7 +15333,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B311" t="s">
         <v>181</v>
@@ -15350,10 +15353,10 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B312" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C312" t="s">
         <v>46</v>
@@ -15370,10 +15373,10 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B313" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" t="s">
         <v>46</v>
@@ -15390,10 +15393,10 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B314" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C314" t="s">
         <v>46</v>
@@ -15410,10 +15413,10 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B315" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C315" t="s">
         <v>46</v>
@@ -15430,10 +15433,10 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B316" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C316" t="s">
         <v>46</v>
@@ -15450,7 +15453,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B317" t="s">
         <v>25</v>
@@ -15470,7 +15473,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
         <v>25</v>
@@ -15490,7 +15493,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
         <v>25</v>
@@ -15510,7 +15513,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B320" t="s">
         <v>25</v>
@@ -15530,7 +15533,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B321" t="s">
         <v>25</v>
@@ -15550,7 +15553,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B322" t="s">
         <v>181</v>
@@ -15570,7 +15573,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B323" t="s">
         <v>181</v>
@@ -15590,7 +15593,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B324" t="s">
         <v>181</v>
@@ -15610,7 +15613,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B325" t="s">
         <v>181</v>
@@ -15630,7 +15633,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B326" t="s">
         <v>181</v>
@@ -15650,10 +15653,10 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B327" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C327" t="s">
         <v>47</v>
@@ -15670,10 +15673,10 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B328" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C328" t="s">
         <v>47</v>
@@ -15690,10 +15693,10 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B329" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C329" t="s">
         <v>47</v>
@@ -15710,10 +15713,10 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B330" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C330" t="s">
         <v>47</v>
@@ -15730,10 +15733,10 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B331" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C331" t="s">
         <v>47</v>
@@ -15750,7 +15753,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B332" t="s">
         <v>25</v>
@@ -15770,7 +15773,7 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B333" t="s">
         <v>25</v>
@@ -15790,7 +15793,7 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B334" t="s">
         <v>25</v>
@@ -15810,7 +15813,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B335" t="s">
         <v>25</v>
@@ -15830,7 +15833,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B336" t="s">
         <v>25</v>
@@ -15850,7 +15853,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B337" t="s">
         <v>181</v>
@@ -15870,7 +15873,7 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B338" t="s">
         <v>181</v>
@@ -15890,7 +15893,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B339" t="s">
         <v>181</v>
@@ -15910,7 +15913,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B340" t="s">
         <v>181</v>
@@ -15930,7 +15933,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B341" t="s">
         <v>181</v>
@@ -15950,10 +15953,10 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B342" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C342" t="s">
         <v>48</v>
@@ -15970,10 +15973,10 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B343" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C343" t="s">
         <v>48</v>
@@ -15990,10 +15993,10 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B344" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C344" t="s">
         <v>48</v>
@@ -16010,10 +16013,10 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B345" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C345" t="s">
         <v>48</v>
@@ -16030,10 +16033,10 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B346" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C346" t="s">
         <v>48</v>
@@ -16050,7 +16053,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B347" t="s">
         <v>25</v>
@@ -16070,7 +16073,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B348" t="s">
         <v>25</v>
@@ -16090,7 +16093,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B349" t="s">
         <v>25</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B350" t="s">
         <v>25</v>
@@ -16130,7 +16133,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B351" t="s">
         <v>25</v>
@@ -16150,7 +16153,7 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B352" t="s">
         <v>181</v>
@@ -16170,7 +16173,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B353" t="s">
         <v>181</v>
@@ -16190,7 +16193,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B354" t="s">
         <v>181</v>
@@ -16210,7 +16213,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B355" t="s">
         <v>181</v>
@@ -16230,7 +16233,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B356" t="s">
         <v>181</v>
@@ -16250,10 +16253,10 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B357" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C357" t="s">
         <v>49</v>
@@ -16270,10 +16273,10 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B358" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C358" t="s">
         <v>49</v>
@@ -16290,10 +16293,10 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B359" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C359" t="s">
         <v>49</v>
@@ -16310,10 +16313,10 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B360" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C360" t="s">
         <v>49</v>
@@ -16330,10 +16333,10 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B361" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C361" t="s">
         <v>49</v>
@@ -16350,7 +16353,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B362" t="s">
         <v>25</v>
@@ -16370,7 +16373,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B363" t="s">
         <v>25</v>
@@ -16390,7 +16393,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B364" t="s">
         <v>25</v>
@@ -16410,7 +16413,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B365" t="s">
         <v>25</v>
@@ -16430,7 +16433,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B366" t="s">
         <v>25</v>
@@ -16450,7 +16453,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B367" t="s">
         <v>181</v>
@@ -16470,7 +16473,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B368" t="s">
         <v>181</v>
@@ -16490,7 +16493,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B369" t="s">
         <v>181</v>
@@ -16510,7 +16513,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B370" t="s">
         <v>181</v>
@@ -16530,7 +16533,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B371" t="s">
         <v>181</v>
@@ -16550,10 +16553,10 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B372" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C372" t="s">
         <v>50</v>
@@ -16570,10 +16573,10 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B373" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C373" t="s">
         <v>50</v>
@@ -16590,10 +16593,10 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B374" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C374" t="s">
         <v>50</v>
@@ -16610,10 +16613,10 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B375" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C375" t="s">
         <v>50</v>
@@ -16630,10 +16633,10 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B376" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C376" t="s">
         <v>50</v>
@@ -16650,7 +16653,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B377" t="s">
         <v>25</v>
@@ -16670,7 +16673,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B378" t="s">
         <v>25</v>
@@ -16690,7 +16693,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B379" t="s">
         <v>25</v>
@@ -16710,7 +16713,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B380" t="s">
         <v>25</v>
@@ -16730,7 +16733,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B381" t="s">
         <v>25</v>
@@ -16750,7 +16753,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B382" t="s">
         <v>181</v>
@@ -16770,7 +16773,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B383" t="s">
         <v>181</v>
@@ -16790,7 +16793,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B384" t="s">
         <v>181</v>
@@ -16810,7 +16813,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B385" t="s">
         <v>181</v>
@@ -16830,7 +16833,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B386" t="s">
         <v>181</v>
@@ -16850,10 +16853,10 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B387" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C387" t="s">
         <v>51</v>
@@ -16870,10 +16873,10 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B388" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C388" t="s">
         <v>51</v>
@@ -16890,10 +16893,10 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B389" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C389" t="s">
         <v>51</v>
@@ -16910,10 +16913,10 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B390" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C390" t="s">
         <v>51</v>
@@ -16930,10 +16933,10 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B391" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C391" t="s">
         <v>51</v>
@@ -16950,7 +16953,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B392" t="s">
         <v>25</v>
@@ -16970,7 +16973,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B393" t="s">
         <v>25</v>
@@ -16990,7 +16993,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B394" t="s">
         <v>25</v>
@@ -17010,7 +17013,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B395" t="s">
         <v>25</v>
@@ -17030,7 +17033,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B396" t="s">
         <v>25</v>
@@ -17050,7 +17053,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B397" t="s">
         <v>181</v>
@@ -17070,7 +17073,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B398" t="s">
         <v>181</v>
@@ -17090,7 +17093,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B399" t="s">
         <v>181</v>
@@ -17110,7 +17113,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B400" t="s">
         <v>181</v>
@@ -17130,7 +17133,7 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B401" t="s">
         <v>181</v>
@@ -17150,10 +17153,10 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B402" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C402" t="s">
         <v>52</v>
@@ -17170,10 +17173,10 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B403" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C403" t="s">
         <v>52</v>
@@ -17190,10 +17193,10 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B404" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C404" t="s">
         <v>52</v>
@@ -17210,10 +17213,10 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B405" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C405" t="s">
         <v>52</v>
@@ -17230,10 +17233,10 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B406" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C406" t="s">
         <v>52</v>
@@ -17250,7 +17253,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B407" t="s">
         <v>25</v>
@@ -17270,7 +17273,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B408" t="s">
         <v>25</v>
@@ -17290,7 +17293,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B409" t="s">
         <v>25</v>
@@ -17310,7 +17313,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B410" t="s">
         <v>25</v>
@@ -17330,7 +17333,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B411" t="s">
         <v>25</v>
@@ -17350,7 +17353,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B412" t="s">
         <v>181</v>
@@ -17370,7 +17373,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B413" t="s">
         <v>181</v>
@@ -17390,7 +17393,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B414" t="s">
         <v>181</v>
@@ -17410,7 +17413,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B415" t="s">
         <v>181</v>
@@ -17430,7 +17433,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B416" t="s">
         <v>181</v>
@@ -17450,10 +17453,10 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B417" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C417" t="s">
         <v>53</v>
@@ -17470,10 +17473,10 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B418" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C418" t="s">
         <v>53</v>
@@ -17490,10 +17493,10 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B419" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C419" t="s">
         <v>53</v>
@@ -17510,10 +17513,10 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B420" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C420" t="s">
         <v>53</v>
@@ -17530,10 +17533,10 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B421" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C421" t="s">
         <v>53</v>
@@ -17550,7 +17553,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B422" t="s">
         <v>25</v>
@@ -17570,7 +17573,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B423" t="s">
         <v>25</v>
@@ -17590,7 +17593,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B424" t="s">
         <v>25</v>
@@ -17610,7 +17613,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B425" t="s">
         <v>25</v>
@@ -17630,7 +17633,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B426" t="s">
         <v>25</v>
@@ -17650,7 +17653,7 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B427" t="s">
         <v>181</v>
@@ -17670,7 +17673,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B428" t="s">
         <v>181</v>
@@ -17690,7 +17693,7 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B429" t="s">
         <v>181</v>
@@ -17710,7 +17713,7 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B430" t="s">
         <v>181</v>
@@ -17730,7 +17733,7 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B431" t="s">
         <v>181</v>
@@ -17750,10 +17753,10 @@
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B432" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C432" t="s">
         <v>54</v>
@@ -17770,10 +17773,10 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B433" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C433" t="s">
         <v>54</v>
@@ -17790,10 +17793,10 @@
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B434" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C434" t="s">
         <v>54</v>
@@ -17810,10 +17813,10 @@
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B435" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C435" t="s">
         <v>54</v>
@@ -17830,10 +17833,10 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B436" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C436" t="s">
         <v>54</v>
@@ -17850,7 +17853,7 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B437" t="s">
         <v>25</v>
@@ -17870,7 +17873,7 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>25</v>
@@ -17890,7 +17893,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>25</v>
@@ -17910,7 +17913,7 @@
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>25</v>
@@ -17930,7 +17933,7 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>25</v>
@@ -17950,7 +17953,7 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B442" t="s">
         <v>181</v>
@@ -17970,7 +17973,7 @@
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B443" t="s">
         <v>181</v>
@@ -17990,7 +17993,7 @@
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B444" t="s">
         <v>181</v>
@@ -18010,7 +18013,7 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B445" t="s">
         <v>181</v>
@@ -18030,7 +18033,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B446" t="s">
         <v>181</v>
@@ -18050,10 +18053,10 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B447" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C447" t="s">
         <v>55</v>
@@ -18070,10 +18073,10 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B448" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C448" t="s">
         <v>55</v>
@@ -18090,10 +18093,10 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B449" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C449" t="s">
         <v>55</v>
@@ -18110,10 +18113,10 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B450" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C450" t="s">
         <v>55</v>
@@ -18130,10 +18133,10 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B451" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C451" t="s">
         <v>55</v>
@@ -18150,7 +18153,7 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B452" t="s">
         <v>25</v>
@@ -18170,7 +18173,7 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B453" t="s">
         <v>25</v>
@@ -18190,7 +18193,7 @@
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B454" t="s">
         <v>25</v>
@@ -18210,7 +18213,7 @@
     </row>
     <row r="455" spans="1:6">
       <c r="A455" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B455" t="s">
         <v>25</v>
@@ -18230,7 +18233,7 @@
     </row>
     <row r="456" spans="1:6">
       <c r="A456" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B456" t="s">
         <v>25</v>
@@ -18250,7 +18253,7 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B457" t="s">
         <v>181</v>
@@ -18270,7 +18273,7 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B458" t="s">
         <v>181</v>
@@ -18290,7 +18293,7 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B459" t="s">
         <v>181</v>
@@ -18310,7 +18313,7 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B460" t="s">
         <v>181</v>
@@ -18330,7 +18333,7 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B461" t="s">
         <v>181</v>
@@ -18350,10 +18353,10 @@
     </row>
     <row r="462" spans="1:6">
       <c r="A462" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B462" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C462" t="s">
         <v>56</v>
@@ -18370,10 +18373,10 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B463" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C463" t="s">
         <v>56</v>
@@ -18390,10 +18393,10 @@
     </row>
     <row r="464" spans="1:6">
       <c r="A464" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B464" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C464" t="s">
         <v>56</v>
@@ -18410,10 +18413,10 @@
     </row>
     <row r="465" spans="1:6">
       <c r="A465" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B465" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C465" t="s">
         <v>56</v>
@@ -18430,10 +18433,10 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B466" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C466" t="s">
         <v>56</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(40-44) - (60-64).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(40-44) - (60-64).xlsx
@@ -250,7 +250,7 @@
     <t>366.8 (±18.9)</t>
   </si>
   <si>
-    <t>6834.2 (±225.0)</t>
+    <t>6832.4 (±224.1)</t>
   </si>
   <si>
     <t>1550.8 (±45.1)</t>
@@ -286,10 +286,10 @@
     <t>82.8 (±62.1)</t>
   </si>
   <si>
-    <t>20.0 (±156.7)</t>
-  </si>
-  <si>
-    <t>1072.8 (±176.0)</t>
+    <t>-37.0 (±156.7)</t>
+  </si>
+  <si>
+    <t>1074.8 (±176.0)</t>
   </si>
   <si>
     <t>0.4 (±81.5)</t>
@@ -304,13 +304,13 @@
     <t>-191.4 (±129.5)</t>
   </si>
   <si>
-    <t>75.2 (±31.1)</t>
+    <t>76.2 (±31.1)</t>
   </si>
   <si>
     <t>-157.0 (±64.3)</t>
   </si>
   <si>
-    <t>69.8 (±337.3)</t>
+    <t>71.8 (±337.3)</t>
   </si>
   <si>
     <t>241.0 (±57.7)</t>
@@ -322,10 +322,10 @@
     <t>6.6 (±7.9)</t>
   </si>
   <si>
-    <t>1381.4 (±413.6)</t>
-  </si>
-  <si>
-    <t>-37.8 (±49.4)</t>
+    <t>1383.4 (±413.6)</t>
+  </si>
+  <si>
+    <t>-22.8 (±49.4)</t>
   </si>
   <si>
     <t>-1.4 (±2.5)</t>
@@ -337,16 +337,16 @@
     <t>-13.4 (±8.9)</t>
   </si>
   <si>
-    <t>5.0 (±11.2)</t>
-  </si>
-  <si>
-    <t>27.2 (±18.9)</t>
-  </si>
-  <si>
-    <t>-229.2 (±225.0)</t>
-  </si>
-  <si>
-    <t>-86.8 (±45.1)</t>
+    <t>6.0 (±11.2)</t>
+  </si>
+  <si>
+    <t>22.2 (±18.9)</t>
+  </si>
+  <si>
+    <t>-227.4 (±224.1)</t>
+  </si>
+  <si>
+    <t>-85.8 (±45.1)</t>
   </si>
   <si>
     <t>314.8 (±801.2)</t>
@@ -355,7 +355,7 @@
     <t>173.0 (±40.9)</t>
   </si>
   <si>
-    <t>1266.6 (±396.9)</t>
+    <t>1274.6 (±396.9)</t>
   </si>
   <si>
     <t>71.8 (±274.3)</t>
@@ -364,10 +364,10 @@
     <t>69.0 (±132.1)</t>
   </si>
   <si>
-    <t>-17.8 (±34.7)</t>
-  </si>
-  <si>
-    <t>2202.6 (±158.9)</t>
+    <t>-15.8 (±34.7)</t>
+  </si>
+  <si>
+    <t>1960.6 (±158.9)</t>
   </si>
   <si>
     <t>-167.8 (±97.7)</t>
@@ -379,10 +379,10 @@
     <t>2.7% (±2.0%)</t>
   </si>
   <si>
-    <t>0.4% (±3.2%)</t>
-  </si>
-  <si>
-    <t>20.7% (±4.0%)</t>
+    <t>-0.8% (±3.2%)</t>
+  </si>
+  <si>
+    <t>20.7% (±3.9%)</t>
   </si>
   <si>
     <t>0.0% (±3.8%)</t>
@@ -397,7 +397,7 @@
     <t>-8.1% (±4.8%)</t>
   </si>
   <si>
-    <t>12.0% (±5.3%)</t>
+    <t>12.2% (±5.3%)</t>
   </si>
   <si>
     <t>-8.3% (±3.0%)</t>
@@ -418,7 +418,7 @@
     <t>7.0% (±2.2%)</t>
   </si>
   <si>
-    <t>-2.6% (±3.3%)</t>
+    <t>-1.6% (±3.3%)</t>
   </si>
   <si>
     <t>-11.3% (±14.9%)</t>
@@ -430,16 +430,16 @@
     <t>-7.3% (±4.3%)</t>
   </si>
   <si>
-    <t>3.4% (±7.4%)</t>
-  </si>
-  <si>
-    <t>7.4% (±5.2%)</t>
-  </si>
-  <si>
-    <t>-3.4% (±3.0%)</t>
-  </si>
-  <si>
-    <t>-5.6% (±2.7%)</t>
+    <t>4.1% (±7.4%)</t>
+  </si>
+  <si>
+    <t>6.1% (±5.2%)</t>
+  </si>
+  <si>
+    <t>-3.3% (±3.1%)</t>
+  </si>
+  <si>
+    <t>-5.5% (±2.7%)</t>
   </si>
   <si>
     <t>1.4% (±3.5%)</t>
@@ -448,7 +448,7 @@
     <t>4.6% (±1.1%)</t>
   </si>
   <si>
-    <t>9.5% (±3.2%)</t>
+    <t>9.5% (±3.1%)</t>
   </si>
   <si>
     <t>1.4% (±5.1%)</t>
@@ -457,10 +457,10 @@
     <t>2.3% (±4.3%)</t>
   </si>
   <si>
-    <t>-2.2% (±4.1%)</t>
-  </si>
-  <si>
-    <t>15.6% (±1.3%)</t>
+    <t>-2.0% (±4.0%)</t>
+  </si>
+  <si>
+    <t>13.9% (±1.3%)</t>
   </si>
   <si>
     <t>-6.1% (±3.3%)</t>
@@ -472,10 +472,10 @@
     <t>5.2(±4.0)</t>
   </si>
   <si>
-    <t>1.1(±8.2)</t>
-  </si>
-  <si>
-    <t>86.3(±14.1)</t>
+    <t>-1.9(±8.2)</t>
+  </si>
+  <si>
+    <t>86.4(±14.2)</t>
   </si>
   <si>
     <t>0.1(±11.4)</t>
@@ -490,13 +490,13 @@
     <t>-20.2(±13.7)</t>
   </si>
   <si>
-    <t>33.4(±13.7)</t>
+    <t>33.8(±13.8)</t>
   </si>
   <si>
     <t>-18.1(±7.4)</t>
   </si>
   <si>
-    <t>0.6(±3.1)</t>
+    <t>0.7(±3.0)</t>
   </si>
   <si>
     <t>12.3(±2.9)</t>
@@ -511,7 +511,7 @@
     <t>12.2(±3.7)</t>
   </si>
   <si>
-    <t>-10.9(±14.2)</t>
+    <t>-6.6(±14.3)</t>
   </si>
   <si>
     <t>-19.1(±34.1)</t>
@@ -523,16 +523,16 @@
     <t>-12.7(±8.4)</t>
   </si>
   <si>
-    <t>6.5(±14.7)</t>
-  </si>
-  <si>
-    <t>26.0(±18.0)</t>
+    <t>7.8(±14.7)</t>
+  </si>
+  <si>
+    <t>21.2(±18.1)</t>
   </si>
   <si>
     <t>-7.8(±7.7)</t>
   </si>
   <si>
-    <t>-10.2(±5.3)</t>
+    <t>-10.1(±5.3)</t>
   </si>
   <si>
     <t>4.8(±12.3)</t>
@@ -541,7 +541,7 @@
     <t>8.8(±2.0)</t>
   </si>
   <si>
-    <t>37.0(±11.6)</t>
+    <t>37.2(±11.6)</t>
   </si>
   <si>
     <t>5.9(±22.4)</t>
@@ -550,10 +550,10 @@
     <t>7.2(±13.7)</t>
   </si>
   <si>
-    <t>-4.8(±9.4)</t>
-  </si>
-  <si>
-    <t>24.7(±1.7)</t>
+    <t>-4.3(±9.4)</t>
+  </si>
+  <si>
+    <t>21.9(±1.8)</t>
   </si>
   <si>
     <t>-10.7(±6.2)</t>
@@ -625,10 +625,10 @@
     <t>723.2 (±15.8)</t>
   </si>
   <si>
-    <t>9078.8 (±226.8)</t>
-  </si>
-  <si>
-    <t>2405.0 (±65.7)</t>
+    <t>9068.4 (±228.9)</t>
+  </si>
+  <si>
+    <t>2405.2 (±65.5)</t>
   </si>
   <si>
     <t>51241.2 (±1807.7)</t>
@@ -661,10 +661,10 @@
     <t>453.8 (±112.2)</t>
   </si>
   <si>
-    <t>445.2 (±306.8)</t>
-  </si>
-  <si>
-    <t>2055.0 (±304.2)</t>
+    <t>303.2 (±306.8)</t>
+  </si>
+  <si>
+    <t>2056.0 (±304.2)</t>
   </si>
   <si>
     <t>-122.8 (±216.6)</t>
@@ -673,19 +673,19 @@
     <t>72.8 (±14.6)</t>
   </si>
   <si>
-    <t>460.2 (±319.9)</t>
+    <t>463.2 (±319.9)</t>
   </si>
   <si>
     <t>-361.2 (±133.4)</t>
   </si>
   <si>
-    <t>41.8 (±61.1)</t>
+    <t>43.8 (±61.1)</t>
   </si>
   <si>
     <t>-60.8 (±225.9)</t>
   </si>
   <si>
-    <t>-463.6 (±1672.8)</t>
+    <t>-451.6 (±1672.8)</t>
   </si>
   <si>
     <t>143.0 (±151.5)</t>
@@ -697,10 +697,10 @@
     <t>9.4 (±14.9)</t>
   </si>
   <si>
-    <t>4069.0 (±858.5)</t>
-  </si>
-  <si>
-    <t>-196.4 (±124.7)</t>
+    <t>4078.0 (±858.5)</t>
+  </si>
+  <si>
+    <t>-110.4 (±124.7)</t>
   </si>
   <si>
     <t>-4.2 (±1.8)</t>
@@ -712,16 +712,16 @@
     <t>40.6 (±11.5)</t>
   </si>
   <si>
-    <t>25.0 (±12.6)</t>
-  </si>
-  <si>
-    <t>45.8 (±15.8)</t>
-  </si>
-  <si>
-    <t>285.2 (±226.8)</t>
-  </si>
-  <si>
-    <t>-129.0 (±65.7)</t>
+    <t>24.0 (±12.6)</t>
+  </si>
+  <si>
+    <t>39.8 (±15.8)</t>
+  </si>
+  <si>
+    <t>314.6 (±228.9)</t>
+  </si>
+  <si>
+    <t>-128.2 (±65.5)</t>
   </si>
   <si>
     <t>2549.8 (±1807.7)</t>
@@ -730,19 +730,19 @@
     <t>569.2 (±111.2)</t>
   </si>
   <si>
-    <t>3469.2 (±411.7)</t>
+    <t>3491.2 (±411.7)</t>
   </si>
   <si>
     <t>651.6 (±495.5)</t>
   </si>
   <si>
-    <t>-143.8 (±266.7)</t>
-  </si>
-  <si>
-    <t>-40.0 (±101.9)</t>
-  </si>
-  <si>
-    <t>3531.0 (±320.6)</t>
+    <t>-141.8 (±266.7)</t>
+  </si>
+  <si>
+    <t>-31.0 (±101.9)</t>
+  </si>
+  <si>
+    <t>3534.0 (±320.6)</t>
   </si>
   <si>
     <t>16.6 (±251.2)</t>
@@ -754,7 +754,7 @@
     <t>8.1% (±2.1%)</t>
   </si>
   <si>
-    <t>5.9% (±4.1%)</t>
+    <t>4.0% (±4.0%)</t>
   </si>
   <si>
     <t>17.8% (±3.0%)</t>
@@ -772,7 +772,7 @@
     <t>-9.6% (±3.1%)</t>
   </si>
   <si>
-    <t>2.6% (±3.8%)</t>
+    <t>2.7% (±3.7%)</t>
   </si>
   <si>
     <t>-1.6% (±5.4%)</t>
@@ -790,10 +790,10 @@
     <t>6.3% (±9.7%)</t>
   </si>
   <si>
-    <t>12.4% (±2.8%)</t>
-  </si>
-  <si>
-    <t>-5.9% (±3.4%)</t>
+    <t>12.5% (±2.9%)</t>
+  </si>
+  <si>
+    <t>-3.3% (±3.5%)</t>
   </si>
   <si>
     <t>-23.1% (±6.9%)</t>
@@ -805,412 +805,412 @@
     <t>11.9% (±3.6%)</t>
   </si>
   <si>
-    <t>10.4% (±5.5%)</t>
-  </si>
-  <si>
-    <t>6.3% (±2.2%)</t>
-  </si>
-  <si>
-    <t>3.1% (±2.5%)</t>
+    <t>10.0% (±5.5%)</t>
+  </si>
+  <si>
+    <t>5.5% (±2.3%)</t>
+  </si>
+  <si>
+    <t>3.5% (±2.6%)</t>
+  </si>
+  <si>
+    <t>-5.3% (±2.5%)</t>
+  </si>
+  <si>
+    <t>5.0% (±3.6%)</t>
+  </si>
+  <si>
+    <t>6.9% (±1.4%)</t>
+  </si>
+  <si>
+    <t>10.8% (±1.4%)</t>
+  </si>
+  <si>
+    <t>6.6% (±5.1%)</t>
+  </si>
+  <si>
+    <t>-2.1% (±3.6%)</t>
+  </si>
+  <si>
+    <t>-1.8% (±5.3%)</t>
+  </si>
+  <si>
+    <t>12.3% (±1.2%)</t>
+  </si>
+  <si>
+    <t>0.4% (±5.9%)</t>
+  </si>
+  <si>
+    <t>0.9% (±2.7%)</t>
+  </si>
+  <si>
+    <t>29.0(±7.1)</t>
+  </si>
+  <si>
+    <t>15.8(±16.0)</t>
+  </si>
+  <si>
+    <t>165.8(±24.6)</t>
+  </si>
+  <si>
+    <t>-17.6(±31.0)</t>
+  </si>
+  <si>
+    <t>55.1(±11.1)</t>
+  </si>
+  <si>
+    <t>24.4(±16.8)</t>
+  </si>
+  <si>
+    <t>-38.0(±14.1)</t>
+  </si>
+  <si>
+    <t>20.4(±28.5)</t>
+  </si>
+  <si>
+    <t>-6.9(±25.7)</t>
+  </si>
+  <si>
+    <t>-4.3(±15.9)</t>
+  </si>
+  <si>
+    <t>7.8(±8.3)</t>
+  </si>
+  <si>
+    <t>-16.6(±38.1)</t>
+  </si>
+  <si>
+    <t>16.5(±26.1)</t>
+  </si>
+  <si>
+    <t>37.3(±7.8)</t>
+  </si>
+  <si>
+    <t>-36.0(±40.7)</t>
+  </si>
+  <si>
+    <t>-58.5(±25.1)</t>
+  </si>
+  <si>
+    <t>115.7(±80.7)</t>
+  </si>
+  <si>
+    <t>36.4(±10.4)</t>
+  </si>
+  <si>
+    <t>28.7(±15.0)</t>
+  </si>
+  <si>
+    <t>39.6(±15.7)</t>
+  </si>
+  <si>
+    <t>10.7(±7.9)</t>
+  </si>
+  <si>
+    <t>-14.5(±7.4)</t>
+  </si>
+  <si>
+    <t>40.3(±28.6)</t>
+  </si>
+  <si>
+    <t>32.3(±6.3)</t>
+  </si>
+  <si>
+    <t>101.6(±12.0)</t>
+  </si>
+  <si>
+    <t>55.5(±42.2)</t>
+  </si>
+  <si>
+    <t>-14.9(±28.0)</t>
+  </si>
+  <si>
+    <t>-8.0(±26.2)</t>
+  </si>
+  <si>
+    <t>39.9(±3.6)</t>
+  </si>
+  <si>
+    <t>1.0(±15.7)</t>
+  </si>
+  <si>
+    <t>2.2(±7.0)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>8718.4 (±169.7)</t>
+  </si>
+  <si>
+    <t>12233.8 (±450.3)</t>
+  </si>
+  <si>
+    <t>16732.2 (±464.3)</t>
+  </si>
+  <si>
+    <t>6830.4 (±289.8)</t>
+  </si>
+  <si>
+    <t>622.0 (±21.1)</t>
+  </si>
+  <si>
+    <t>14502.4 (±469.6)</t>
+  </si>
+  <si>
+    <t>6122.6 (±260.5)</t>
+  </si>
+  <si>
+    <t>2237.0 (±85.7)</t>
+  </si>
+  <si>
+    <t>5740.8 (±287.6)</t>
+  </si>
+  <si>
+    <t>70241.8 (±1983.3)</t>
+  </si>
+  <si>
+    <t>11798.0 (±122.3)</t>
+  </si>
+  <si>
+    <t>22529.0 (±1053.3)</t>
+  </si>
+  <si>
+    <t>253.0 (±15.0)</t>
+  </si>
+  <si>
+    <t>52326.6 (±1264.3)</t>
+  </si>
+  <si>
+    <t>4777.2 (±169.2)</t>
+  </si>
+  <si>
+    <t>30.6 (±3.9)</t>
+  </si>
+  <si>
+    <t>6854.4 (±470.9)</t>
+  </si>
+  <si>
+    <t>523.8 (±13.2)</t>
+  </si>
+  <si>
+    <t>386.0 (±11.8)</t>
+  </si>
+  <si>
+    <t>1090.0 (±25.9)</t>
+  </si>
+  <si>
+    <t>15900.8 (±449.9)</t>
+  </si>
+  <si>
+    <t>3956.0 (±108.3)</t>
+  </si>
+  <si>
+    <t>73109.4 (±2596.1)</t>
+  </si>
+  <si>
+    <t>12013.8 (±125.0)</t>
+  </si>
+  <si>
+    <t>45661.2 (±778.2)</t>
+  </si>
+  <si>
+    <t>15079.6 (±746.6)</t>
+  </si>
+  <si>
+    <t>9849.8 (±395.7)</t>
+  </si>
+  <si>
+    <t>2564.8 (±128.6)</t>
+  </si>
+  <si>
+    <t>42803.4 (±337.6)</t>
+  </si>
+  <si>
+    <t>6732.2 (±344.5)</t>
+  </si>
+  <si>
+    <t>6211.2 (±142.5)</t>
+  </si>
+  <si>
+    <t>536.6 (±169.7)</t>
+  </si>
+  <si>
+    <t>266.2 (±450.3)</t>
+  </si>
+  <si>
+    <t>3130.8 (±464.3)</t>
+  </si>
+  <si>
+    <t>-122.4 (±289.8)</t>
+  </si>
+  <si>
+    <t>95.0 (±21.1)</t>
+  </si>
+  <si>
+    <t>607.6 (±469.6)</t>
+  </si>
+  <si>
+    <t>-552.6 (±260.5)</t>
+  </si>
+  <si>
+    <t>120.0 (±85.7)</t>
+  </si>
+  <si>
+    <t>-217.8 (±287.6)</t>
+  </si>
+  <si>
+    <t>-379.8 (±1983.3)</t>
+  </si>
+  <si>
+    <t>384.0 (±122.3)</t>
+  </si>
+  <si>
+    <t>-512.0 (±1053.3)</t>
+  </si>
+  <si>
+    <t>16.0 (±15.0)</t>
+  </si>
+  <si>
+    <t>5461.4 (±1264.3)</t>
+  </si>
+  <si>
+    <t>-133.2 (±169.2)</t>
+  </si>
+  <si>
+    <t>-5.6 (±3.9)</t>
+  </si>
+  <si>
+    <t>765.6 (±470.9)</t>
+  </si>
+  <si>
+    <t>27.2 (±13.2)</t>
+  </si>
+  <si>
+    <t>30.0 (±11.8)</t>
+  </si>
+  <si>
+    <t>62.0 (±25.9)</t>
+  </si>
+  <si>
+    <t>87.2 (±449.9)</t>
+  </si>
+  <si>
+    <t>-214.0 (±108.3)</t>
+  </si>
+  <si>
+    <t>2864.6 (±2596.1)</t>
+  </si>
+  <si>
+    <t>742.2 (±125.0)</t>
+  </si>
+  <si>
+    <t>4765.8 (±778.2)</t>
+  </si>
+  <si>
+    <t>723.4 (±746.6)</t>
+  </si>
+  <si>
+    <t>-72.8 (±395.7)</t>
+  </si>
+  <si>
+    <t>-46.8 (±128.6)</t>
+  </si>
+  <si>
+    <t>5494.6 (±337.6)</t>
+  </si>
+  <si>
+    <t>-151.2 (±344.5)</t>
+  </si>
+  <si>
+    <t>-4.2 (±142.5)</t>
+  </si>
+  <si>
+    <t>6.2% (±2.1%)</t>
+  </si>
+  <si>
+    <t>2.2% (±3.7%)</t>
+  </si>
+  <si>
+    <t>18.7% (±3.2%)</t>
+  </si>
+  <si>
+    <t>-1.8% (±4.0%)</t>
+  </si>
+  <si>
+    <t>15.3% (±3.8%)</t>
+  </si>
+  <si>
+    <t>4.2% (±3.3%)</t>
+  </si>
+  <si>
+    <t>-9.0% (±3.7%)</t>
+  </si>
+  <si>
+    <t>5.4% (±3.9%)</t>
+  </si>
+  <si>
+    <t>-3.8% (±4.6%)</t>
+  </si>
+  <si>
+    <t>-0.5% (±2.8%)</t>
+  </si>
+  <si>
+    <t>3.3% (±1.1%)</t>
+  </si>
+  <si>
+    <t>-2.3% (±4.3%)</t>
+  </si>
+  <si>
+    <t>6.3% (±5.9%)</t>
+  </si>
+  <si>
+    <t>10.4% (±2.6%)</t>
+  </si>
+  <si>
+    <t>-2.8% (±3.3%)</t>
+  </si>
+  <si>
+    <t>-18.3% (±9.2%)</t>
+  </si>
+  <si>
+    <t>11.2% (±7.2%)</t>
+  </si>
+  <si>
+    <t>5.2% (±2.6%)</t>
+  </si>
+  <si>
+    <t>7.8% (±3.2%)</t>
+  </si>
+  <si>
+    <t>5.7% (±2.5%)</t>
+  </si>
+  <si>
+    <t>0.5% (±2.7%)</t>
   </si>
   <si>
     <t>-5.4% (±2.5%)</t>
   </si>
   <si>
-    <t>5.0% (±3.6%)</t>
-  </si>
-  <si>
-    <t>6.9% (±1.4%)</t>
-  </si>
-  <si>
-    <t>10.8% (±1.4%)</t>
-  </si>
-  <si>
-    <t>6.6% (±5.1%)</t>
-  </si>
-  <si>
-    <t>-2.1% (±3.6%)</t>
-  </si>
-  <si>
-    <t>-2.3% (±5.3%)</t>
-  </si>
-  <si>
-    <t>12.3% (±1.2%)</t>
-  </si>
-  <si>
-    <t>0.4% (±5.9%)</t>
-  </si>
-  <si>
-    <t>0.9% (±2.7%)</t>
-  </si>
-  <si>
-    <t>29.0(±7.1)</t>
-  </si>
-  <si>
-    <t>23.2(±16.0)</t>
-  </si>
-  <si>
-    <t>165.7(±24.6)</t>
-  </si>
-  <si>
-    <t>-17.6(±31.0)</t>
-  </si>
-  <si>
-    <t>55.1(±11.1)</t>
-  </si>
-  <si>
-    <t>24.2(±16.8)</t>
-  </si>
-  <si>
-    <t>-38.0(±14.1)</t>
-  </si>
-  <si>
-    <t>19.5(±28.5)</t>
-  </si>
-  <si>
-    <t>-6.9(±25.7)</t>
-  </si>
-  <si>
-    <t>-4.4(±15.9)</t>
-  </si>
-  <si>
-    <t>7.8(±8.3)</t>
-  </si>
-  <si>
-    <t>-16.6(±38.1)</t>
-  </si>
-  <si>
-    <t>16.5(±26.1)</t>
-  </si>
-  <si>
-    <t>37.2(±7.8)</t>
-  </si>
-  <si>
-    <t>-64.0(±40.6)</t>
-  </si>
-  <si>
-    <t>-58.5(±25.1)</t>
-  </si>
-  <si>
-    <t>115.7(±80.7)</t>
-  </si>
-  <si>
-    <t>36.4(±10.4)</t>
-  </si>
-  <si>
-    <t>29.9(±15.0)</t>
-  </si>
-  <si>
-    <t>45.5(±15.7)</t>
-  </si>
-  <si>
-    <t>9.7(±7.8)</t>
-  </si>
-  <si>
-    <t>-14.6(±7.5)</t>
-  </si>
-  <si>
-    <t>40.3(±28.6)</t>
-  </si>
-  <si>
-    <t>32.3(±6.3)</t>
-  </si>
-  <si>
-    <t>101.0(±12.0)</t>
-  </si>
-  <si>
-    <t>55.5(±42.2)</t>
-  </si>
-  <si>
-    <t>-15.1(±28.0)</t>
-  </si>
-  <si>
-    <t>-10.3(±26.2)</t>
-  </si>
-  <si>
-    <t>39.9(±3.6)</t>
-  </si>
-  <si>
-    <t>1.0(±15.7)</t>
-  </si>
-  <si>
-    <t>2.2(±7.0)</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>8718.4 (±169.7)</t>
-  </si>
-  <si>
-    <t>12233.8 (±450.3)</t>
-  </si>
-  <si>
-    <t>16732.2 (±464.3)</t>
-  </si>
-  <si>
-    <t>6830.4 (±289.8)</t>
-  </si>
-  <si>
-    <t>622.0 (±21.1)</t>
-  </si>
-  <si>
-    <t>14502.4 (±469.6)</t>
-  </si>
-  <si>
-    <t>6122.6 (±260.5)</t>
-  </si>
-  <si>
-    <t>2237.0 (±85.7)</t>
-  </si>
-  <si>
-    <t>5740.8 (±287.6)</t>
-  </si>
-  <si>
-    <t>70241.8 (±1983.3)</t>
-  </si>
-  <si>
-    <t>11798.0 (±122.3)</t>
-  </si>
-  <si>
-    <t>22529.0 (±1053.3)</t>
-  </si>
-  <si>
-    <t>253.0 (±15.0)</t>
-  </si>
-  <si>
-    <t>52326.6 (±1264.3)</t>
-  </si>
-  <si>
-    <t>4777.2 (±169.2)</t>
-  </si>
-  <si>
-    <t>30.6 (±3.9)</t>
-  </si>
-  <si>
-    <t>6854.4 (±470.9)</t>
-  </si>
-  <si>
-    <t>523.8 (±13.2)</t>
-  </si>
-  <si>
-    <t>386.0 (±11.8)</t>
-  </si>
-  <si>
-    <t>1090.0 (±25.9)</t>
-  </si>
-  <si>
-    <t>15913.0 (±448.9)</t>
-  </si>
-  <si>
-    <t>3955.8 (±108.5)</t>
-  </si>
-  <si>
-    <t>73109.4 (±2596.1)</t>
-  </si>
-  <si>
-    <t>12013.8 (±125.0)</t>
-  </si>
-  <si>
-    <t>45661.2 (±778.2)</t>
-  </si>
-  <si>
-    <t>15079.6 (±746.6)</t>
-  </si>
-  <si>
-    <t>9849.8 (±395.7)</t>
-  </si>
-  <si>
-    <t>2564.8 (±128.6)</t>
-  </si>
-  <si>
-    <t>42803.4 (±337.6)</t>
-  </si>
-  <si>
-    <t>6732.2 (±344.5)</t>
-  </si>
-  <si>
-    <t>6211.2 (±142.5)</t>
-  </si>
-  <si>
-    <t>536.6 (±169.7)</t>
-  </si>
-  <si>
-    <t>465.2 (±450.3)</t>
-  </si>
-  <si>
-    <t>3127.8 (±464.3)</t>
-  </si>
-  <si>
-    <t>-122.4 (±289.8)</t>
-  </si>
-  <si>
-    <t>95.0 (±21.1)</t>
-  </si>
-  <si>
-    <t>604.6 (±469.6)</t>
-  </si>
-  <si>
-    <t>-552.6 (±260.5)</t>
-  </si>
-  <si>
-    <t>117.0 (±85.7)</t>
-  </si>
-  <si>
-    <t>-217.8 (±287.6)</t>
-  </si>
-  <si>
-    <t>-393.8 (±1983.3)</t>
-  </si>
-  <si>
-    <t>384.0 (±122.3)</t>
-  </si>
-  <si>
-    <t>-512.0 (±1053.3)</t>
-  </si>
-  <si>
-    <t>16.0 (±15.0)</t>
-  </si>
-  <si>
-    <t>5450.4 (±1264.3)</t>
-  </si>
-  <si>
-    <t>-234.2 (±169.2)</t>
-  </si>
-  <si>
-    <t>-5.6 (±3.9)</t>
-  </si>
-  <si>
-    <t>765.6 (±470.9)</t>
-  </si>
-  <si>
-    <t>27.2 (±13.2)</t>
-  </si>
-  <si>
-    <t>30.0 (±11.8)</t>
-  </si>
-  <si>
-    <t>73.0 (±25.9)</t>
-  </si>
-  <si>
-    <t>56.0 (±448.9)</t>
-  </si>
-  <si>
-    <t>-215.8 (±108.5)</t>
-  </si>
-  <si>
-    <t>2864.6 (±2596.1)</t>
-  </si>
-  <si>
-    <t>742.2 (±125.0)</t>
-  </si>
-  <si>
-    <t>4735.8 (±778.2)</t>
-  </si>
-  <si>
-    <t>723.4 (±746.6)</t>
-  </si>
-  <si>
-    <t>-74.8 (±395.7)</t>
-  </si>
-  <si>
-    <t>-57.8 (±128.6)</t>
-  </si>
-  <si>
-    <t>5728.6 (±337.6)</t>
-  </si>
-  <si>
-    <t>-151.2 (±344.5)</t>
-  </si>
-  <si>
-    <t>-4.2 (±142.5)</t>
-  </si>
-  <si>
-    <t>6.2% (±2.1%)</t>
-  </si>
-  <si>
-    <t>3.8% (±3.7%)</t>
-  </si>
-  <si>
-    <t>18.7% (±3.2%)</t>
-  </si>
-  <si>
-    <t>-1.8% (±4.0%)</t>
-  </si>
-  <si>
-    <t>15.3% (±3.8%)</t>
-  </si>
-  <si>
-    <t>4.2% (±3.3%)</t>
-  </si>
-  <si>
-    <t>-9.0% (±3.7%)</t>
-  </si>
-  <si>
-    <t>5.2% (±3.9%)</t>
-  </si>
-  <si>
-    <t>-3.8% (±4.6%)</t>
-  </si>
-  <si>
-    <t>-0.6% (±2.7%)</t>
-  </si>
-  <si>
-    <t>3.3% (±1.1%)</t>
-  </si>
-  <si>
-    <t>-2.3% (±4.3%)</t>
-  </si>
-  <si>
-    <t>6.3% (±5.9%)</t>
-  </si>
-  <si>
-    <t>10.4% (±2.6%)</t>
-  </si>
-  <si>
-    <t>-4.9% (±3.3%)</t>
-  </si>
-  <si>
-    <t>-18.3% (±9.2%)</t>
-  </si>
-  <si>
-    <t>11.2% (±7.2%)</t>
-  </si>
-  <si>
-    <t>5.2% (±2.6%)</t>
-  </si>
-  <si>
-    <t>7.8% (±3.2%)</t>
-  </si>
-  <si>
-    <t>6.7% (±2.5%)</t>
-  </si>
-  <si>
-    <t>0.4% (±2.8%)</t>
-  </si>
-  <si>
-    <t>-5.5% (±2.5%)</t>
-  </si>
-  <si>
     <t>3.9% (±3.5%)</t>
   </si>
   <si>
     <t>6.2% (±1.1%)</t>
   </si>
   <si>
-    <t>10.4% (±1.9%)</t>
+    <t>10.4% (±1.8%)</t>
   </si>
   <si>
     <t>4.8% (±4.9%)</t>
   </si>
   <si>
-    <t>-0.8% (±3.8%)</t>
-  </si>
-  <si>
-    <t>-2.3% (±4.6%)</t>
-  </si>
-  <si>
-    <t>13.4% (±0.9%)</t>
+    <t>-0.7% (±3.9%)</t>
+  </si>
+  <si>
+    <t>-1.8% (±4.7%)</t>
+  </si>
+  <si>
+    <t>12.8% (±0.8%)</t>
   </si>
   <si>
     <t>-2.2% (±4.8%)</t>
@@ -1222,10 +1222,10 @@
     <t>17.0(±5.4)</t>
   </si>
   <si>
-    <t>12.2(±11.7)</t>
-  </si>
-  <si>
-    <t>125.9(±18.7)</t>
+    <t>7.0(±11.7)</t>
+  </si>
+  <si>
+    <t>126.1(±18.7)</t>
   </si>
   <si>
     <t>-8.7(±20.6)</t>
@@ -1234,19 +1234,19 @@
     <t>35.4(±7.8)</t>
   </si>
   <si>
-    <t>16.1(±12.5)</t>
+    <t>16.2(±12.5)</t>
   </si>
   <si>
     <t>-29.1(±13.7)</t>
   </si>
   <si>
-    <t>26.6(±19.5)</t>
+    <t>27.3(±19.5)</t>
   </si>
   <si>
     <t>-12.5(±16.5)</t>
   </si>
   <si>
-    <t>-1.8(±9.2)</t>
+    <t>-1.8(±9.3)</t>
   </si>
   <si>
     <t>10.1(±3.2)</t>
@@ -1258,10 +1258,10 @@
     <t>14.4(±13.4)</t>
   </si>
   <si>
-    <t>24.5(±5.7)</t>
-  </si>
-  <si>
-    <t>-35.8(±25.9)</t>
+    <t>24.6(±5.6)</t>
+  </si>
+  <si>
+    <t>-20.4(±25.9)</t>
   </si>
   <si>
     <t>-38.5(±26.8)</t>
@@ -1276,13 +1276,13 @@
     <t>18.7(±7.4)</t>
   </si>
   <si>
-    <t>35.6(±12.6)</t>
-  </si>
-  <si>
-    <t>1.0(±7.6)</t>
-  </si>
-  <si>
-    <t>-12.4(±6.2)</t>
+    <t>30.2(±12.6)</t>
+  </si>
+  <si>
+    <t>1.5(±7.7)</t>
+  </si>
+  <si>
+    <t>-12.3(±6.2)</t>
   </si>
   <si>
     <t>22.3(±20.2)</t>
@@ -1291,19 +1291,19 @@
     <t>19.9(±3.3)</t>
   </si>
   <si>
-    <t>69.0(±11.4)</t>
+    <t>69.5(±11.3)</t>
   </si>
   <si>
     <t>30.1(±31.2)</t>
   </si>
   <si>
-    <t>-3.9(±20.6)</t>
-  </si>
-  <si>
-    <t>-7.6(±17.0)</t>
-  </si>
-  <si>
-    <t>32.2(±1.9)</t>
+    <t>-3.8(±20.6)</t>
+  </si>
+  <si>
+    <t>-6.2(±17.0)</t>
+  </si>
+  <si>
+    <t>30.9(±1.9)</t>
   </si>
   <si>
     <t>-4.8(±10.9)</t>
@@ -1877,7 +1877,7 @@
         <v>4388</v>
       </c>
       <c r="H3">
-        <v>4665</v>
+        <v>4608</v>
       </c>
       <c r="I3">
         <v>4645</v>
@@ -1898,13 +1898,13 @@
         <v>4801.7</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>-37</v>
       </c>
       <c r="P3">
         <v>156.7</v>
       </c>
       <c r="Q3">
-        <v>0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="R3">
         <v>3.2</v>
@@ -1922,7 +1922,7 @@
         <v>1903120</v>
       </c>
       <c r="W3">
-        <v>1.1</v>
+        <v>-1.9</v>
       </c>
       <c r="X3">
         <v>8.199999999999999</v>
@@ -1954,7 +1954,7 @@
         <v>4720</v>
       </c>
       <c r="H4">
-        <v>6258</v>
+        <v>6260</v>
       </c>
       <c r="I4">
         <v>5185.199999999999</v>
@@ -1975,7 +1975,7 @@
         <v>5361.199999999999</v>
       </c>
       <c r="O4">
-        <v>1072.8</v>
+        <v>1074.8</v>
       </c>
       <c r="P4">
         <v>176</v>
@@ -1984,7 +1984,7 @@
         <v>20.7</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S4" t="s">
         <v>59</v>
@@ -1999,10 +1999,10 @@
         <v>1243628</v>
       </c>
       <c r="W4">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="X4">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="Y4" t="s">
         <v>152</v>
@@ -2339,7 +2339,7 @@
         <v>583</v>
       </c>
       <c r="H9">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I9">
         <v>626.7999999999997</v>
@@ -2360,13 +2360,13 @@
         <v>657.8999999999997</v>
       </c>
       <c r="O9">
-        <v>75.2</v>
+        <v>76.2</v>
       </c>
       <c r="P9">
         <v>31.1</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="R9">
         <v>5.3</v>
@@ -2384,10 +2384,10 @@
         <v>225466</v>
       </c>
       <c r="W9">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="X9">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="Y9" t="s">
         <v>157</v>
@@ -2493,7 +2493,7 @@
         <v>22747</v>
       </c>
       <c r="H11">
-        <v>23969</v>
+        <v>23971</v>
       </c>
       <c r="I11">
         <v>23899.19999999999</v>
@@ -2514,7 +2514,7 @@
         <v>24236.49999999999</v>
       </c>
       <c r="O11">
-        <v>69.8</v>
+        <v>71.8</v>
       </c>
       <c r="P11">
         <v>337.3</v>
@@ -2538,10 +2538,10 @@
         <v>11012229</v>
       </c>
       <c r="W11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="s">
         <v>159</v>
@@ -2801,7 +2801,7 @@
         <v>18772</v>
       </c>
       <c r="H15">
-        <v>21022</v>
+        <v>21024</v>
       </c>
       <c r="I15">
         <v>19640.60000000001</v>
@@ -2822,7 +2822,7 @@
         <v>20054.20000000001</v>
       </c>
       <c r="O15">
-        <v>1381.4</v>
+        <v>1383.4</v>
       </c>
       <c r="P15">
         <v>413.6</v>
@@ -2878,7 +2878,7 @@
         <v>1333</v>
       </c>
       <c r="H16">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="I16">
         <v>1436.8</v>
@@ -2899,13 +2899,13 @@
         <v>1486.2</v>
       </c>
       <c r="O16">
-        <v>-37.8</v>
+        <v>-22.8</v>
       </c>
       <c r="P16">
         <v>49.4</v>
       </c>
       <c r="Q16">
-        <v>-2.6</v>
+        <v>-1.6</v>
       </c>
       <c r="R16">
         <v>3.3</v>
@@ -2923,10 +2923,10 @@
         <v>346973</v>
       </c>
       <c r="W16">
-        <v>-10.9</v>
+        <v>-6.6</v>
       </c>
       <c r="X16">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="Y16" t="s">
         <v>164</v>
@@ -3186,7 +3186,7 @@
         <v>128</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I20">
         <v>145</v>
@@ -3207,13 +3207,13 @@
         <v>156.2</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>11.2</v>
       </c>
       <c r="Q20">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="R20">
         <v>7.4</v>
@@ -3231,7 +3231,7 @@
         <v>76584</v>
       </c>
       <c r="W20">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="X20">
         <v>14.7</v>
@@ -3263,7 +3263,7 @@
         <v>342</v>
       </c>
       <c r="H21">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I21">
         <v>366.8</v>
@@ -3284,13 +3284,13 @@
         <v>385.6999999999999</v>
       </c>
       <c r="O21">
-        <v>27.2</v>
+        <v>22.2</v>
       </c>
       <c r="P21">
         <v>18.9</v>
       </c>
       <c r="Q21">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="R21">
         <v>5.2</v>
@@ -3308,10 +3308,10 @@
         <v>104654</v>
       </c>
       <c r="W21">
-        <v>26</v>
+        <v>21.2</v>
       </c>
       <c r="X21">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="Y21" t="s">
         <v>169</v>
@@ -3328,49 +3328,49 @@
         <v>7087</v>
       </c>
       <c r="D22">
-        <v>6838</v>
+        <v>6832</v>
       </c>
       <c r="E22">
-        <v>6612</v>
+        <v>6614</v>
       </c>
       <c r="F22">
-        <v>6631</v>
+        <v>6624</v>
       </c>
       <c r="G22">
-        <v>6315</v>
+        <v>6317</v>
       </c>
       <c r="H22">
         <v>6605</v>
       </c>
       <c r="I22">
-        <v>6834.2</v>
+        <v>6832.4</v>
       </c>
       <c r="J22">
-        <v>256.7</v>
+        <v>255.7</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>225</v>
+        <v>224.1</v>
       </c>
       <c r="M22">
-        <v>6609.2</v>
+        <v>6608.299999999999</v>
       </c>
       <c r="N22">
-        <v>7059.2</v>
+        <v>7056.5</v>
       </c>
       <c r="O22">
-        <v>-229.2</v>
+        <v>-227.4</v>
       </c>
       <c r="P22">
-        <v>225</v>
+        <v>224.1</v>
       </c>
       <c r="Q22">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S22" t="s">
         <v>77</v>
@@ -3417,7 +3417,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="I23">
         <v>1550.8</v>
@@ -3438,13 +3438,13 @@
         <v>1595.9</v>
       </c>
       <c r="O23">
-        <v>-86.8</v>
+        <v>-85.8</v>
       </c>
       <c r="P23">
         <v>45.1</v>
       </c>
       <c r="Q23">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="R23">
         <v>2.7</v>
@@ -3462,7 +3462,7 @@
         <v>848170</v>
       </c>
       <c r="W23">
-        <v>-10.2</v>
+        <v>-10.1</v>
       </c>
       <c r="X23">
         <v>5.3</v>
@@ -3648,7 +3648,7 @@
         <v>12374</v>
       </c>
       <c r="H26">
-        <v>14662</v>
+        <v>14670</v>
       </c>
       <c r="I26">
         <v>13395.40000000001</v>
@@ -3669,7 +3669,7 @@
         <v>13792.3</v>
       </c>
       <c r="O26">
-        <v>1266.6</v>
+        <v>1274.6</v>
       </c>
       <c r="P26">
         <v>396.9</v>
@@ -3678,7 +3678,7 @@
         <v>9.5</v>
       </c>
       <c r="R26">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S26" t="s">
         <v>81</v>
@@ -3693,7 +3693,7 @@
         <v>3423435</v>
       </c>
       <c r="W26">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="X26">
         <v>11.6</v>
@@ -3879,7 +3879,7 @@
         <v>730</v>
       </c>
       <c r="H29">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I29">
         <v>801.8000000000004</v>
@@ -3900,16 +3900,16 @@
         <v>836.5000000000005</v>
       </c>
       <c r="O29">
-        <v>-17.8</v>
+        <v>-15.8</v>
       </c>
       <c r="P29">
         <v>34.7</v>
       </c>
       <c r="Q29">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="R29">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="S29" t="s">
         <v>84</v>
@@ -3924,7 +3924,7 @@
         <v>367879</v>
       </c>
       <c r="W29">
-        <v>-4.8</v>
+        <v>-4.3</v>
       </c>
       <c r="X29">
         <v>9.4</v>
@@ -3956,7 +3956,7 @@
         <v>14055</v>
       </c>
       <c r="H30">
-        <v>16349</v>
+        <v>16107</v>
       </c>
       <c r="I30">
         <v>14146.4</v>
@@ -3977,13 +3977,13 @@
         <v>14305.3</v>
       </c>
       <c r="O30">
-        <v>2202.6</v>
+        <v>1960.6</v>
       </c>
       <c r="P30">
         <v>158.9</v>
       </c>
       <c r="Q30">
-        <v>15.6</v>
+        <v>13.9</v>
       </c>
       <c r="R30">
         <v>1.3</v>
@@ -4001,10 +4001,10 @@
         <v>8934587</v>
       </c>
       <c r="W30">
-        <v>24.7</v>
+        <v>21.9</v>
       </c>
       <c r="X30">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y30" t="s">
         <v>178</v>
@@ -4354,7 +4354,7 @@
         <v>6976</v>
       </c>
       <c r="H3">
-        <v>8034</v>
+        <v>7892</v>
       </c>
       <c r="I3">
         <v>7588.800000000002</v>
@@ -4375,16 +4375,16 @@
         <v>7895.600000000002</v>
       </c>
       <c r="O3">
-        <v>445.2</v>
+        <v>303.2</v>
       </c>
       <c r="P3">
         <v>306.8</v>
       </c>
       <c r="Q3">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s">
         <v>183</v>
@@ -4399,7 +4399,7 @@
         <v>1919953</v>
       </c>
       <c r="W3">
-        <v>23.2</v>
+        <v>15.8</v>
       </c>
       <c r="X3">
         <v>16</v>
@@ -4431,7 +4431,7 @@
         <v>10867</v>
       </c>
       <c r="H4">
-        <v>13602</v>
+        <v>13603</v>
       </c>
       <c r="I4">
         <v>11547</v>
@@ -4452,7 +4452,7 @@
         <v>11851.2</v>
       </c>
       <c r="O4">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="P4">
         <v>304.2</v>
@@ -4476,7 +4476,7 @@
         <v>1239893</v>
       </c>
       <c r="W4">
-        <v>165.7</v>
+        <v>165.8</v>
       </c>
       <c r="X4">
         <v>24.6</v>
@@ -4662,7 +4662,7 @@
         <v>9187</v>
       </c>
       <c r="H7">
-        <v>10305</v>
+        <v>10308</v>
       </c>
       <c r="I7">
         <v>9844.799999999999</v>
@@ -4683,7 +4683,7 @@
         <v>10164.7</v>
       </c>
       <c r="O7">
-        <v>460.2</v>
+        <v>463.2</v>
       </c>
       <c r="P7">
         <v>319.9</v>
@@ -4707,7 +4707,7 @@
         <v>1900479</v>
       </c>
       <c r="W7">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="X7">
         <v>16.8</v>
@@ -4816,7 +4816,7 @@
         <v>1462</v>
       </c>
       <c r="H9">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="I9">
         <v>1610.2</v>
@@ -4837,16 +4837,16 @@
         <v>1671.3</v>
       </c>
       <c r="O9">
-        <v>41.8</v>
+        <v>43.8</v>
       </c>
       <c r="P9">
         <v>61.1</v>
       </c>
       <c r="Q9">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R9">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="S9" t="s">
         <v>189</v>
@@ -4861,7 +4861,7 @@
         <v>214518</v>
       </c>
       <c r="W9">
-        <v>19.5</v>
+        <v>20.4</v>
       </c>
       <c r="X9">
         <v>28.5</v>
@@ -4970,7 +4970,7 @@
         <v>42807</v>
       </c>
       <c r="H11">
-        <v>45879</v>
+        <v>45891</v>
       </c>
       <c r="I11">
         <v>46342.60000000001</v>
@@ -4991,7 +4991,7 @@
         <v>48015.40000000002</v>
       </c>
       <c r="O11">
-        <v>-463.6</v>
+        <v>-451.6</v>
       </c>
       <c r="P11">
         <v>1672.8</v>
@@ -5015,7 +5015,7 @@
         <v>10505421</v>
       </c>
       <c r="W11">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="X11">
         <v>15.9</v>
@@ -5278,7 +5278,7 @@
         <v>30736</v>
       </c>
       <c r="H15">
-        <v>36755</v>
+        <v>36764</v>
       </c>
       <c r="I15">
         <v>32686</v>
@@ -5299,16 +5299,16 @@
         <v>33544.5</v>
       </c>
       <c r="O15">
-        <v>4069</v>
+        <v>4078</v>
       </c>
       <c r="P15">
         <v>858.5</v>
       </c>
       <c r="Q15">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="R15">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="S15" t="s">
         <v>195</v>
@@ -5323,7 +5323,7 @@
         <v>10938072</v>
       </c>
       <c r="W15">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="X15">
         <v>7.8</v>
@@ -5355,7 +5355,7 @@
         <v>3013</v>
       </c>
       <c r="H16">
-        <v>3144</v>
+        <v>3230</v>
       </c>
       <c r="I16">
         <v>3340.400000000001</v>
@@ -5376,16 +5376,16 @@
         <v>3465.100000000001</v>
       </c>
       <c r="O16">
-        <v>-196.4</v>
+        <v>-110.4</v>
       </c>
       <c r="P16">
         <v>124.7</v>
       </c>
       <c r="Q16">
-        <v>-5.9</v>
+        <v>-3.3</v>
       </c>
       <c r="R16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S16" t="s">
         <v>196</v>
@@ -5400,10 +5400,10 @@
         <v>306864</v>
       </c>
       <c r="W16">
-        <v>-64</v>
+        <v>-36</v>
       </c>
       <c r="X16">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="Y16" t="s">
         <v>289</v>
@@ -5663,7 +5663,7 @@
         <v>229</v>
       </c>
       <c r="H20">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I20">
         <v>240.9999999999999</v>
@@ -5684,13 +5684,13 @@
         <v>253.5999999999999</v>
       </c>
       <c r="O20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P20">
         <v>12.6</v>
       </c>
       <c r="Q20">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="R20">
         <v>5.5</v>
@@ -5708,7 +5708,7 @@
         <v>83747</v>
       </c>
       <c r="W20">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="X20">
         <v>15</v>
@@ -5740,7 +5740,7 @@
         <v>711</v>
       </c>
       <c r="H21">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I21">
         <v>723.1999999999999</v>
@@ -5761,16 +5761,16 @@
         <v>738.9999999999999</v>
       </c>
       <c r="O21">
-        <v>45.8</v>
+        <v>39.8</v>
       </c>
       <c r="P21">
         <v>15.8</v>
       </c>
       <c r="Q21">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
       <c r="R21">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="s">
         <v>201</v>
@@ -5785,7 +5785,7 @@
         <v>100614</v>
       </c>
       <c r="W21">
-        <v>45.5</v>
+        <v>39.6</v>
       </c>
       <c r="X21">
         <v>15.7</v>
@@ -5805,49 +5805,49 @@
         <v>9312</v>
       </c>
       <c r="D22">
-        <v>9067</v>
+        <v>9051</v>
       </c>
       <c r="E22">
-        <v>8848</v>
+        <v>8835</v>
       </c>
       <c r="F22">
-        <v>8726</v>
+        <v>8707</v>
       </c>
       <c r="G22">
-        <v>8577</v>
+        <v>8573</v>
       </c>
       <c r="H22">
-        <v>9364</v>
+        <v>9383</v>
       </c>
       <c r="I22">
-        <v>9078.800000000003</v>
+        <v>9068.400000000007</v>
       </c>
       <c r="J22">
-        <v>258.8</v>
+        <v>261.1</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>226.8</v>
+        <v>228.9</v>
       </c>
       <c r="M22">
-        <v>8852.000000000004</v>
+        <v>8839.500000000007</v>
       </c>
       <c r="N22">
-        <v>9305.600000000002</v>
+        <v>9297.300000000007</v>
       </c>
       <c r="O22">
-        <v>285.2</v>
+        <v>314.6</v>
       </c>
       <c r="P22">
-        <v>226.8</v>
+        <v>228.9</v>
       </c>
       <c r="Q22">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R22">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S22" t="s">
         <v>202</v>
@@ -5862,10 +5862,10 @@
         <v>2927008</v>
       </c>
       <c r="W22">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="X22">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y22" t="s">
         <v>295</v>
@@ -5891,37 +5891,37 @@
         <v>2289</v>
       </c>
       <c r="G23">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="H23">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="I23">
-        <v>2404.999999999999</v>
+        <v>2405.199999999999</v>
       </c>
       <c r="J23">
-        <v>74.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="M23">
-        <v>2339.299999999999</v>
+        <v>2339.699999999999</v>
       </c>
       <c r="N23">
         <v>2470.699999999999</v>
       </c>
       <c r="O23">
-        <v>-129</v>
+        <v>-128.2</v>
       </c>
       <c r="P23">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="Q23">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="R23">
         <v>2.5</v>
@@ -5939,10 +5939,10 @@
         <v>886546</v>
       </c>
       <c r="W23">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="X23">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y23" t="s">
         <v>296</v>
@@ -6125,7 +6125,7 @@
         <v>30949</v>
       </c>
       <c r="H26">
-        <v>35735</v>
+        <v>35757</v>
       </c>
       <c r="I26">
         <v>32265.80000000001</v>
@@ -6146,7 +6146,7 @@
         <v>32677.50000000001</v>
       </c>
       <c r="O26">
-        <v>3469.2</v>
+        <v>3491.2</v>
       </c>
       <c r="P26">
         <v>411.7</v>
@@ -6170,7 +6170,7 @@
         <v>3435218</v>
       </c>
       <c r="W26">
-        <v>101</v>
+        <v>101.6</v>
       </c>
       <c r="X26">
         <v>12</v>
@@ -6279,7 +6279,7 @@
         <v>6309</v>
       </c>
       <c r="H28">
-        <v>6734</v>
+        <v>6736</v>
       </c>
       <c r="I28">
         <v>6877.799999999998</v>
@@ -6300,7 +6300,7 @@
         <v>7144.499999999998</v>
       </c>
       <c r="O28">
-        <v>-143.8</v>
+        <v>-141.8</v>
       </c>
       <c r="P28">
         <v>266.7</v>
@@ -6324,7 +6324,7 @@
         <v>954836</v>
       </c>
       <c r="W28">
-        <v>-15.1</v>
+        <v>-14.9</v>
       </c>
       <c r="X28">
         <v>28</v>
@@ -6356,7 +6356,7 @@
         <v>1571</v>
       </c>
       <c r="H29">
-        <v>1723</v>
+        <v>1732</v>
       </c>
       <c r="I29">
         <v>1763</v>
@@ -6377,13 +6377,13 @@
         <v>1864.9</v>
       </c>
       <c r="O29">
-        <v>-40</v>
+        <v>-31</v>
       </c>
       <c r="P29">
         <v>101.9</v>
       </c>
       <c r="Q29">
-        <v>-2.3</v>
+        <v>-1.8</v>
       </c>
       <c r="R29">
         <v>5.3</v>
@@ -6401,7 +6401,7 @@
         <v>388680</v>
       </c>
       <c r="W29">
-        <v>-10.3</v>
+        <v>-8</v>
       </c>
       <c r="X29">
         <v>26.2</v>
@@ -6433,7 +6433,7 @@
         <v>27807</v>
       </c>
       <c r="H30">
-        <v>32188</v>
+        <v>32191</v>
       </c>
       <c r="I30">
         <v>28657</v>
@@ -6454,7 +6454,7 @@
         <v>28977.59999999999</v>
       </c>
       <c r="O30">
-        <v>3531</v>
+        <v>3534</v>
       </c>
       <c r="P30">
         <v>320.6</v>
@@ -6831,7 +6831,7 @@
         <v>11364</v>
       </c>
       <c r="H3">
-        <v>12699</v>
+        <v>12500</v>
       </c>
       <c r="I3">
         <v>12233.8</v>
@@ -6852,13 +6852,13 @@
         <v>12684.09999999999</v>
       </c>
       <c r="O3">
-        <v>465.2</v>
+        <v>266.2</v>
       </c>
       <c r="P3">
         <v>450.3</v>
       </c>
       <c r="Q3">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="R3">
         <v>3.7</v>
@@ -6876,7 +6876,7 @@
         <v>3823073</v>
       </c>
       <c r="W3">
-        <v>12.2</v>
+        <v>7</v>
       </c>
       <c r="X3">
         <v>11.7</v>
@@ -6908,7 +6908,7 @@
         <v>15587</v>
       </c>
       <c r="H4">
-        <v>19860</v>
+        <v>19863</v>
       </c>
       <c r="I4">
         <v>16732.2</v>
@@ -6929,7 +6929,7 @@
         <v>17196.5</v>
       </c>
       <c r="O4">
-        <v>3127.8</v>
+        <v>3130.8</v>
       </c>
       <c r="P4">
         <v>464.3</v>
@@ -6953,7 +6953,7 @@
         <v>2483521</v>
       </c>
       <c r="W4">
-        <v>125.9</v>
+        <v>126.1</v>
       </c>
       <c r="X4">
         <v>18.7</v>
@@ -7139,7 +7139,7 @@
         <v>13573</v>
       </c>
       <c r="H7">
-        <v>15107</v>
+        <v>15110</v>
       </c>
       <c r="I7">
         <v>14502.4</v>
@@ -7160,7 +7160,7 @@
         <v>14972</v>
       </c>
       <c r="O7">
-        <v>604.6</v>
+        <v>607.6</v>
       </c>
       <c r="P7">
         <v>469.6</v>
@@ -7184,7 +7184,7 @@
         <v>3754028</v>
       </c>
       <c r="W7">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="X7">
         <v>12.5</v>
@@ -7293,7 +7293,7 @@
         <v>2045</v>
       </c>
       <c r="H9">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="I9">
         <v>2237.000000000001</v>
@@ -7314,13 +7314,13 @@
         <v>2322.700000000001</v>
       </c>
       <c r="O9">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P9">
         <v>85.7</v>
       </c>
       <c r="Q9">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="R9">
         <v>3.9</v>
@@ -7338,7 +7338,7 @@
         <v>439984</v>
       </c>
       <c r="W9">
-        <v>26.6</v>
+        <v>27.3</v>
       </c>
       <c r="X9">
         <v>19.5</v>
@@ -7447,7 +7447,7 @@
         <v>65554</v>
       </c>
       <c r="H11">
-        <v>69848</v>
+        <v>69862</v>
       </c>
       <c r="I11">
         <v>70241.79999999997</v>
@@ -7468,16 +7468,16 @@
         <v>72225.09999999998</v>
       </c>
       <c r="O11">
-        <v>-393.8</v>
+        <v>-379.8</v>
       </c>
       <c r="P11">
         <v>1983.3</v>
       </c>
       <c r="Q11">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="S11" t="s">
         <v>316</v>
@@ -7495,7 +7495,7 @@
         <v>-1.8</v>
       </c>
       <c r="X11">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y11" t="s">
         <v>409</v>
@@ -7755,7 +7755,7 @@
         <v>49508</v>
       </c>
       <c r="H15">
-        <v>57777</v>
+        <v>57788</v>
       </c>
       <c r="I15">
         <v>52326.59999999998</v>
@@ -7776,7 +7776,7 @@
         <v>53590.89999999999</v>
       </c>
       <c r="O15">
-        <v>5450.4</v>
+        <v>5461.4</v>
       </c>
       <c r="P15">
         <v>1264.3</v>
@@ -7800,10 +7800,10 @@
         <v>22244774</v>
       </c>
       <c r="W15">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="X15">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="s">
         <v>413</v>
@@ -7832,7 +7832,7 @@
         <v>4346</v>
       </c>
       <c r="H16">
-        <v>4543</v>
+        <v>4644</v>
       </c>
       <c r="I16">
         <v>4777.2</v>
@@ -7853,13 +7853,13 @@
         <v>4946.4</v>
       </c>
       <c r="O16">
-        <v>-234.2</v>
+        <v>-133.2</v>
       </c>
       <c r="P16">
         <v>169.2</v>
       </c>
       <c r="Q16">
-        <v>-4.9</v>
+        <v>-2.8</v>
       </c>
       <c r="R16">
         <v>3.3</v>
@@ -7877,7 +7877,7 @@
         <v>653837</v>
       </c>
       <c r="W16">
-        <v>-35.8</v>
+        <v>-20.4</v>
       </c>
       <c r="X16">
         <v>25.9</v>
@@ -8217,7 +8217,7 @@
         <v>1053</v>
       </c>
       <c r="H21">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="I21">
         <v>1090</v>
@@ -8238,13 +8238,13 @@
         <v>1115.9</v>
       </c>
       <c r="O21">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="P21">
         <v>25.9</v>
       </c>
       <c r="Q21">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="R21">
         <v>2.5</v>
@@ -8262,7 +8262,7 @@
         <v>205268</v>
       </c>
       <c r="W21">
-        <v>35.6</v>
+        <v>30.2</v>
       </c>
       <c r="X21">
         <v>12.6</v>
@@ -8282,49 +8282,49 @@
         <v>16399</v>
       </c>
       <c r="D22">
-        <v>15905</v>
+        <v>15883</v>
       </c>
       <c r="E22">
-        <v>15460</v>
+        <v>15449</v>
       </c>
       <c r="F22">
-        <v>15357</v>
+        <v>15331</v>
       </c>
       <c r="G22">
-        <v>14892</v>
+        <v>14890</v>
       </c>
       <c r="H22">
-        <v>15969</v>
+        <v>15988</v>
       </c>
       <c r="I22">
-        <v>15913</v>
+        <v>15900.8</v>
       </c>
       <c r="J22">
-        <v>512.1</v>
+        <v>513.3</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>448.9</v>
+        <v>449.9</v>
       </c>
       <c r="M22">
-        <v>15464.1</v>
+        <v>15450.9</v>
       </c>
       <c r="N22">
-        <v>16361.9</v>
+        <v>16350.7</v>
       </c>
       <c r="O22">
-        <v>56</v>
+        <v>87.2</v>
       </c>
       <c r="P22">
-        <v>448.9</v>
+        <v>449.9</v>
       </c>
       <c r="Q22">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="S22" t="s">
         <v>327</v>
@@ -8339,10 +8339,10 @@
         <v>5858292</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="s">
         <v>420</v>
@@ -8368,37 +8368,37 @@
         <v>3803</v>
       </c>
       <c r="G23">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="H23">
-        <v>3740</v>
+        <v>3742</v>
       </c>
       <c r="I23">
-        <v>3955.800000000001</v>
+        <v>3956</v>
       </c>
       <c r="J23">
-        <v>123.8</v>
+        <v>123.6</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="M23">
-        <v>3847.300000000001</v>
+        <v>3847.7</v>
       </c>
       <c r="N23">
         <v>4064.300000000001</v>
       </c>
       <c r="O23">
-        <v>-215.8</v>
+        <v>-214</v>
       </c>
       <c r="P23">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="Q23">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="R23">
         <v>2.5</v>
@@ -8416,7 +8416,7 @@
         <v>1734716</v>
       </c>
       <c r="W23">
-        <v>-12.4</v>
+        <v>-12.3</v>
       </c>
       <c r="X23">
         <v>6.2</v>
@@ -8602,7 +8602,7 @@
         <v>43323</v>
       </c>
       <c r="H26">
-        <v>50397</v>
+        <v>50427</v>
       </c>
       <c r="I26">
         <v>45661.2</v>
@@ -8623,7 +8623,7 @@
         <v>46439.39999999999</v>
       </c>
       <c r="O26">
-        <v>4735.8</v>
+        <v>4765.8</v>
       </c>
       <c r="P26">
         <v>778.2</v>
@@ -8632,7 +8632,7 @@
         <v>10.4</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="s">
         <v>331</v>
@@ -8647,10 +8647,10 @@
         <v>6858653</v>
       </c>
       <c r="W26">
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="X26">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="Y26" t="s">
         <v>424</v>
@@ -8756,7 +8756,7 @@
         <v>9001</v>
       </c>
       <c r="H28">
-        <v>9775</v>
+        <v>9777</v>
       </c>
       <c r="I28">
         <v>9849.799999999999</v>
@@ -8777,16 +8777,16 @@
         <v>10245.5</v>
       </c>
       <c r="O28">
-        <v>-74.8</v>
+        <v>-72.8</v>
       </c>
       <c r="P28">
         <v>395.7</v>
       </c>
       <c r="Q28">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="R28">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="S28" t="s">
         <v>333</v>
@@ -8801,7 +8801,7 @@
         <v>1918677</v>
       </c>
       <c r="W28">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="X28">
         <v>20.6</v>
@@ -8833,7 +8833,7 @@
         <v>2301</v>
       </c>
       <c r="H29">
-        <v>2507</v>
+        <v>2518</v>
       </c>
       <c r="I29">
         <v>2564.8</v>
@@ -8854,16 +8854,16 @@
         <v>2693.4</v>
       </c>
       <c r="O29">
-        <v>-57.8</v>
+        <v>-46.8</v>
       </c>
       <c r="P29">
         <v>128.6</v>
       </c>
       <c r="Q29">
-        <v>-2.3</v>
+        <v>-1.8</v>
       </c>
       <c r="R29">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="S29" t="s">
         <v>334</v>
@@ -8878,7 +8878,7 @@
         <v>756559</v>
       </c>
       <c r="W29">
-        <v>-7.6</v>
+        <v>-6.2</v>
       </c>
       <c r="X29">
         <v>17</v>
@@ -8910,7 +8910,7 @@
         <v>41862</v>
       </c>
       <c r="H30">
-        <v>48532</v>
+        <v>48298</v>
       </c>
       <c r="I30">
         <v>42803.40000000001</v>
@@ -8931,16 +8931,16 @@
         <v>43141.00000000001</v>
       </c>
       <c r="O30">
-        <v>5728.6</v>
+        <v>5494.6</v>
       </c>
       <c r="P30">
         <v>337.6</v>
       </c>
       <c r="Q30">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="R30">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="S30" t="s">
         <v>335</v>
@@ -8955,7 +8955,7 @@
         <v>17787666</v>
       </c>
       <c r="W30">
-        <v>32.2</v>
+        <v>30.9</v>
       </c>
       <c r="X30">
         <v>1.9</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(40-44) - (60-64).xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(40-44) - (60-64).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="439">
   <si>
     <t>Sex</t>
   </si>
@@ -289,22 +289,22 @@
     <t>-37.0 (±156.7)</t>
   </si>
   <si>
-    <t>1074.8 (±176.0)</t>
+    <t>1076.8 (±176.0)</t>
   </si>
   <si>
     <t>0.4 (±81.5)</t>
   </si>
   <si>
-    <t>22.2 (±10.7)</t>
-  </si>
-  <si>
-    <t>144.4 (±152.5)</t>
-  </si>
-  <si>
-    <t>-191.4 (±129.5)</t>
-  </si>
-  <si>
-    <t>76.2 (±31.1)</t>
+    <t>18.2 (±10.7)</t>
+  </si>
+  <si>
+    <t>146.4 (±152.5)</t>
+  </si>
+  <si>
+    <t>-190.4 (±129.5)</t>
+  </si>
+  <si>
+    <t>38.2 (±31.1)</t>
   </si>
   <si>
     <t>-157.0 (±64.3)</t>
@@ -316,13 +316,13 @@
     <t>241.0 (±57.7)</t>
   </si>
   <si>
-    <t>-230.0 (±414.9)</t>
+    <t>-232.0 (±414.9)</t>
   </si>
   <si>
     <t>6.6 (±7.9)</t>
   </si>
   <si>
-    <t>1383.4 (±413.6)</t>
+    <t>1384.4 (±413.6)</t>
   </si>
   <si>
     <t>-22.8 (±49.4)</t>
@@ -340,13 +340,13 @@
     <t>6.0 (±11.2)</t>
   </si>
   <si>
-    <t>22.2 (±18.9)</t>
+    <t>31.2 (±18.9)</t>
   </si>
   <si>
     <t>-227.4 (±224.1)</t>
   </si>
   <si>
-    <t>-85.8 (±45.1)</t>
+    <t>-84.8 (±45.1)</t>
   </si>
   <si>
     <t>314.8 (±801.2)</t>
@@ -361,13 +361,13 @@
     <t>71.8 (±274.3)</t>
   </si>
   <si>
-    <t>69.0 (±132.1)</t>
-  </si>
-  <si>
-    <t>-15.8 (±34.7)</t>
-  </si>
-  <si>
-    <t>1960.6 (±158.9)</t>
+    <t>70.0 (±132.1)</t>
+  </si>
+  <si>
+    <t>-14.8 (±34.7)</t>
+  </si>
+  <si>
+    <t>1961.6 (±158.9)</t>
   </si>
   <si>
     <t>-167.8 (±97.7)</t>
@@ -382,22 +382,22 @@
     <t>-0.8% (±3.2%)</t>
   </si>
   <si>
-    <t>20.7% (±3.9%)</t>
+    <t>20.8% (±4.0%)</t>
   </si>
   <si>
     <t>0.0% (±3.8%)</t>
   </si>
   <si>
-    <t>10.0% (±5.1%)</t>
-  </si>
-  <si>
-    <t>3.1% (±3.3%)</t>
-  </si>
-  <si>
-    <t>-8.1% (±4.8%)</t>
-  </si>
-  <si>
-    <t>12.2% (±5.3%)</t>
+    <t>8.2% (±5.0%)</t>
+  </si>
+  <si>
+    <t>3.1% (±3.2%)</t>
+  </si>
+  <si>
+    <t>-8.1% (±4.7%)</t>
+  </si>
+  <si>
+    <t>6.1% (±5.0%)</t>
   </si>
   <si>
     <t>-8.3% (±3.0%)</t>
@@ -433,13 +433,13 @@
     <t>4.1% (±7.4%)</t>
   </si>
   <si>
-    <t>6.1% (±5.2%)</t>
+    <t>8.5% (±5.3%)</t>
   </si>
   <si>
     <t>-3.3% (±3.1%)</t>
   </si>
   <si>
-    <t>-5.5% (±2.7%)</t>
+    <t>-5.5% (±2.6%)</t>
   </si>
   <si>
     <t>1.4% (±3.5%)</t>
@@ -454,10 +454,10 @@
     <t>1.4% (±5.1%)</t>
   </si>
   <si>
-    <t>2.3% (±4.3%)</t>
-  </si>
-  <si>
-    <t>-2.0% (±4.0%)</t>
+    <t>2.4% (±4.4%)</t>
+  </si>
+  <si>
+    <t>-1.8% (±4.1%)</t>
   </si>
   <si>
     <t>13.9% (±1.3%)</t>
@@ -475,22 +475,22 @@
     <t>-1.9(±8.2)</t>
   </si>
   <si>
-    <t>86.4(±14.2)</t>
+    <t>86.6(±14.1)</t>
   </si>
   <si>
     <t>0.1(±11.4)</t>
   </si>
   <si>
-    <t>16.2(±7.9)</t>
-  </si>
-  <si>
-    <t>7.8(±8.2)</t>
-  </si>
-  <si>
-    <t>-20.2(±13.7)</t>
-  </si>
-  <si>
-    <t>33.8(±13.8)</t>
+    <t>13.3(±7.9)</t>
+  </si>
+  <si>
+    <t>7.9(±8.2)</t>
+  </si>
+  <si>
+    <t>-20.1(±13.7)</t>
+  </si>
+  <si>
+    <t>16.9(±13.8)</t>
   </si>
   <si>
     <t>-18.1(±7.4)</t>
@@ -502,7 +502,7 @@
     <t>12.3(±2.9)</t>
   </si>
   <si>
-    <t>-13.0(±23.4)</t>
+    <t>-13.1(±23.4)</t>
   </si>
   <si>
     <t>12.1(±14.6)</t>
@@ -526,13 +526,13 @@
     <t>7.8(±14.7)</t>
   </si>
   <si>
-    <t>21.2(±18.1)</t>
+    <t>29.8(±18.1)</t>
   </si>
   <si>
     <t>-7.8(±7.7)</t>
   </si>
   <si>
-    <t>-10.1(±5.3)</t>
+    <t>-10.0(±5.3)</t>
   </si>
   <si>
     <t>4.8(±12.3)</t>
@@ -547,13 +547,13 @@
     <t>5.9(±22.4)</t>
   </si>
   <si>
-    <t>7.2(±13.7)</t>
-  </si>
-  <si>
-    <t>-4.3(±9.4)</t>
-  </si>
-  <si>
-    <t>21.9(±1.8)</t>
+    <t>7.3(±13.7)</t>
+  </si>
+  <si>
+    <t>-4.0(±9.4)</t>
+  </si>
+  <si>
+    <t>22.0(±1.7)</t>
   </si>
   <si>
     <t>-10.7(±6.2)</t>
@@ -628,7 +628,7 @@
     <t>9068.4 (±228.9)</t>
   </si>
   <si>
-    <t>2405.2 (±65.5)</t>
+    <t>2405.8 (±65.0)</t>
   </si>
   <si>
     <t>51241.2 (±1807.7)</t>
@@ -670,34 +670,34 @@
     <t>-122.8 (±216.6)</t>
   </si>
   <si>
-    <t>72.8 (±14.6)</t>
-  </si>
-  <si>
-    <t>463.2 (±319.9)</t>
+    <t>63.8 (±14.6)</t>
+  </si>
+  <si>
+    <t>465.2 (±319.9)</t>
   </si>
   <si>
     <t>-361.2 (±133.4)</t>
   </si>
   <si>
-    <t>43.8 (±61.1)</t>
+    <t>-11.2 (±61.1)</t>
   </si>
   <si>
     <t>-60.8 (±225.9)</t>
   </si>
   <si>
-    <t>-451.6 (±1672.8)</t>
+    <t>-440.6 (±1672.8)</t>
   </si>
   <si>
     <t>143.0 (±151.5)</t>
   </si>
   <si>
-    <t>-282.0 (±648.1)</t>
+    <t>-262.0 (±648.1)</t>
   </si>
   <si>
     <t>9.4 (±14.9)</t>
   </si>
   <si>
-    <t>4078.0 (±858.5)</t>
+    <t>4081.0 (±858.5)</t>
   </si>
   <si>
     <t>-110.4 (±124.7)</t>
@@ -715,13 +715,13 @@
     <t>24.0 (±12.6)</t>
   </si>
   <si>
-    <t>39.8 (±15.8)</t>
+    <t>63.8 (±15.8)</t>
   </si>
   <si>
     <t>314.6 (±228.9)</t>
   </si>
   <si>
-    <t>-128.2 (±65.5)</t>
+    <t>-126.8 (±65.0)</t>
   </si>
   <si>
     <t>2549.8 (±1807.7)</t>
@@ -739,10 +739,10 @@
     <t>-141.8 (±266.7)</t>
   </si>
   <si>
-    <t>-31.0 (±101.9)</t>
-  </si>
-  <si>
-    <t>3534.0 (±320.6)</t>
+    <t>-28.0 (±101.9)</t>
+  </si>
+  <si>
+    <t>3535.0 (±320.6)</t>
   </si>
   <si>
     <t>16.6 (±251.2)</t>
@@ -763,7 +763,7 @@
     <t>-2.6% (±4.2%)</t>
   </si>
   <si>
-    <t>18.2% (±4.2%)</t>
+    <t>15.9% (±4.0%)</t>
   </si>
   <si>
     <t>4.7% (±3.3%)</t>
@@ -772,7 +772,7 @@
     <t>-9.6% (±3.1%)</t>
   </si>
   <si>
-    <t>2.7% (±3.7%)</t>
+    <t>-0.7% (±3.6%)</t>
   </si>
   <si>
     <t>-1.6% (±5.4%)</t>
@@ -784,7 +784,7 @@
     <t>1.8% (±1.9%)</t>
   </si>
   <si>
-    <t>-1.9% (±4.0%)</t>
+    <t>-1.7% (±4.1%)</t>
   </si>
   <si>
     <t>6.3% (±9.7%)</t>
@@ -808,7 +808,7 @@
     <t>10.0% (±5.5%)</t>
   </si>
   <si>
-    <t>5.5% (±2.3%)</t>
+    <t>8.8% (±2.3%)</t>
   </si>
   <si>
     <t>3.5% (±2.6%)</t>
@@ -832,9 +832,6 @@
     <t>-2.1% (±3.6%)</t>
   </si>
   <si>
-    <t>-1.8% (±5.3%)</t>
-  </si>
-  <si>
     <t>12.3% (±1.2%)</t>
   </si>
   <si>
@@ -856,34 +853,34 @@
     <t>-17.6(±31.0)</t>
   </si>
   <si>
-    <t>55.1(±11.1)</t>
-  </si>
-  <si>
-    <t>24.4(±16.8)</t>
+    <t>48.3(±11.1)</t>
+  </si>
+  <si>
+    <t>24.5(±16.8)</t>
   </si>
   <si>
     <t>-38.0(±14.1)</t>
   </si>
   <si>
-    <t>20.4(±28.5)</t>
+    <t>-5.2(±28.5)</t>
   </si>
   <si>
     <t>-6.9(±25.7)</t>
   </si>
   <si>
-    <t>-4.3(±15.9)</t>
+    <t>-4.2(±15.9)</t>
   </si>
   <si>
     <t>7.8(±8.3)</t>
   </si>
   <si>
-    <t>-16.6(±38.1)</t>
+    <t>-15.4(±38.1)</t>
   </si>
   <si>
     <t>16.5(±26.1)</t>
   </si>
   <si>
-    <t>37.3(±7.8)</t>
+    <t>37.3(±7.9)</t>
   </si>
   <si>
     <t>-36.0(±40.7)</t>
@@ -901,13 +898,13 @@
     <t>28.7(±15.0)</t>
   </si>
   <si>
-    <t>39.6(±15.7)</t>
+    <t>63.4(±15.7)</t>
   </si>
   <si>
     <t>10.7(±7.9)</t>
   </si>
   <si>
-    <t>-14.5(±7.4)</t>
+    <t>-14.3(±7.3)</t>
   </si>
   <si>
     <t>40.3(±28.6)</t>
@@ -925,10 +922,10 @@
     <t>-14.9(±28.0)</t>
   </si>
   <si>
-    <t>-8.0(±26.2)</t>
-  </si>
-  <si>
-    <t>39.9(±3.6)</t>
+    <t>-7.2(±26.2)</t>
+  </si>
+  <si>
+    <t>39.9(±3.7)</t>
   </si>
   <si>
     <t>1.0(±15.7)</t>
@@ -1003,7 +1000,7 @@
     <t>15900.8 (±449.9)</t>
   </si>
   <si>
-    <t>3956.0 (±108.3)</t>
+    <t>3956.6 (±107.8)</t>
   </si>
   <si>
     <t>73109.4 (±2596.1)</t>
@@ -1039,40 +1036,40 @@
     <t>266.2 (±450.3)</t>
   </si>
   <si>
-    <t>3130.8 (±464.3)</t>
+    <t>3132.8 (±464.3)</t>
   </si>
   <si>
     <t>-122.4 (±289.8)</t>
   </si>
   <si>
-    <t>95.0 (±21.1)</t>
-  </si>
-  <si>
-    <t>607.6 (±469.6)</t>
-  </si>
-  <si>
-    <t>-552.6 (±260.5)</t>
-  </si>
-  <si>
-    <t>120.0 (±85.7)</t>
+    <t>82.0 (±21.1)</t>
+  </si>
+  <si>
+    <t>611.6 (±469.6)</t>
+  </si>
+  <si>
+    <t>-551.6 (±260.5)</t>
+  </si>
+  <si>
+    <t>27.0 (±85.7)</t>
   </si>
   <si>
     <t>-217.8 (±287.6)</t>
   </si>
   <si>
-    <t>-379.8 (±1983.3)</t>
+    <t>-368.8 (±1983.3)</t>
   </si>
   <si>
     <t>384.0 (±122.3)</t>
   </si>
   <si>
-    <t>-512.0 (±1053.3)</t>
+    <t>-494.0 (±1053.3)</t>
   </si>
   <si>
     <t>16.0 (±15.0)</t>
   </si>
   <si>
-    <t>5461.4 (±1264.3)</t>
+    <t>5465.4 (±1264.3)</t>
   </si>
   <si>
     <t>-133.2 (±169.2)</t>
@@ -1090,13 +1087,13 @@
     <t>30.0 (±11.8)</t>
   </si>
   <si>
-    <t>62.0 (±25.9)</t>
+    <t>95.0 (±25.9)</t>
   </si>
   <si>
     <t>87.2 (±449.9)</t>
   </si>
   <si>
-    <t>-214.0 (±108.3)</t>
+    <t>-211.6 (±107.8)</t>
   </si>
   <si>
     <t>2864.6 (±2596.1)</t>
@@ -1111,13 +1108,13 @@
     <t>723.4 (±746.6)</t>
   </si>
   <si>
-    <t>-72.8 (±395.7)</t>
-  </si>
-  <si>
-    <t>-46.8 (±128.6)</t>
-  </si>
-  <si>
-    <t>5494.6 (±337.6)</t>
+    <t>-71.8 (±395.7)</t>
+  </si>
+  <si>
+    <t>-42.8 (±128.6)</t>
+  </si>
+  <si>
+    <t>5496.6 (±337.6)</t>
   </si>
   <si>
     <t>-151.2 (±344.5)</t>
@@ -1138,7 +1135,7 @@
     <t>-1.8% (±4.0%)</t>
   </si>
   <si>
-    <t>15.3% (±3.8%)</t>
+    <t>13.2% (±3.7%)</t>
   </si>
   <si>
     <t>4.2% (±3.3%)</t>
@@ -1147,7 +1144,7 @@
     <t>-9.0% (±3.7%)</t>
   </si>
   <si>
-    <t>5.4% (±3.9%)</t>
+    <t>1.2% (±3.7%)</t>
   </si>
   <si>
     <t>-3.8% (±4.6%)</t>
@@ -1159,7 +1156,7 @@
     <t>3.3% (±1.1%)</t>
   </si>
   <si>
-    <t>-2.3% (±4.3%)</t>
+    <t>-2.2% (±4.4%)</t>
   </si>
   <si>
     <t>6.3% (±5.9%)</t>
@@ -1183,13 +1180,13 @@
     <t>7.8% (±3.2%)</t>
   </si>
   <si>
-    <t>5.7% (±2.5%)</t>
+    <t>8.7% (±2.5%)</t>
   </si>
   <si>
     <t>0.5% (±2.7%)</t>
   </si>
   <si>
-    <t>-5.4% (±2.5%)</t>
+    <t>-5.3% (±2.6%)</t>
   </si>
   <si>
     <t>3.9% (±3.5%)</t>
@@ -1207,7 +1204,7 @@
     <t>-0.7% (±3.9%)</t>
   </si>
   <si>
-    <t>-1.8% (±4.7%)</t>
+    <t>-1.7% (±4.7%)</t>
   </si>
   <si>
     <t>12.8% (±0.8%)</t>
@@ -1231,34 +1228,34 @@
     <t>-8.7(±20.6)</t>
   </si>
   <si>
-    <t>35.4(±7.8)</t>
-  </si>
-  <si>
-    <t>16.2(±12.5)</t>
-  </si>
-  <si>
-    <t>-29.1(±13.7)</t>
-  </si>
-  <si>
-    <t>27.3(±19.5)</t>
+    <t>30.5(±7.9)</t>
+  </si>
+  <si>
+    <t>16.3(±12.5)</t>
+  </si>
+  <si>
+    <t>-29.0(±13.7)</t>
+  </si>
+  <si>
+    <t>6.1(±19.5)</t>
   </si>
   <si>
     <t>-12.5(±16.5)</t>
   </si>
   <si>
-    <t>-1.8(±9.3)</t>
+    <t>-1.7(±9.2)</t>
   </si>
   <si>
     <t>10.1(±3.2)</t>
   </si>
   <si>
-    <t>-14.7(±30.3)</t>
+    <t>-14.2(±30.3)</t>
   </si>
   <si>
     <t>14.4(±13.4)</t>
   </si>
   <si>
-    <t>24.6(±5.6)</t>
+    <t>24.6(±5.7)</t>
   </si>
   <si>
     <t>-20.4(±25.9)</t>
@@ -1276,13 +1273,13 @@
     <t>18.7(±7.4)</t>
   </si>
   <si>
-    <t>30.2(±12.6)</t>
+    <t>46.3(±12.6)</t>
   </si>
   <si>
     <t>1.5(±7.7)</t>
   </si>
   <si>
-    <t>-12.3(±6.2)</t>
+    <t>-12.2(±6.2)</t>
   </si>
   <si>
     <t>22.3(±20.2)</t>
@@ -1297,10 +1294,10 @@
     <t>30.1(±31.2)</t>
   </si>
   <si>
-    <t>-3.8(±20.6)</t>
-  </si>
-  <si>
-    <t>-6.2(±17.0)</t>
+    <t>-3.7(±20.6)</t>
+  </si>
+  <si>
+    <t>-5.7(±17.0)</t>
   </si>
   <si>
     <t>30.9(±1.9)</t>
@@ -1803,7 +1800,7 @@
         <v>3204</v>
       </c>
       <c r="I2">
-        <v>3121.200000000001</v>
+        <v>3121.2</v>
       </c>
       <c r="J2">
         <v>70.90000000000001</v>
@@ -1815,10 +1812,10 @@
         <v>62.1</v>
       </c>
       <c r="M2">
-        <v>3059.100000000001</v>
+        <v>3059.1</v>
       </c>
       <c r="N2">
-        <v>3183.300000000001</v>
+        <v>3183.3</v>
       </c>
       <c r="O2">
         <v>82.8</v>
@@ -1954,10 +1951,10 @@
         <v>4720</v>
       </c>
       <c r="H4">
-        <v>6260</v>
+        <v>6262</v>
       </c>
       <c r="I4">
-        <v>5185.199999999999</v>
+        <v>5185.2</v>
       </c>
       <c r="J4">
         <v>200.8</v>
@@ -1969,22 +1966,22 @@
         <v>176</v>
       </c>
       <c r="M4">
-        <v>5009.199999999999</v>
+        <v>5009.2</v>
       </c>
       <c r="N4">
-        <v>5361.199999999999</v>
+        <v>5361.2</v>
       </c>
       <c r="O4">
-        <v>1074.8</v>
+        <v>1076.8</v>
       </c>
       <c r="P4">
         <v>176</v>
       </c>
       <c r="Q4">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="R4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="S4" t="s">
         <v>59</v>
@@ -1999,10 +1996,10 @@
         <v>1243628</v>
       </c>
       <c r="W4">
-        <v>86.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="X4">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="Y4" t="s">
         <v>152</v>
@@ -2034,7 +2031,7 @@
         <v>2060</v>
       </c>
       <c r="I5">
-        <v>2059.600000000001</v>
+        <v>2059.6</v>
       </c>
       <c r="J5">
         <v>93</v>
@@ -2046,10 +2043,10 @@
         <v>81.5</v>
       </c>
       <c r="M5">
-        <v>1978.100000000001</v>
+        <v>1978.1</v>
       </c>
       <c r="N5">
-        <v>2141.100000000001</v>
+        <v>2141.1</v>
       </c>
       <c r="O5">
         <v>0.4</v>
@@ -2108,7 +2105,7 @@
         <v>222</v>
       </c>
       <c r="H6">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I6">
         <v>221.8</v>
@@ -2123,22 +2120,22 @@
         <v>10.7</v>
       </c>
       <c r="M6">
-        <v>211.1000000000001</v>
+        <v>211.1</v>
       </c>
       <c r="N6">
         <v>232.5</v>
       </c>
       <c r="O6">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
       <c r="P6">
         <v>10.7</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R6">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="S6" t="s">
         <v>61</v>
@@ -2153,7 +2150,7 @@
         <v>136643</v>
       </c>
       <c r="W6">
-        <v>16.2</v>
+        <v>13.3</v>
       </c>
       <c r="X6">
         <v>7.9</v>
@@ -2185,10 +2182,10 @@
         <v>4386</v>
       </c>
       <c r="H7">
-        <v>4802</v>
+        <v>4804</v>
       </c>
       <c r="I7">
-        <v>4657.600000000001</v>
+        <v>4657.6</v>
       </c>
       <c r="J7">
         <v>174</v>
@@ -2200,13 +2197,13 @@
         <v>152.5</v>
       </c>
       <c r="M7">
-        <v>4505.100000000001</v>
+        <v>4505.1</v>
       </c>
       <c r="N7">
-        <v>4810.100000000001</v>
+        <v>4810.1</v>
       </c>
       <c r="O7">
-        <v>144.4</v>
+        <v>146.4</v>
       </c>
       <c r="P7">
         <v>152.5</v>
@@ -2215,7 +2212,7 @@
         <v>3.1</v>
       </c>
       <c r="R7">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="S7" t="s">
         <v>62</v>
@@ -2230,7 +2227,7 @@
         <v>1853549</v>
       </c>
       <c r="W7">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X7">
         <v>8.199999999999999</v>
@@ -2262,10 +2259,10 @@
         <v>2121</v>
       </c>
       <c r="H8">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="I8">
-        <v>2364.400000000001</v>
+        <v>2364.4</v>
       </c>
       <c r="J8">
         <v>147.7</v>
@@ -2277,13 +2274,13 @@
         <v>129.5</v>
       </c>
       <c r="M8">
-        <v>2234.900000000001</v>
+        <v>2234.9</v>
       </c>
       <c r="N8">
-        <v>2493.900000000001</v>
+        <v>2493.9</v>
       </c>
       <c r="O8">
-        <v>-191.4</v>
+        <v>-190.4</v>
       </c>
       <c r="P8">
         <v>129.5</v>
@@ -2292,7 +2289,7 @@
         <v>-8.1</v>
       </c>
       <c r="R8">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="S8" t="s">
         <v>63</v>
@@ -2307,7 +2304,7 @@
         <v>949220</v>
       </c>
       <c r="W8">
-        <v>-20.2</v>
+        <v>-20.1</v>
       </c>
       <c r="X8">
         <v>13.7</v>
@@ -2339,10 +2336,10 @@
         <v>583</v>
       </c>
       <c r="H9">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="I9">
-        <v>626.7999999999997</v>
+        <v>626.8</v>
       </c>
       <c r="J9">
         <v>35.5</v>
@@ -2354,22 +2351,22 @@
         <v>31.1</v>
       </c>
       <c r="M9">
-        <v>595.6999999999997</v>
+        <v>595.6999999999999</v>
       </c>
       <c r="N9">
-        <v>657.8999999999997</v>
+        <v>657.9</v>
       </c>
       <c r="O9">
-        <v>76.2</v>
+        <v>38.2</v>
       </c>
       <c r="P9">
         <v>31.1</v>
       </c>
       <c r="Q9">
-        <v>12.2</v>
+        <v>6.1</v>
       </c>
       <c r="R9">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="S9" t="s">
         <v>64</v>
@@ -2384,7 +2381,7 @@
         <v>225466</v>
       </c>
       <c r="W9">
-        <v>33.8</v>
+        <v>16.9</v>
       </c>
       <c r="X9">
         <v>13.8</v>
@@ -2434,7 +2431,7 @@
         <v>1825.7</v>
       </c>
       <c r="N10">
-        <v>1954.299999999999</v>
+        <v>1954.3</v>
       </c>
       <c r="O10">
         <v>-157</v>
@@ -2496,7 +2493,7 @@
         <v>23971</v>
       </c>
       <c r="I11">
-        <v>23899.19999999999</v>
+        <v>23899.2</v>
       </c>
       <c r="J11">
         <v>384.8</v>
@@ -2508,10 +2505,10 @@
         <v>337.3</v>
       </c>
       <c r="M11">
-        <v>23561.89999999999</v>
+        <v>23561.9</v>
       </c>
       <c r="N11">
-        <v>24236.49999999999</v>
+        <v>24236.5</v>
       </c>
       <c r="O11">
         <v>71.8</v>
@@ -2588,7 +2585,7 @@
         <v>3737.3</v>
       </c>
       <c r="N12">
-        <v>3852.699999999999</v>
+        <v>3852.7</v>
       </c>
       <c r="O12">
         <v>241</v>
@@ -2647,7 +2644,7 @@
         <v>6650</v>
       </c>
       <c r="H13">
-        <v>7256</v>
+        <v>7254</v>
       </c>
       <c r="I13">
         <v>7486</v>
@@ -2668,7 +2665,7 @@
         <v>7900.9</v>
       </c>
       <c r="O13">
-        <v>-230</v>
+        <v>-232</v>
       </c>
       <c r="P13">
         <v>414.9</v>
@@ -2692,7 +2689,7 @@
         <v>1772947</v>
       </c>
       <c r="W13">
-        <v>-13</v>
+        <v>-13.1</v>
       </c>
       <c r="X13">
         <v>23.4</v>
@@ -2801,10 +2798,10 @@
         <v>18772</v>
       </c>
       <c r="H15">
-        <v>21024</v>
+        <v>21025</v>
       </c>
       <c r="I15">
-        <v>19640.60000000001</v>
+        <v>19640.6</v>
       </c>
       <c r="J15">
         <v>471.9</v>
@@ -2816,13 +2813,13 @@
         <v>413.6</v>
       </c>
       <c r="M15">
-        <v>19227.00000000001</v>
+        <v>19227</v>
       </c>
       <c r="N15">
-        <v>20054.20000000001</v>
+        <v>20054.2</v>
       </c>
       <c r="O15">
-        <v>1383.4</v>
+        <v>1384.4</v>
       </c>
       <c r="P15">
         <v>413.6</v>
@@ -2970,7 +2967,7 @@
         <v>2.5</v>
       </c>
       <c r="M17">
-        <v>9.899999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="N17">
         <v>14.9</v>
@@ -3035,7 +3032,7 @@
         <v>2167</v>
       </c>
       <c r="I18">
-        <v>1940.599999999999</v>
+        <v>1940.6</v>
       </c>
       <c r="J18">
         <v>112.5</v>
@@ -3050,7 +3047,7 @@
         <v>1842</v>
       </c>
       <c r="N18">
-        <v>2039.199999999999</v>
+        <v>2039.2</v>
       </c>
       <c r="O18">
         <v>226.4</v>
@@ -3112,7 +3109,7 @@
         <v>170</v>
       </c>
       <c r="I19">
-        <v>183.4000000000001</v>
+        <v>183.4</v>
       </c>
       <c r="J19">
         <v>10.2</v>
@@ -3124,10 +3121,10 @@
         <v>8.9</v>
       </c>
       <c r="M19">
-        <v>174.5000000000001</v>
+        <v>174.5</v>
       </c>
       <c r="N19">
-        <v>192.3000000000001</v>
+        <v>192.3</v>
       </c>
       <c r="O19">
         <v>-13.4</v>
@@ -3263,7 +3260,7 @@
         <v>342</v>
       </c>
       <c r="H21">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I21">
         <v>366.8</v>
@@ -3281,19 +3278,19 @@
         <v>347.9</v>
       </c>
       <c r="N21">
-        <v>385.6999999999999</v>
+        <v>385.7</v>
       </c>
       <c r="O21">
-        <v>22.2</v>
+        <v>31.2</v>
       </c>
       <c r="P21">
         <v>18.9</v>
       </c>
       <c r="Q21">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="R21">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="S21" t="s">
         <v>76</v>
@@ -3308,7 +3305,7 @@
         <v>104654</v>
       </c>
       <c r="W21">
-        <v>21.2</v>
+        <v>29.8</v>
       </c>
       <c r="X21">
         <v>18.1</v>
@@ -3417,7 +3414,7 @@
         <v>1458</v>
       </c>
       <c r="H23">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I23">
         <v>1550.8</v>
@@ -3438,7 +3435,7 @@
         <v>1595.9</v>
       </c>
       <c r="O23">
-        <v>-85.8</v>
+        <v>-84.8</v>
       </c>
       <c r="P23">
         <v>45.1</v>
@@ -3447,7 +3444,7 @@
         <v>-5.5</v>
       </c>
       <c r="R23">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="s">
         <v>78</v>
@@ -3462,7 +3459,7 @@
         <v>848170</v>
       </c>
       <c r="W23">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="X23">
         <v>5.3</v>
@@ -3574,7 +3571,7 @@
         <v>3928</v>
       </c>
       <c r="I25">
-        <v>3755.000000000001</v>
+        <v>3755</v>
       </c>
       <c r="J25">
         <v>46.7</v>
@@ -3586,10 +3583,10 @@
         <v>40.9</v>
       </c>
       <c r="M25">
-        <v>3714.100000000001</v>
+        <v>3714.1</v>
       </c>
       <c r="N25">
-        <v>3795.900000000001</v>
+        <v>3795.9</v>
       </c>
       <c r="O25">
         <v>173</v>
@@ -3651,7 +3648,7 @@
         <v>14670</v>
       </c>
       <c r="I26">
-        <v>13395.40000000001</v>
+        <v>13395.4</v>
       </c>
       <c r="J26">
         <v>452.8</v>
@@ -3663,7 +3660,7 @@
         <v>396.9</v>
       </c>
       <c r="M26">
-        <v>12998.50000000001</v>
+        <v>12998.5</v>
       </c>
       <c r="N26">
         <v>13792.3</v>
@@ -3728,7 +3725,7 @@
         <v>5298</v>
       </c>
       <c r="I27">
-        <v>5226.200000000003</v>
+        <v>5226.2</v>
       </c>
       <c r="J27">
         <v>312.9</v>
@@ -3740,10 +3737,10 @@
         <v>274.3</v>
       </c>
       <c r="M27">
-        <v>4951.900000000002</v>
+        <v>4951.9</v>
       </c>
       <c r="N27">
-        <v>5500.500000000003</v>
+        <v>5500.5</v>
       </c>
       <c r="O27">
         <v>71.8</v>
@@ -3802,10 +3799,10 @@
         <v>2692</v>
       </c>
       <c r="H28">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="I28">
-        <v>2971.999999999999</v>
+        <v>2972</v>
       </c>
       <c r="J28">
         <v>150.7</v>
@@ -3817,22 +3814,22 @@
         <v>132.1</v>
       </c>
       <c r="M28">
-        <v>2839.899999999999</v>
+        <v>2839.9</v>
       </c>
       <c r="N28">
-        <v>3104.099999999999</v>
+        <v>3104.1</v>
       </c>
       <c r="O28">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P28">
         <v>132.1</v>
       </c>
       <c r="Q28">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R28">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3847,7 +3844,7 @@
         <v>963841</v>
       </c>
       <c r="W28">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X28">
         <v>13.7</v>
@@ -3879,10 +3876,10 @@
         <v>730</v>
       </c>
       <c r="H29">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="I29">
-        <v>801.8000000000004</v>
+        <v>801.8</v>
       </c>
       <c r="J29">
         <v>39.6</v>
@@ -3894,22 +3891,22 @@
         <v>34.7</v>
       </c>
       <c r="M29">
-        <v>767.1000000000004</v>
+        <v>767.0999999999999</v>
       </c>
       <c r="N29">
-        <v>836.5000000000005</v>
+        <v>836.5</v>
       </c>
       <c r="O29">
-        <v>-15.8</v>
+        <v>-14.8</v>
       </c>
       <c r="P29">
         <v>34.7</v>
       </c>
       <c r="Q29">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="S29" t="s">
         <v>84</v>
@@ -3924,7 +3921,7 @@
         <v>367879</v>
       </c>
       <c r="W29">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="X29">
         <v>9.4</v>
@@ -3956,7 +3953,7 @@
         <v>14055</v>
       </c>
       <c r="H30">
-        <v>16107</v>
+        <v>16108</v>
       </c>
       <c r="I30">
         <v>14146.4</v>
@@ -3977,7 +3974,7 @@
         <v>14305.3</v>
       </c>
       <c r="O30">
-        <v>1960.6</v>
+        <v>1961.6</v>
       </c>
       <c r="P30">
         <v>158.9</v>
@@ -4001,10 +3998,10 @@
         <v>8934587</v>
       </c>
       <c r="W30">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="X30">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y30" t="s">
         <v>178</v>
@@ -4280,7 +4277,7 @@
         <v>6051</v>
       </c>
       <c r="I2">
-        <v>5597.200000000002</v>
+        <v>5597.2</v>
       </c>
       <c r="J2">
         <v>128</v>
@@ -4292,10 +4289,10 @@
         <v>112.2</v>
       </c>
       <c r="M2">
-        <v>5485.000000000002</v>
+        <v>5485</v>
       </c>
       <c r="N2">
-        <v>5709.400000000001</v>
+        <v>5709.4</v>
       </c>
       <c r="O2">
         <v>453.8</v>
@@ -4328,7 +4325,7 @@
         <v>7.1</v>
       </c>
       <c r="Y2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -4357,7 +4354,7 @@
         <v>7892</v>
       </c>
       <c r="I3">
-        <v>7588.800000000002</v>
+        <v>7588.8</v>
       </c>
       <c r="J3">
         <v>350</v>
@@ -4369,10 +4366,10 @@
         <v>306.8</v>
       </c>
       <c r="M3">
-        <v>7282.000000000002</v>
+        <v>7282</v>
       </c>
       <c r="N3">
-        <v>7895.600000000002</v>
+        <v>7895.6</v>
       </c>
       <c r="O3">
         <v>303.2</v>
@@ -4405,7 +4402,7 @@
         <v>16</v>
       </c>
       <c r="Y3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -4482,7 +4479,7 @@
         <v>24.6</v>
       </c>
       <c r="Y4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -4559,7 +4556,7 @@
         <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -4585,10 +4582,10 @@
         <v>403</v>
       </c>
       <c r="H6">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="I6">
-        <v>400.1999999999998</v>
+        <v>400.2</v>
       </c>
       <c r="J6">
         <v>16.7</v>
@@ -4600,22 +4597,22 @@
         <v>14.6</v>
       </c>
       <c r="M6">
-        <v>385.5999999999998</v>
+        <v>385.6</v>
       </c>
       <c r="N6">
-        <v>414.7999999999998</v>
+        <v>414.8</v>
       </c>
       <c r="O6">
-        <v>72.8</v>
+        <v>63.8</v>
       </c>
       <c r="P6">
         <v>14.6</v>
       </c>
       <c r="Q6">
-        <v>18.2</v>
+        <v>15.9</v>
       </c>
       <c r="R6">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S6" t="s">
         <v>186</v>
@@ -4630,13 +4627,13 @@
         <v>132086</v>
       </c>
       <c r="W6">
-        <v>55.1</v>
+        <v>48.3</v>
       </c>
       <c r="X6">
         <v>11.1</v>
       </c>
       <c r="Y6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -4662,7 +4659,7 @@
         <v>9187</v>
       </c>
       <c r="H7">
-        <v>10308</v>
+        <v>10310</v>
       </c>
       <c r="I7">
         <v>9844.799999999999</v>
@@ -4683,7 +4680,7 @@
         <v>10164.7</v>
       </c>
       <c r="O7">
-        <v>463.2</v>
+        <v>465.2</v>
       </c>
       <c r="P7">
         <v>319.9</v>
@@ -4707,13 +4704,13 @@
         <v>1900479</v>
       </c>
       <c r="W7">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="X7">
         <v>16.8</v>
       </c>
       <c r="Y7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -4742,7 +4739,7 @@
         <v>3397</v>
       </c>
       <c r="I8">
-        <v>3758.200000000001</v>
+        <v>3758.2</v>
       </c>
       <c r="J8">
         <v>152.2</v>
@@ -4754,10 +4751,10 @@
         <v>133.4</v>
       </c>
       <c r="M8">
-        <v>3624.800000000001</v>
+        <v>3624.8</v>
       </c>
       <c r="N8">
-        <v>3891.600000000001</v>
+        <v>3891.6</v>
       </c>
       <c r="O8">
         <v>-361.2</v>
@@ -4790,7 +4787,7 @@
         <v>14.1</v>
       </c>
       <c r="Y8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -4816,7 +4813,7 @@
         <v>1462</v>
       </c>
       <c r="H9">
-        <v>1654</v>
+        <v>1599</v>
       </c>
       <c r="I9">
         <v>1610.2</v>
@@ -4837,16 +4834,16 @@
         <v>1671.3</v>
       </c>
       <c r="O9">
-        <v>43.8</v>
+        <v>-11.2</v>
       </c>
       <c r="P9">
         <v>61.1</v>
       </c>
       <c r="Q9">
-        <v>2.7</v>
+        <v>-0.7</v>
       </c>
       <c r="R9">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="S9" t="s">
         <v>189</v>
@@ -4861,13 +4858,13 @@
         <v>214518</v>
       </c>
       <c r="W9">
-        <v>20.4</v>
+        <v>-5.2</v>
       </c>
       <c r="X9">
         <v>28.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -4944,7 +4941,7 @@
         <v>25.7</v>
       </c>
       <c r="Y10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -4970,10 +4967,10 @@
         <v>42807</v>
       </c>
       <c r="H11">
-        <v>45891</v>
+        <v>45902</v>
       </c>
       <c r="I11">
-        <v>46342.60000000001</v>
+        <v>46342.6</v>
       </c>
       <c r="J11">
         <v>1908.4</v>
@@ -4985,13 +4982,13 @@
         <v>1672.8</v>
       </c>
       <c r="M11">
-        <v>44669.80000000001</v>
+        <v>44669.8</v>
       </c>
       <c r="N11">
-        <v>48015.40000000002</v>
+        <v>48015.4</v>
       </c>
       <c r="O11">
-        <v>-451.6</v>
+        <v>-440.6</v>
       </c>
       <c r="P11">
         <v>1672.8</v>
@@ -5015,13 +5012,13 @@
         <v>10505421</v>
       </c>
       <c r="W11">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="X11">
         <v>15.9</v>
       </c>
       <c r="Y11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -5050,7 +5047,7 @@
         <v>8146</v>
       </c>
       <c r="I12">
-        <v>8002.999999999999</v>
+        <v>8003</v>
       </c>
       <c r="J12">
         <v>172.8</v>
@@ -5062,10 +5059,10 @@
         <v>151.5</v>
       </c>
       <c r="M12">
-        <v>7851.499999999999</v>
+        <v>7851.5</v>
       </c>
       <c r="N12">
-        <v>8154.499999999999</v>
+        <v>8154.5</v>
       </c>
       <c r="O12">
         <v>143</v>
@@ -5098,7 +5095,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="Y12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -5124,10 +5121,10 @@
         <v>13491</v>
       </c>
       <c r="H13">
-        <v>14761</v>
+        <v>14781</v>
       </c>
       <c r="I13">
-        <v>15042.99999999999</v>
+        <v>15043</v>
       </c>
       <c r="J13">
         <v>739.4</v>
@@ -5139,22 +5136,22 @@
         <v>648.1</v>
       </c>
       <c r="M13">
-        <v>14394.89999999999</v>
+        <v>14394.9</v>
       </c>
       <c r="N13">
-        <v>15691.09999999999</v>
+        <v>15691.1</v>
       </c>
       <c r="O13">
-        <v>-282</v>
+        <v>-262</v>
       </c>
       <c r="P13">
         <v>648.1</v>
       </c>
       <c r="Q13">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="S13" t="s">
         <v>193</v>
@@ -5169,13 +5166,13 @@
         <v>1701386</v>
       </c>
       <c r="W13">
-        <v>-16.6</v>
+        <v>-15.4</v>
       </c>
       <c r="X13">
         <v>38.1</v>
       </c>
       <c r="Y13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -5252,7 +5249,7 @@
         <v>26.1</v>
       </c>
       <c r="Y14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -5278,7 +5275,7 @@
         <v>30736</v>
       </c>
       <c r="H15">
-        <v>36764</v>
+        <v>36767</v>
       </c>
       <c r="I15">
         <v>32686</v>
@@ -5299,7 +5296,7 @@
         <v>33544.5</v>
       </c>
       <c r="O15">
-        <v>4078</v>
+        <v>4081</v>
       </c>
       <c r="P15">
         <v>858.5</v>
@@ -5326,10 +5323,10 @@
         <v>37.3</v>
       </c>
       <c r="X15">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -5358,7 +5355,7 @@
         <v>3230</v>
       </c>
       <c r="I16">
-        <v>3340.400000000001</v>
+        <v>3340.4</v>
       </c>
       <c r="J16">
         <v>142.3</v>
@@ -5370,10 +5367,10 @@
         <v>124.7</v>
       </c>
       <c r="M16">
-        <v>3215.700000000001</v>
+        <v>3215.7</v>
       </c>
       <c r="N16">
-        <v>3465.100000000001</v>
+        <v>3465.1</v>
       </c>
       <c r="O16">
         <v>-110.4</v>
@@ -5406,7 +5403,7 @@
         <v>40.7</v>
       </c>
       <c r="Y16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -5435,7 +5432,7 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <v>18.19999999999998</v>
+        <v>18.2</v>
       </c>
       <c r="J17">
         <v>2.1</v>
@@ -5447,10 +5444,10 @@
         <v>1.8</v>
       </c>
       <c r="M17">
-        <v>16.39999999999998</v>
+        <v>16.4</v>
       </c>
       <c r="N17">
-        <v>19.99999999999998</v>
+        <v>20</v>
       </c>
       <c r="O17">
         <v>-4.2</v>
@@ -5483,7 +5480,7 @@
         <v>25.1</v>
       </c>
       <c r="Y17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -5560,7 +5557,7 @@
         <v>80.7</v>
       </c>
       <c r="Y18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -5589,7 +5586,7 @@
         <v>381</v>
       </c>
       <c r="I19">
-        <v>340.3999999999999</v>
+        <v>340.4</v>
       </c>
       <c r="J19">
         <v>13.1</v>
@@ -5601,10 +5598,10 @@
         <v>11.5</v>
       </c>
       <c r="M19">
-        <v>328.8999999999999</v>
+        <v>328.9</v>
       </c>
       <c r="N19">
-        <v>351.8999999999999</v>
+        <v>351.9</v>
       </c>
       <c r="O19">
         <v>40.6</v>
@@ -5637,7 +5634,7 @@
         <v>10.4</v>
       </c>
       <c r="Y19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -5666,7 +5663,7 @@
         <v>265</v>
       </c>
       <c r="I20">
-        <v>240.9999999999999</v>
+        <v>241</v>
       </c>
       <c r="J20">
         <v>14.4</v>
@@ -5678,10 +5675,10 @@
         <v>12.6</v>
       </c>
       <c r="M20">
-        <v>228.3999999999999</v>
+        <v>228.4</v>
       </c>
       <c r="N20">
-        <v>253.5999999999999</v>
+        <v>253.6</v>
       </c>
       <c r="O20">
         <v>24</v>
@@ -5714,7 +5711,7 @@
         <v>15</v>
       </c>
       <c r="Y20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -5740,10 +5737,10 @@
         <v>711</v>
       </c>
       <c r="H21">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="I21">
-        <v>723.1999999999999</v>
+        <v>723.2</v>
       </c>
       <c r="J21">
         <v>18</v>
@@ -5755,19 +5752,19 @@
         <v>15.8</v>
       </c>
       <c r="M21">
-        <v>707.4</v>
+        <v>707.4000000000001</v>
       </c>
       <c r="N21">
-        <v>738.9999999999999</v>
+        <v>739</v>
       </c>
       <c r="O21">
-        <v>39.8</v>
+        <v>63.8</v>
       </c>
       <c r="P21">
         <v>15.8</v>
       </c>
       <c r="Q21">
-        <v>5.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R21">
         <v>2.3</v>
@@ -5785,13 +5782,13 @@
         <v>100614</v>
       </c>
       <c r="W21">
-        <v>39.6</v>
+        <v>63.4</v>
       </c>
       <c r="X21">
         <v>15.7</v>
       </c>
       <c r="Y21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -5820,7 +5817,7 @@
         <v>9383</v>
       </c>
       <c r="I22">
-        <v>9068.400000000007</v>
+        <v>9068.4</v>
       </c>
       <c r="J22">
         <v>261.1</v>
@@ -5832,10 +5829,10 @@
         <v>228.9</v>
       </c>
       <c r="M22">
-        <v>8839.500000000007</v>
+        <v>8839.5</v>
       </c>
       <c r="N22">
-        <v>9297.300000000007</v>
+        <v>9297.299999999999</v>
       </c>
       <c r="O22">
         <v>314.6</v>
@@ -5868,7 +5865,7 @@
         <v>7.9</v>
       </c>
       <c r="Y22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -5888,37 +5885,37 @@
         <v>2325</v>
       </c>
       <c r="F23">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="G23">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="H23">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="I23">
-        <v>2405.199999999999</v>
+        <v>2405.8</v>
       </c>
       <c r="J23">
-        <v>74.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>65.5</v>
+        <v>65</v>
       </c>
       <c r="M23">
-        <v>2339.699999999999</v>
+        <v>2340.8</v>
       </c>
       <c r="N23">
-        <v>2470.699999999999</v>
+        <v>2470.8</v>
       </c>
       <c r="O23">
-        <v>-128.2</v>
+        <v>-126.8</v>
       </c>
       <c r="P23">
-        <v>65.5</v>
+        <v>65</v>
       </c>
       <c r="Q23">
         <v>-5.3</v>
@@ -5939,13 +5936,13 @@
         <v>886546</v>
       </c>
       <c r="W23">
-        <v>-14.5</v>
+        <v>-14.3</v>
       </c>
       <c r="X23">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Y23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -5974,7 +5971,7 @@
         <v>53791</v>
       </c>
       <c r="I24">
-        <v>51241.19999999998</v>
+        <v>51241.2</v>
       </c>
       <c r="J24">
         <v>2062.3</v>
@@ -5986,10 +5983,10 @@
         <v>1807.7</v>
       </c>
       <c r="M24">
-        <v>49433.49999999999</v>
+        <v>49433.5</v>
       </c>
       <c r="N24">
-        <v>53048.89999999998</v>
+        <v>53048.89999999999</v>
       </c>
       <c r="O24">
         <v>2549.8</v>
@@ -6022,7 +6019,7 @@
         <v>28.6</v>
       </c>
       <c r="Y24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -6099,7 +6096,7 @@
         <v>6.3</v>
       </c>
       <c r="Y25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -6128,7 +6125,7 @@
         <v>35757</v>
       </c>
       <c r="I26">
-        <v>32265.80000000001</v>
+        <v>32265.8</v>
       </c>
       <c r="J26">
         <v>469.7</v>
@@ -6140,10 +6137,10 @@
         <v>411.7</v>
       </c>
       <c r="M26">
-        <v>31854.10000000001</v>
+        <v>31854.1</v>
       </c>
       <c r="N26">
-        <v>32677.50000000001</v>
+        <v>32677.5</v>
       </c>
       <c r="O26">
         <v>3491.2</v>
@@ -6176,7 +6173,7 @@
         <v>12</v>
       </c>
       <c r="Y26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -6205,7 +6202,7 @@
         <v>10505</v>
       </c>
       <c r="I27">
-        <v>9853.399999999998</v>
+        <v>9853.4</v>
       </c>
       <c r="J27">
         <v>565.3</v>
@@ -6217,7 +6214,7 @@
         <v>495.5</v>
       </c>
       <c r="M27">
-        <v>9357.899999999998</v>
+        <v>9357.9</v>
       </c>
       <c r="N27">
         <v>10348.9</v>
@@ -6253,7 +6250,7 @@
         <v>42.2</v>
       </c>
       <c r="Y27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -6282,7 +6279,7 @@
         <v>6736</v>
       </c>
       <c r="I28">
-        <v>6877.799999999998</v>
+        <v>6877.8</v>
       </c>
       <c r="J28">
         <v>304.3</v>
@@ -6294,10 +6291,10 @@
         <v>266.7</v>
       </c>
       <c r="M28">
-        <v>6611.099999999999</v>
+        <v>6611.1</v>
       </c>
       <c r="N28">
-        <v>7144.499999999998</v>
+        <v>7144.5</v>
       </c>
       <c r="O28">
         <v>-141.8</v>
@@ -6330,7 +6327,7 @@
         <v>28</v>
       </c>
       <c r="Y28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -6356,7 +6353,7 @@
         <v>1571</v>
       </c>
       <c r="H29">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="I29">
         <v>1763</v>
@@ -6377,16 +6374,16 @@
         <v>1864.9</v>
       </c>
       <c r="O29">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="P29">
         <v>101.9</v>
       </c>
       <c r="Q29">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="R29">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="S29" t="s">
         <v>209</v>
@@ -6395,19 +6392,19 @@
         <v>240</v>
       </c>
       <c r="U29" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="V29">
         <v>388680</v>
       </c>
       <c r="W29">
-        <v>-8</v>
+        <v>-7.2</v>
       </c>
       <c r="X29">
         <v>26.2</v>
       </c>
       <c r="Y29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -6433,7 +6430,7 @@
         <v>27807</v>
       </c>
       <c r="H30">
-        <v>32191</v>
+        <v>32192</v>
       </c>
       <c r="I30">
         <v>28657</v>
@@ -6451,10 +6448,10 @@
         <v>28336.4</v>
       </c>
       <c r="N30">
-        <v>28977.59999999999</v>
+        <v>28977.6</v>
       </c>
       <c r="O30">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="P30">
         <v>320.6</v>
@@ -6472,7 +6469,7 @@
         <v>241</v>
       </c>
       <c r="U30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V30">
         <v>8853079</v>
@@ -6481,10 +6478,10 @@
         <v>39.9</v>
       </c>
       <c r="X30">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -6513,7 +6510,7 @@
         <v>4007</v>
       </c>
       <c r="I31">
-        <v>3990.400000000002</v>
+        <v>3990.4</v>
       </c>
       <c r="J31">
         <v>286.6</v>
@@ -6525,10 +6522,10 @@
         <v>251.2</v>
       </c>
       <c r="M31">
-        <v>3739.200000000002</v>
+        <v>3739.2</v>
       </c>
       <c r="N31">
-        <v>4241.600000000002</v>
+        <v>4241.6</v>
       </c>
       <c r="O31">
         <v>16.6</v>
@@ -6549,7 +6546,7 @@
         <v>242</v>
       </c>
       <c r="U31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V31">
         <v>1602513</v>
@@ -6561,7 +6558,7 @@
         <v>15.7</v>
       </c>
       <c r="Y31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -6602,7 +6599,7 @@
         <v>105.7</v>
       </c>
       <c r="M32">
-        <v>3801.900000000001</v>
+        <v>3801.9</v>
       </c>
       <c r="N32">
         <v>4013.3</v>
@@ -6626,7 +6623,7 @@
         <v>243</v>
       </c>
       <c r="U32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V32">
         <v>1512422</v>
@@ -6638,7 +6635,7 @@
         <v>7</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6733,7 +6730,7 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -6787,13 +6784,13 @@
         <v>2.1</v>
       </c>
       <c r="S2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="V2">
         <v>3149418</v>
@@ -6805,12 +6802,12 @@
         <v>5.4</v>
       </c>
       <c r="Y2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -6849,7 +6846,7 @@
         <v>11783.5</v>
       </c>
       <c r="N3">
-        <v>12684.09999999999</v>
+        <v>12684.1</v>
       </c>
       <c r="O3">
         <v>266.2</v>
@@ -6864,13 +6861,13 @@
         <v>3.7</v>
       </c>
       <c r="S3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="V3">
         <v>3823073</v>
@@ -6882,12 +6879,12 @@
         <v>11.7</v>
       </c>
       <c r="Y3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -6908,7 +6905,7 @@
         <v>15587</v>
       </c>
       <c r="H4">
-        <v>19863</v>
+        <v>19865</v>
       </c>
       <c r="I4">
         <v>16732.2</v>
@@ -6923,13 +6920,13 @@
         <v>464.3</v>
       </c>
       <c r="M4">
-        <v>16267.90000000001</v>
+        <v>16267.9</v>
       </c>
       <c r="N4">
         <v>17196.5</v>
       </c>
       <c r="O4">
-        <v>3130.8</v>
+        <v>3132.8</v>
       </c>
       <c r="P4">
         <v>464.3</v>
@@ -6941,13 +6938,13 @@
         <v>3.2</v>
       </c>
       <c r="S4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="U4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V4">
         <v>2483521</v>
@@ -6959,12 +6956,12 @@
         <v>18.7</v>
       </c>
       <c r="Y4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -6988,7 +6985,7 @@
         <v>6708</v>
       </c>
       <c r="I5">
-        <v>6830.399999999999</v>
+        <v>6830.4</v>
       </c>
       <c r="J5">
         <v>330.6</v>
@@ -7003,7 +7000,7 @@
         <v>6540.599999999999</v>
       </c>
       <c r="N5">
-        <v>7120.199999999999</v>
+        <v>7120.2</v>
       </c>
       <c r="O5">
         <v>-122.4</v>
@@ -7018,13 +7015,13 @@
         <v>4</v>
       </c>
       <c r="S5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="U5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="V5">
         <v>1411276</v>
@@ -7036,12 +7033,12 @@
         <v>20.6</v>
       </c>
       <c r="Y5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -7062,7 +7059,7 @@
         <v>625</v>
       </c>
       <c r="H6">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="I6">
         <v>622</v>
@@ -7083,42 +7080,42 @@
         <v>643.1</v>
       </c>
       <c r="O6">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="P6">
         <v>21.1</v>
       </c>
       <c r="Q6">
-        <v>15.3</v>
+        <v>13.2</v>
       </c>
       <c r="R6">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="S6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="U6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V6">
         <v>268729</v>
       </c>
       <c r="W6">
-        <v>35.4</v>
+        <v>30.5</v>
       </c>
       <c r="X6">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -7139,7 +7136,7 @@
         <v>13573</v>
       </c>
       <c r="H7">
-        <v>15110</v>
+        <v>15114</v>
       </c>
       <c r="I7">
         <v>14502.4</v>
@@ -7160,7 +7157,7 @@
         <v>14972</v>
       </c>
       <c r="O7">
-        <v>607.6</v>
+        <v>611.6</v>
       </c>
       <c r="P7">
         <v>469.6</v>
@@ -7172,30 +7169,30 @@
         <v>3.3</v>
       </c>
       <c r="S7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V7">
         <v>3754028</v>
       </c>
       <c r="W7">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="X7">
         <v>12.5</v>
       </c>
       <c r="Y7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -7216,10 +7213,10 @@
         <v>5599</v>
       </c>
       <c r="H8">
-        <v>5570</v>
+        <v>5571</v>
       </c>
       <c r="I8">
-        <v>6122.599999999998</v>
+        <v>6122.6</v>
       </c>
       <c r="J8">
         <v>297.2</v>
@@ -7231,13 +7228,13 @@
         <v>260.5</v>
       </c>
       <c r="M8">
-        <v>5862.099999999998</v>
+        <v>5862.1</v>
       </c>
       <c r="N8">
-        <v>6383.099999999998</v>
+        <v>6383.1</v>
       </c>
       <c r="O8">
-        <v>-552.6</v>
+        <v>-551.6</v>
       </c>
       <c r="P8">
         <v>260.5</v>
@@ -7249,30 +7246,30 @@
         <v>3.7</v>
       </c>
       <c r="S8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="U8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="V8">
         <v>1900863</v>
       </c>
       <c r="W8">
-        <v>-29.1</v>
+        <v>-29</v>
       </c>
       <c r="X8">
         <v>13.7</v>
       </c>
       <c r="Y8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
@@ -7293,10 +7290,10 @@
         <v>2045</v>
       </c>
       <c r="H9">
-        <v>2357</v>
+        <v>2264</v>
       </c>
       <c r="I9">
-        <v>2237.000000000001</v>
+        <v>2237</v>
       </c>
       <c r="J9">
         <v>97.8</v>
@@ -7308,48 +7305,48 @@
         <v>85.7</v>
       </c>
       <c r="M9">
-        <v>2151.300000000001</v>
+        <v>2151.3</v>
       </c>
       <c r="N9">
-        <v>2322.700000000001</v>
+        <v>2322.7</v>
       </c>
       <c r="O9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="P9">
         <v>85.7</v>
       </c>
       <c r="Q9">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="R9">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="S9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="V9">
         <v>439984</v>
       </c>
       <c r="W9">
-        <v>27.3</v>
+        <v>6.1</v>
       </c>
       <c r="X9">
         <v>19.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -7373,7 +7370,7 @@
         <v>5523</v>
       </c>
       <c r="I10">
-        <v>5740.800000000001</v>
+        <v>5740.8</v>
       </c>
       <c r="J10">
         <v>328.1</v>
@@ -7385,7 +7382,7 @@
         <v>287.6</v>
       </c>
       <c r="M10">
-        <v>5453.200000000001</v>
+        <v>5453.2</v>
       </c>
       <c r="N10">
         <v>6028.400000000001</v>
@@ -7403,13 +7400,13 @@
         <v>4.6</v>
       </c>
       <c r="S10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="V10">
         <v>1745132</v>
@@ -7421,12 +7418,12 @@
         <v>16.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -7447,10 +7444,10 @@
         <v>65554</v>
       </c>
       <c r="H11">
-        <v>69862</v>
+        <v>69873</v>
       </c>
       <c r="I11">
-        <v>70241.79999999997</v>
+        <v>70241.8</v>
       </c>
       <c r="J11">
         <v>2262.6</v>
@@ -7462,13 +7459,13 @@
         <v>1983.3</v>
       </c>
       <c r="M11">
-        <v>68258.49999999997</v>
+        <v>68258.5</v>
       </c>
       <c r="N11">
-        <v>72225.09999999998</v>
+        <v>72225.10000000001</v>
       </c>
       <c r="O11">
-        <v>-379.8</v>
+        <v>-368.8</v>
       </c>
       <c r="P11">
         <v>1983.3</v>
@@ -7480,30 +7477,30 @@
         <v>2.8</v>
       </c>
       <c r="S11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="V11">
         <v>21517650</v>
       </c>
       <c r="W11">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="X11">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
@@ -7527,7 +7524,7 @@
         <v>12182</v>
       </c>
       <c r="I12">
-        <v>11798.00000000001</v>
+        <v>11798</v>
       </c>
       <c r="J12">
         <v>139.5</v>
@@ -7539,7 +7536,7 @@
         <v>122.3</v>
       </c>
       <c r="M12">
-        <v>11675.70000000001</v>
+        <v>11675.7</v>
       </c>
       <c r="N12">
         <v>11920.3</v>
@@ -7557,13 +7554,13 @@
         <v>1.1</v>
       </c>
       <c r="S12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="V12">
         <v>3797626</v>
@@ -7575,12 +7572,12 @@
         <v>3.2</v>
       </c>
       <c r="Y12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -7601,10 +7598,10 @@
         <v>20141</v>
       </c>
       <c r="H13">
-        <v>22017</v>
+        <v>22035</v>
       </c>
       <c r="I13">
-        <v>22528.99999999999</v>
+        <v>22529</v>
       </c>
       <c r="J13">
         <v>1201.7</v>
@@ -7616,48 +7613,48 @@
         <v>1053.3</v>
       </c>
       <c r="M13">
-        <v>21475.69999999999</v>
+        <v>21475.7</v>
       </c>
       <c r="N13">
-        <v>23582.29999999999</v>
+        <v>23582.3</v>
       </c>
       <c r="O13">
-        <v>-512</v>
+        <v>-494</v>
       </c>
       <c r="P13">
         <v>1053.3</v>
       </c>
       <c r="Q13">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="R13">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="S13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V13">
         <v>3474333</v>
       </c>
       <c r="W13">
-        <v>-14.7</v>
+        <v>-14.2</v>
       </c>
       <c r="X13">
         <v>30.3</v>
       </c>
       <c r="Y13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -7711,13 +7708,13 @@
         <v>5.9</v>
       </c>
       <c r="S14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V14">
         <v>111401</v>
@@ -7729,12 +7726,12 @@
         <v>13.4</v>
       </c>
       <c r="Y14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -7755,10 +7752,10 @@
         <v>49508</v>
       </c>
       <c r="H15">
-        <v>57788</v>
+        <v>57792</v>
       </c>
       <c r="I15">
-        <v>52326.59999999998</v>
+        <v>52326.6</v>
       </c>
       <c r="J15">
         <v>1442.4</v>
@@ -7770,13 +7767,13 @@
         <v>1264.3</v>
       </c>
       <c r="M15">
-        <v>51062.29999999998</v>
+        <v>51062.3</v>
       </c>
       <c r="N15">
-        <v>53590.89999999999</v>
+        <v>53590.9</v>
       </c>
       <c r="O15">
-        <v>5461.4</v>
+        <v>5465.4</v>
       </c>
       <c r="P15">
         <v>1264.3</v>
@@ -7788,13 +7785,13 @@
         <v>2.6</v>
       </c>
       <c r="S15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="V15">
         <v>22244774</v>
@@ -7803,15 +7800,15 @@
         <v>24.6</v>
       </c>
       <c r="X15">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -7865,13 +7862,13 @@
         <v>3.3</v>
       </c>
       <c r="S16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="V16">
         <v>653837</v>
@@ -7883,12 +7880,12 @@
         <v>25.9</v>
       </c>
       <c r="Y16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -7912,7 +7909,7 @@
         <v>25</v>
       </c>
       <c r="I17">
-        <v>30.59999999999998</v>
+        <v>30.6</v>
       </c>
       <c r="J17">
         <v>4.4</v>
@@ -7924,10 +7921,10 @@
         <v>3.9</v>
       </c>
       <c r="M17">
-        <v>26.69999999999998</v>
+        <v>26.7</v>
       </c>
       <c r="N17">
-        <v>34.49999999999998</v>
+        <v>34.5</v>
       </c>
       <c r="O17">
         <v>-5.6</v>
@@ -7942,13 +7939,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="S17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="V17">
         <v>14530</v>
@@ -7960,12 +7957,12 @@
         <v>26.8</v>
       </c>
       <c r="Y17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -7989,7 +7986,7 @@
         <v>7620</v>
       </c>
       <c r="I18">
-        <v>6854.399999999999</v>
+        <v>6854.4</v>
       </c>
       <c r="J18">
         <v>537.2</v>
@@ -8001,10 +7998,10 @@
         <v>470.9</v>
       </c>
       <c r="M18">
-        <v>6383.499999999999</v>
+        <v>6383.5</v>
       </c>
       <c r="N18">
-        <v>7325.299999999998</v>
+        <v>7325.299999999999</v>
       </c>
       <c r="O18">
         <v>765.6</v>
@@ -8019,13 +8016,13 @@
         <v>7.2</v>
       </c>
       <c r="S18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="V18">
         <v>985469</v>
@@ -8037,12 +8034,12 @@
         <v>47.8</v>
       </c>
       <c r="Y18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -8066,7 +8063,7 @@
         <v>551</v>
       </c>
       <c r="I19">
-        <v>523.8000000000001</v>
+        <v>523.8</v>
       </c>
       <c r="J19">
         <v>15.1</v>
@@ -8078,10 +8075,10 @@
         <v>13.2</v>
       </c>
       <c r="M19">
-        <v>510.6000000000001</v>
+        <v>510.6</v>
       </c>
       <c r="N19">
-        <v>537.0000000000001</v>
+        <v>537</v>
       </c>
       <c r="O19">
         <v>27.2</v>
@@ -8096,13 +8093,13 @@
         <v>2.6</v>
       </c>
       <c r="S19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="V19">
         <v>217216</v>
@@ -8114,12 +8111,12 @@
         <v>6.1</v>
       </c>
       <c r="Y19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
@@ -8143,7 +8140,7 @@
         <v>416</v>
       </c>
       <c r="I20">
-        <v>385.9999999999999</v>
+        <v>386</v>
       </c>
       <c r="J20">
         <v>13.5</v>
@@ -8155,10 +8152,10 @@
         <v>11.8</v>
       </c>
       <c r="M20">
-        <v>374.1999999999999</v>
+        <v>374.2</v>
       </c>
       <c r="N20">
-        <v>397.7999999999999</v>
+        <v>397.8</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -8173,13 +8170,13 @@
         <v>3.2</v>
       </c>
       <c r="S20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="V20">
         <v>160331</v>
@@ -8191,12 +8188,12 @@
         <v>7.4</v>
       </c>
       <c r="Y20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -8217,7 +8214,7 @@
         <v>1053</v>
       </c>
       <c r="H21">
-        <v>1152</v>
+        <v>1185</v>
       </c>
       <c r="I21">
         <v>1090</v>
@@ -8238,42 +8235,42 @@
         <v>1115.9</v>
       </c>
       <c r="O21">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P21">
         <v>25.9</v>
       </c>
       <c r="Q21">
-        <v>5.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R21">
         <v>2.5</v>
       </c>
       <c r="S21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="V21">
         <v>205268</v>
       </c>
       <c r="W21">
-        <v>30.2</v>
+        <v>46.3</v>
       </c>
       <c r="X21">
         <v>12.6</v>
       </c>
       <c r="Y21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
@@ -8327,13 +8324,13 @@
         <v>2.7</v>
       </c>
       <c r="S22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V22">
         <v>5858292</v>
@@ -8345,12 +8342,12 @@
         <v>7.7</v>
       </c>
       <c r="Y22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
@@ -8365,69 +8362,69 @@
         <v>3819</v>
       </c>
       <c r="F23">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="G23">
-        <v>3727</v>
+        <v>3729</v>
       </c>
       <c r="H23">
-        <v>3742</v>
+        <v>3745</v>
       </c>
       <c r="I23">
-        <v>3956</v>
+        <v>3956.6</v>
       </c>
       <c r="J23">
-        <v>123.6</v>
+        <v>123</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>108.3</v>
+        <v>107.8</v>
       </c>
       <c r="M23">
-        <v>3847.7</v>
+        <v>3848.8</v>
       </c>
       <c r="N23">
-        <v>4064.300000000001</v>
+        <v>4064.4</v>
       </c>
       <c r="O23">
-        <v>-214</v>
+        <v>-211.6</v>
       </c>
       <c r="P23">
-        <v>108.3</v>
+        <v>107.8</v>
       </c>
       <c r="Q23">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="R23">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="V23">
         <v>1734716</v>
       </c>
       <c r="W23">
-        <v>-12.3</v>
+        <v>-12.2</v>
       </c>
       <c r="X23">
         <v>6.2</v>
       </c>
       <c r="Y23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
@@ -8451,7 +8448,7 @@
         <v>75974</v>
       </c>
       <c r="I24">
-        <v>73109.39999999997</v>
+        <v>73109.39999999999</v>
       </c>
       <c r="J24">
         <v>2961.8</v>
@@ -8463,10 +8460,10 @@
         <v>2596.1</v>
       </c>
       <c r="M24">
-        <v>70513.29999999996</v>
+        <v>70513.29999999999</v>
       </c>
       <c r="N24">
-        <v>75705.49999999997</v>
+        <v>75705.5</v>
       </c>
       <c r="O24">
         <v>2864.6</v>
@@ -8481,13 +8478,13 @@
         <v>3.5</v>
       </c>
       <c r="S24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="V24">
         <v>12856410</v>
@@ -8499,12 +8496,12 @@
         <v>20.2</v>
       </c>
       <c r="Y24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -8528,7 +8525,7 @@
         <v>12756</v>
       </c>
       <c r="I25">
-        <v>12013.79999999999</v>
+        <v>12013.8</v>
       </c>
       <c r="J25">
         <v>142.6</v>
@@ -8540,10 +8537,10 @@
         <v>125</v>
       </c>
       <c r="M25">
-        <v>11888.79999999999</v>
+        <v>11888.8</v>
       </c>
       <c r="N25">
-        <v>12138.79999999999</v>
+        <v>12138.8</v>
       </c>
       <c r="O25">
         <v>742.2</v>
@@ -8558,13 +8555,13 @@
         <v>1.1</v>
       </c>
       <c r="S25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="U25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V25">
         <v>3736038</v>
@@ -8576,12 +8573,12 @@
         <v>3.3</v>
       </c>
       <c r="Y25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -8635,13 +8632,13 @@
         <v>1.8</v>
       </c>
       <c r="S26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="V26">
         <v>6858653</v>
@@ -8653,12 +8650,12 @@
         <v>11.3</v>
       </c>
       <c r="Y26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
@@ -8712,13 +8709,13 @@
         <v>4.9</v>
       </c>
       <c r="S27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V27">
         <v>2399380</v>
@@ -8730,12 +8727,12 @@
         <v>31.2</v>
       </c>
       <c r="Y27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B28" t="s">
         <v>52</v>
@@ -8756,7 +8753,7 @@
         <v>9001</v>
       </c>
       <c r="H28">
-        <v>9777</v>
+        <v>9778</v>
       </c>
       <c r="I28">
         <v>9849.799999999999</v>
@@ -8777,7 +8774,7 @@
         <v>10245.5</v>
       </c>
       <c r="O28">
-        <v>-72.8</v>
+        <v>-71.8</v>
       </c>
       <c r="P28">
         <v>395.7</v>
@@ -8789,30 +8786,30 @@
         <v>3.9</v>
       </c>
       <c r="S28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="V28">
         <v>1918677</v>
       </c>
       <c r="W28">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="X28">
         <v>20.6</v>
       </c>
       <c r="Y28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
         <v>53</v>
@@ -8833,7 +8830,7 @@
         <v>2301</v>
       </c>
       <c r="H29">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="I29">
         <v>2564.8</v>
@@ -8854,42 +8851,42 @@
         <v>2693.4</v>
       </c>
       <c r="O29">
-        <v>-46.8</v>
+        <v>-42.8</v>
       </c>
       <c r="P29">
         <v>128.6</v>
       </c>
       <c r="Q29">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="R29">
         <v>4.7</v>
       </c>
       <c r="S29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="U29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V29">
         <v>756559</v>
       </c>
       <c r="W29">
-        <v>-6.2</v>
+        <v>-5.7</v>
       </c>
       <c r="X29">
         <v>17</v>
       </c>
       <c r="Y29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s">
         <v>54</v>
@@ -8910,10 +8907,10 @@
         <v>41862</v>
       </c>
       <c r="H30">
-        <v>48298</v>
+        <v>48300</v>
       </c>
       <c r="I30">
-        <v>42803.40000000001</v>
+        <v>42803.4</v>
       </c>
       <c r="J30">
         <v>385.2</v>
@@ -8925,13 +8922,13 @@
         <v>337.6</v>
       </c>
       <c r="M30">
-        <v>42465.80000000001</v>
+        <v>42465.8</v>
       </c>
       <c r="N30">
-        <v>43141.00000000001</v>
+        <v>43141</v>
       </c>
       <c r="O30">
-        <v>5494.6</v>
+        <v>5496.6</v>
       </c>
       <c r="P30">
         <v>337.6</v>
@@ -8943,13 +8940,13 @@
         <v>0.8</v>
       </c>
       <c r="S30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="V30">
         <v>17787666</v>
@@ -8961,12 +8958,12 @@
         <v>1.9</v>
       </c>
       <c r="Y30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s">
         <v>55</v>
@@ -8990,7 +8987,7 @@
         <v>6581</v>
       </c>
       <c r="I31">
-        <v>6732.199999999996</v>
+        <v>6732.2</v>
       </c>
       <c r="J31">
         <v>393</v>
@@ -9002,10 +8999,10 @@
         <v>344.5</v>
       </c>
       <c r="M31">
-        <v>6387.699999999996</v>
+        <v>6387.7</v>
       </c>
       <c r="N31">
-        <v>7076.699999999996</v>
+        <v>7076.7</v>
       </c>
       <c r="O31">
         <v>-151.2</v>
@@ -9020,13 +9017,13 @@
         <v>4.8</v>
       </c>
       <c r="S31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V31">
         <v>3164608</v>
@@ -9038,12 +9035,12 @@
         <v>10.9</v>
       </c>
       <c r="Y31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -9067,7 +9064,7 @@
         <v>6207</v>
       </c>
       <c r="I32">
-        <v>6211.200000000002</v>
+        <v>6211.2</v>
       </c>
       <c r="J32">
         <v>162.6</v>
@@ -9079,10 +9076,10 @@
         <v>142.5</v>
       </c>
       <c r="M32">
-        <v>6068.700000000002</v>
+        <v>6068.7</v>
       </c>
       <c r="N32">
-        <v>6353.700000000002</v>
+        <v>6353.7</v>
       </c>
       <c r="O32">
         <v>-4.2</v>
@@ -9097,13 +9094,13 @@
         <v>2.2</v>
       </c>
       <c r="S32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V32">
         <v>3008509</v>
@@ -9115,7 +9112,7 @@
         <v>4.7</v>
       </c>
       <c r="Y32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9133,7 +9130,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9142,18 +9139,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -9193,7 +9190,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -9213,7 +9210,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9233,7 +9230,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9253,7 +9250,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>181</v>
@@ -9273,7 +9270,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
@@ -9293,7 +9290,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
@@ -9313,7 +9310,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>181</v>
@@ -9333,7 +9330,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -9353,10 +9350,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -9373,10 +9370,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -9393,10 +9390,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -9413,10 +9410,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -9433,10 +9430,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -9453,7 +9450,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9473,7 +9470,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -9493,7 +9490,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -9513,7 +9510,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9533,7 +9530,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -9553,7 +9550,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
         <v>181</v>
@@ -9573,7 +9570,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s">
         <v>181</v>
@@ -9593,7 +9590,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
         <v>181</v>
@@ -9613,7 +9610,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
         <v>181</v>
@@ -9633,7 +9630,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
         <v>181</v>
@@ -9653,10 +9650,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -9673,10 +9670,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -9693,10 +9690,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -9713,10 +9710,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -9733,10 +9730,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -9753,7 +9750,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -9773,7 +9770,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -9793,7 +9790,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -9813,7 +9810,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -9833,7 +9830,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -9853,7 +9850,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B37" t="s">
         <v>181</v>
@@ -9873,7 +9870,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B38" t="s">
         <v>181</v>
@@ -9893,7 +9890,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -9913,7 +9910,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -9933,7 +9930,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -9953,10 +9950,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -9973,10 +9970,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -9993,10 +9990,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -10013,10 +10010,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -10033,10 +10030,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -10053,7 +10050,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -10073,7 +10070,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -10093,7 +10090,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -10113,7 +10110,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -10133,7 +10130,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -10153,7 +10150,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B52" t="s">
         <v>181</v>
@@ -10173,7 +10170,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
         <v>181</v>
@@ -10193,7 +10190,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
@@ -10213,7 +10210,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B55" t="s">
         <v>181</v>
@@ -10233,7 +10230,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s">
         <v>181</v>
@@ -10253,10 +10250,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -10273,10 +10270,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -10293,10 +10290,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
         <v>29</v>
@@ -10313,10 +10310,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -10333,10 +10330,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -10353,7 +10350,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -10373,7 +10370,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
         <v>25</v>
@@ -10393,7 +10390,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -10413,7 +10410,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
@@ -10433,7 +10430,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s">
         <v>25</v>
@@ -10453,7 +10450,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -10473,7 +10470,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s">
         <v>181</v>
@@ -10493,7 +10490,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s">
         <v>181</v>
@@ -10513,7 +10510,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
@@ -10533,7 +10530,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s">
         <v>181</v>
@@ -10553,10 +10550,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
@@ -10573,10 +10570,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -10593,10 +10590,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
@@ -10613,10 +10610,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B75" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
@@ -10633,10 +10630,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
@@ -10653,7 +10650,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B77" t="s">
         <v>25</v>
@@ -10673,7 +10670,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B78" t="s">
         <v>25</v>
@@ -10693,7 +10690,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
@@ -10713,7 +10710,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
@@ -10733,7 +10730,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
@@ -10753,7 +10750,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B82" t="s">
         <v>181</v>
@@ -10773,7 +10770,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B83" t="s">
         <v>181</v>
@@ -10793,7 +10790,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B84" t="s">
         <v>181</v>
@@ -10813,7 +10810,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s">
         <v>181</v>
@@ -10833,7 +10830,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s">
         <v>181</v>
@@ -10853,10 +10850,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C87" t="s">
         <v>31</v>
@@ -10873,10 +10870,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -10893,10 +10890,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
@@ -10913,10 +10910,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -10933,10 +10930,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -10953,7 +10950,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -10973,7 +10970,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -10993,7 +10990,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -11013,7 +11010,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
@@ -11033,7 +11030,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
@@ -11053,7 +11050,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" t="s">
         <v>181</v>
@@ -11073,7 +11070,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B98" t="s">
         <v>181</v>
@@ -11093,7 +11090,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B99" t="s">
         <v>181</v>
@@ -11113,7 +11110,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B100" t="s">
         <v>181</v>
@@ -11133,7 +11130,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -11153,10 +11150,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
@@ -11173,10 +11170,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C103" t="s">
         <v>32</v>
@@ -11193,10 +11190,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
@@ -11213,10 +11210,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
@@ -11233,10 +11230,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
@@ -11253,7 +11250,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B107" t="s">
         <v>25</v>
@@ -11273,7 +11270,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B108" t="s">
         <v>25</v>
@@ -11293,7 +11290,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
@@ -11313,7 +11310,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -11333,7 +11330,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B111" t="s">
         <v>25</v>
@@ -11353,7 +11350,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B112" t="s">
         <v>181</v>
@@ -11373,7 +11370,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B113" t="s">
         <v>181</v>
@@ -11393,7 +11390,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B114" t="s">
         <v>181</v>
@@ -11413,7 +11410,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B115" t="s">
         <v>181</v>
@@ -11433,7 +11430,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B116" t="s">
         <v>181</v>
@@ -11453,10 +11450,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B117" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C117" t="s">
         <v>33</v>
@@ -11473,10 +11470,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C118" t="s">
         <v>33</v>
@@ -11493,10 +11490,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C119" t="s">
         <v>33</v>
@@ -11513,10 +11510,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B120" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C120" t="s">
         <v>33</v>
@@ -11533,10 +11530,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s">
         <v>33</v>
@@ -11553,7 +11550,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B122" t="s">
         <v>25</v>
@@ -11573,7 +11570,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B123" t="s">
         <v>25</v>
@@ -11593,7 +11590,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B124" t="s">
         <v>25</v>
@@ -11613,7 +11610,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B125" t="s">
         <v>25</v>
@@ -11633,7 +11630,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -11653,7 +11650,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B127" t="s">
         <v>181</v>
@@ -11673,7 +11670,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B128" t="s">
         <v>181</v>
@@ -11693,7 +11690,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B129" t="s">
         <v>181</v>
@@ -11713,7 +11710,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B130" t="s">
         <v>181</v>
@@ -11733,7 +11730,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B131" t="s">
         <v>181</v>
@@ -11753,10 +11750,10 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B132" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -11773,10 +11770,10 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
@@ -11793,10 +11790,10 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B134" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -11813,10 +11810,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B135" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C135" t="s">
         <v>34</v>
@@ -11833,10 +11830,10 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B136" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C136" t="s">
         <v>34</v>
@@ -11853,7 +11850,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
@@ -11873,7 +11870,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
@@ -11893,7 +11890,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
@@ -11913,7 +11910,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
@@ -11933,7 +11930,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
@@ -11953,7 +11950,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B142" t="s">
         <v>181</v>
@@ -11973,7 +11970,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B143" t="s">
         <v>181</v>
@@ -11993,7 +11990,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B144" t="s">
         <v>181</v>
@@ -12013,7 +12010,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B145" t="s">
         <v>181</v>
@@ -12033,7 +12030,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B146" t="s">
         <v>181</v>
@@ -12053,10 +12050,10 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B147" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -12073,10 +12070,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -12093,10 +12090,10 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -12113,10 +12110,10 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B150" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C150" t="s">
         <v>35</v>
@@ -12133,10 +12130,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C151" t="s">
         <v>35</v>
@@ -12153,7 +12150,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B152" t="s">
         <v>25</v>
@@ -12173,7 +12170,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s">
         <v>25</v>
@@ -12193,7 +12190,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s">
         <v>25</v>
@@ -12213,7 +12210,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B155" t="s">
         <v>25</v>
@@ -12233,7 +12230,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -12253,7 +12250,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B157" t="s">
         <v>181</v>
@@ -12273,7 +12270,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B158" t="s">
         <v>181</v>
@@ -12293,7 +12290,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B159" t="s">
         <v>181</v>
@@ -12313,7 +12310,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B160" t="s">
         <v>181</v>
@@ -12333,7 +12330,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B161" t="s">
         <v>181</v>
@@ -12353,10 +12350,10 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B162" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C162" t="s">
         <v>36</v>
@@ -12373,10 +12370,10 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C163" t="s">
         <v>36</v>
@@ -12393,10 +12390,10 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B164" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C164" t="s">
         <v>36</v>
@@ -12413,10 +12410,10 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B165" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C165" t="s">
         <v>36</v>
@@ -12433,10 +12430,10 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B166" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C166" t="s">
         <v>36</v>
@@ -12453,7 +12450,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B167" t="s">
         <v>25</v>
@@ -12473,7 +12470,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B168" t="s">
         <v>25</v>
@@ -12493,7 +12490,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B169" t="s">
         <v>25</v>
@@ -12513,7 +12510,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
@@ -12533,7 +12530,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
@@ -12553,7 +12550,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B172" t="s">
         <v>181</v>
@@ -12573,7 +12570,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
@@ -12593,7 +12590,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B174" t="s">
         <v>181</v>
@@ -12613,7 +12610,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B175" t="s">
         <v>181</v>
@@ -12633,7 +12630,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B176" t="s">
         <v>181</v>
@@ -12653,10 +12650,10 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B177" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C177" t="s">
         <v>37</v>
@@ -12673,10 +12670,10 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B178" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C178" t="s">
         <v>37</v>
@@ -12693,10 +12690,10 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B179" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C179" t="s">
         <v>37</v>
@@ -12713,10 +12710,10 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B180" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -12733,10 +12730,10 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B181" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C181" t="s">
         <v>37</v>
@@ -12753,7 +12750,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
@@ -12773,7 +12770,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -12793,7 +12790,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
@@ -12813,7 +12810,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s">
         <v>25</v>
@@ -12833,7 +12830,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s">
         <v>25</v>
@@ -12853,7 +12850,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B187" t="s">
         <v>181</v>
@@ -12873,7 +12870,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B188" t="s">
         <v>181</v>
@@ -12893,7 +12890,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B189" t="s">
         <v>181</v>
@@ -12913,7 +12910,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B190" t="s">
         <v>181</v>
@@ -12933,7 +12930,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B191" t="s">
         <v>181</v>
@@ -12953,10 +12950,10 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B192" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C192" t="s">
         <v>38</v>
@@ -12973,10 +12970,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B193" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C193" t="s">
         <v>38</v>
@@ -12993,10 +12990,10 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B194" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C194" t="s">
         <v>38</v>
@@ -13013,10 +13010,10 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B195" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C195" t="s">
         <v>38</v>
@@ -13033,10 +13030,10 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C196" t="s">
         <v>38</v>
@@ -13053,7 +13050,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B197" t="s">
         <v>25</v>
@@ -13073,7 +13070,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B198" t="s">
         <v>25</v>
@@ -13093,7 +13090,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
@@ -13113,7 +13110,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
@@ -13133,7 +13130,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -13153,7 +13150,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B202" t="s">
         <v>181</v>
@@ -13173,7 +13170,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B203" t="s">
         <v>181</v>
@@ -13193,7 +13190,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B204" t="s">
         <v>181</v>
@@ -13213,7 +13210,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B205" t="s">
         <v>181</v>
@@ -13233,7 +13230,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B206" t="s">
         <v>181</v>
@@ -13253,10 +13250,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B207" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C207" t="s">
         <v>39</v>
@@ -13273,10 +13270,10 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B208" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C208" t="s">
         <v>39</v>
@@ -13293,10 +13290,10 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C209" t="s">
         <v>39</v>
@@ -13313,10 +13310,10 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B210" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C210" t="s">
         <v>39</v>
@@ -13333,10 +13330,10 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B211" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C211" t="s">
         <v>39</v>
@@ -13353,7 +13350,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B212" t="s">
         <v>25</v>
@@ -13373,7 +13370,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B213" t="s">
         <v>25</v>
@@ -13393,7 +13390,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B214" t="s">
         <v>25</v>
@@ -13413,7 +13410,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B215" t="s">
         <v>25</v>
@@ -13433,7 +13430,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B216" t="s">
         <v>25</v>
@@ -13453,7 +13450,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B217" t="s">
         <v>181</v>
@@ -13473,7 +13470,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B218" t="s">
         <v>181</v>
@@ -13493,7 +13490,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B219" t="s">
         <v>181</v>
@@ -13513,7 +13510,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B220" t="s">
         <v>181</v>
@@ -13533,7 +13530,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B221" t="s">
         <v>181</v>
@@ -13553,10 +13550,10 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
         <v>40</v>
@@ -13573,10 +13570,10 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B223" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C223" t="s">
         <v>40</v>
@@ -13593,10 +13590,10 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B224" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C224" t="s">
         <v>40</v>
@@ -13613,10 +13610,10 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B225" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C225" t="s">
         <v>40</v>
@@ -13633,10 +13630,10 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B226" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C226" t="s">
         <v>40</v>
@@ -13653,7 +13650,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B227" t="s">
         <v>25</v>
@@ -13673,7 +13670,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
@@ -13693,7 +13690,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B229" t="s">
         <v>25</v>
@@ -13713,7 +13710,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B230" t="s">
         <v>25</v>
@@ -13733,7 +13730,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -13753,7 +13750,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B232" t="s">
         <v>181</v>
@@ -13773,7 +13770,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B233" t="s">
         <v>181</v>
@@ -13793,7 +13790,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B234" t="s">
         <v>181</v>
@@ -13813,7 +13810,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B235" t="s">
         <v>181</v>
@@ -13833,7 +13830,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B236" t="s">
         <v>181</v>
@@ -13853,10 +13850,10 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B237" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
@@ -13873,10 +13870,10 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B238" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C238" t="s">
         <v>41</v>
@@ -13893,10 +13890,10 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
@@ -13913,10 +13910,10 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B240" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C240" t="s">
         <v>41</v>
@@ -13933,10 +13930,10 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B241" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C241" t="s">
         <v>41</v>
@@ -13953,7 +13950,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B242" t="s">
         <v>25</v>
@@ -13973,7 +13970,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B243" t="s">
         <v>25</v>
@@ -13993,7 +13990,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B244" t="s">
         <v>25</v>
@@ -14013,7 +14010,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B245" t="s">
         <v>25</v>
@@ -14033,7 +14030,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B246" t="s">
         <v>25</v>
@@ -14053,7 +14050,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B247" t="s">
         <v>181</v>
@@ -14073,7 +14070,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B248" t="s">
         <v>181</v>
@@ -14093,7 +14090,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B249" t="s">
         <v>181</v>
@@ -14113,7 +14110,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B250" t="s">
         <v>181</v>
@@ -14133,7 +14130,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B251" t="s">
         <v>181</v>
@@ -14153,10 +14150,10 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B252" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C252" t="s">
         <v>42</v>
@@ -14173,10 +14170,10 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B253" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C253" t="s">
         <v>42</v>
@@ -14193,10 +14190,10 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B254" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C254" t="s">
         <v>42</v>
@@ -14213,10 +14210,10 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B255" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C255" t="s">
         <v>42</v>
@@ -14233,10 +14230,10 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B256" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C256" t="s">
         <v>42</v>
@@ -14253,7 +14250,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B257" t="s">
         <v>25</v>
@@ -14273,7 +14270,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B258" t="s">
         <v>25</v>
@@ -14293,7 +14290,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B259" t="s">
         <v>25</v>
@@ -14313,7 +14310,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B260" t="s">
         <v>25</v>
@@ -14333,7 +14330,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B261" t="s">
         <v>25</v>
@@ -14353,7 +14350,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B262" t="s">
         <v>181</v>
@@ -14373,7 +14370,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B263" t="s">
         <v>181</v>
@@ -14393,7 +14390,7 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B264" t="s">
         <v>181</v>
@@ -14413,7 +14410,7 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B265" t="s">
         <v>181</v>
@@ -14433,7 +14430,7 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B266" t="s">
         <v>181</v>
@@ -14453,10 +14450,10 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B267" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C267" t="s">
         <v>43</v>
@@ -14473,10 +14470,10 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B268" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C268" t="s">
         <v>43</v>
@@ -14493,10 +14490,10 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B269" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C269" t="s">
         <v>43</v>
@@ -14513,10 +14510,10 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C270" t="s">
         <v>43</v>
@@ -14533,10 +14530,10 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B271" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C271" t="s">
         <v>43</v>
@@ -14553,7 +14550,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B272" t="s">
         <v>25</v>
@@ -14573,7 +14570,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B273" t="s">
         <v>25</v>
@@ -14593,7 +14590,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B274" t="s">
         <v>25</v>
@@ -14613,7 +14610,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B275" t="s">
         <v>25</v>
@@ -14633,7 +14630,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B276" t="s">
         <v>25</v>
@@ -14653,7 +14650,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B277" t="s">
         <v>181</v>
@@ -14673,7 +14670,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B278" t="s">
         <v>181</v>
@@ -14693,7 +14690,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B279" t="s">
         <v>181</v>
@@ -14713,7 +14710,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B280" t="s">
         <v>181</v>
@@ -14733,7 +14730,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B281" t="s">
         <v>181</v>
@@ -14753,10 +14750,10 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B282" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C282" t="s">
         <v>44</v>
@@ -14773,10 +14770,10 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B283" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C283" t="s">
         <v>44</v>
@@ -14793,10 +14790,10 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B284" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C284" t="s">
         <v>44</v>
@@ -14813,10 +14810,10 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B285" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C285" t="s">
         <v>44</v>
@@ -14833,10 +14830,10 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B286" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C286" t="s">
         <v>44</v>
@@ -14853,7 +14850,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B287" t="s">
         <v>25</v>
@@ -14873,7 +14870,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B288" t="s">
         <v>25</v>
@@ -14893,7 +14890,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B289" t="s">
         <v>25</v>
@@ -14913,7 +14910,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B290" t="s">
         <v>25</v>
@@ -14933,7 +14930,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B291" t="s">
         <v>25</v>
@@ -14953,7 +14950,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B292" t="s">
         <v>181</v>
@@ -14973,7 +14970,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B293" t="s">
         <v>181</v>
@@ -14993,7 +14990,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B294" t="s">
         <v>181</v>
@@ -15013,7 +15010,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B295" t="s">
         <v>181</v>
@@ -15033,7 +15030,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B296" t="s">
         <v>181</v>
@@ -15053,10 +15050,10 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B297" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C297" t="s">
         <v>45</v>
@@ -15073,10 +15070,10 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B298" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C298" t="s">
         <v>45</v>
@@ -15093,10 +15090,10 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B299" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C299" t="s">
         <v>45</v>
@@ -15113,10 +15110,10 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B300" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C300" t="s">
         <v>45</v>
@@ -15133,10 +15130,10 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B301" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
         <v>45</v>
@@ -15153,7 +15150,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B302" t="s">
         <v>25</v>
@@ -15173,7 +15170,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B303" t="s">
         <v>25</v>
@@ -15193,7 +15190,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B304" t="s">
         <v>25</v>
@@ -15213,7 +15210,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B305" t="s">
         <v>25</v>
@@ -15233,7 +15230,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B306" t="s">
         <v>25</v>
@@ -15253,7 +15250,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B307" t="s">
         <v>181</v>
@@ -15273,7 +15270,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B308" t="s">
         <v>181</v>
@@ -15293,7 +15290,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B309" t="s">
         <v>181</v>
@@ -15313,7 +15310,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B310" t="s">
         <v>181</v>
@@ -15333,7 +15330,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B311" t="s">
         <v>181</v>
@@ -15353,10 +15350,10 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B312" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C312" t="s">
         <v>46</v>
@@ -15373,10 +15370,10 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B313" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C313" t="s">
         <v>46</v>
@@ -15393,10 +15390,10 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B314" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C314" t="s">
         <v>46</v>
@@ -15413,10 +15410,10 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B315" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C315" t="s">
         <v>46</v>
@@ -15433,10 +15430,10 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B316" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" t="s">
         <v>46</v>
@@ -15453,7 +15450,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B317" t="s">
         <v>25</v>
@@ -15473,7 +15470,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B318" t="s">
         <v>25</v>
@@ -15493,7 +15490,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B319" t="s">
         <v>25</v>
@@ -15513,7 +15510,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B320" t="s">
         <v>25</v>
@@ -15533,7 +15530,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B321" t="s">
         <v>25</v>
@@ -15553,7 +15550,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B322" t="s">
         <v>181</v>
@@ -15573,7 +15570,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B323" t="s">
         <v>181</v>
@@ -15593,7 +15590,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B324" t="s">
         <v>181</v>
@@ -15613,7 +15610,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B325" t="s">
         <v>181</v>
@@ -15633,7 +15630,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B326" t="s">
         <v>181</v>
@@ -15653,10 +15650,10 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B327" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C327" t="s">
         <v>47</v>
@@ -15673,10 +15670,10 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B328" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C328" t="s">
         <v>47</v>
@@ -15693,10 +15690,10 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B329" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C329" t="s">
         <v>47</v>
@@ -15713,10 +15710,10 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B330" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C330" t="s">
         <v>47</v>
@@ -15733,10 +15730,10 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B331" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C331" t="s">
         <v>47</v>
@@ -15753,7 +15750,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B332" t="s">
         <v>25</v>
@@ -15773,7 +15770,7 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B333" t="s">
         <v>25</v>
@@ -15793,7 +15790,7 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B334" t="s">
         <v>25</v>
@@ -15813,7 +15810,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B335" t="s">
         <v>25</v>
@@ -15833,7 +15830,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B336" t="s">
         <v>25</v>
@@ -15853,7 +15850,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B337" t="s">
         <v>181</v>
@@ -15873,7 +15870,7 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B338" t="s">
         <v>181</v>
@@ -15893,7 +15890,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B339" t="s">
         <v>181</v>
@@ -15913,7 +15910,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B340" t="s">
         <v>181</v>
@@ -15933,7 +15930,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B341" t="s">
         <v>181</v>
@@ -15953,10 +15950,10 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B342" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C342" t="s">
         <v>48</v>
@@ -15973,10 +15970,10 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B343" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C343" t="s">
         <v>48</v>
@@ -15993,10 +15990,10 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B344" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C344" t="s">
         <v>48</v>
@@ -16013,10 +16010,10 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B345" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C345" t="s">
         <v>48</v>
@@ -16033,10 +16030,10 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B346" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C346" t="s">
         <v>48</v>
@@ -16053,7 +16050,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B347" t="s">
         <v>25</v>
@@ -16073,7 +16070,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B348" t="s">
         <v>25</v>
@@ -16093,7 +16090,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B349" t="s">
         <v>25</v>
@@ -16113,7 +16110,7 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B350" t="s">
         <v>25</v>
@@ -16133,7 +16130,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B351" t="s">
         <v>25</v>
@@ -16153,7 +16150,7 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B352" t="s">
         <v>181</v>
@@ -16173,7 +16170,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B353" t="s">
         <v>181</v>
@@ -16193,7 +16190,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B354" t="s">
         <v>181</v>
@@ -16213,7 +16210,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B355" t="s">
         <v>181</v>
@@ -16233,7 +16230,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B356" t="s">
         <v>181</v>
@@ -16253,10 +16250,10 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B357" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C357" t="s">
         <v>49</v>
@@ -16273,10 +16270,10 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B358" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C358" t="s">
         <v>49</v>
@@ -16293,10 +16290,10 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B359" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C359" t="s">
         <v>49</v>
@@ -16313,10 +16310,10 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B360" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C360" t="s">
         <v>49</v>
@@ -16333,10 +16330,10 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B361" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C361" t="s">
         <v>49</v>
@@ -16353,7 +16350,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B362" t="s">
         <v>25</v>
@@ -16373,7 +16370,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B363" t="s">
         <v>25</v>
@@ -16393,7 +16390,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B364" t="s">
         <v>25</v>
@@ -16413,7 +16410,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B365" t="s">
         <v>25</v>
@@ -16433,7 +16430,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B366" t="s">
         <v>25</v>
@@ -16453,7 +16450,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B367" t="s">
         <v>181</v>
@@ -16473,7 +16470,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B368" t="s">
         <v>181</v>
@@ -16493,7 +16490,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B369" t="s">
         <v>181</v>
@@ -16513,7 +16510,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B370" t="s">
         <v>181</v>
@@ -16533,7 +16530,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B371" t="s">
         <v>181</v>
@@ -16553,10 +16550,10 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B372" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C372" t="s">
         <v>50</v>
@@ -16573,10 +16570,10 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B373" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C373" t="s">
         <v>50</v>
@@ -16593,10 +16590,10 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B374" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C374" t="s">
         <v>50</v>
@@ -16613,10 +16610,10 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B375" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C375" t="s">
         <v>50</v>
@@ -16633,10 +16630,10 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B376" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C376" t="s">
         <v>50</v>
@@ -16653,7 +16650,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B377" t="s">
         <v>25</v>
@@ -16673,7 +16670,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B378" t="s">
         <v>25</v>
@@ -16693,7 +16690,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B379" t="s">
         <v>25</v>
@@ -16713,7 +16710,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B380" t="s">
         <v>25</v>
@@ -16733,7 +16730,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B381" t="s">
         <v>25</v>
@@ -16753,7 +16750,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B382" t="s">
         <v>181</v>
@@ -16773,7 +16770,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B383" t="s">
         <v>181</v>
@@ -16793,7 +16790,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B384" t="s">
         <v>181</v>
@@ -16813,7 +16810,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B385" t="s">
         <v>181</v>
@@ -16833,7 +16830,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B386" t="s">
         <v>181</v>
@@ -16853,10 +16850,10 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B387" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C387" t="s">
         <v>51</v>
@@ -16873,10 +16870,10 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B388" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C388" t="s">
         <v>51</v>
@@ -16893,10 +16890,10 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B389" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C389" t="s">
         <v>51</v>
@@ -16913,10 +16910,10 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B390" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C390" t="s">
         <v>51</v>
@@ -16933,10 +16930,10 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B391" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C391" t="s">
         <v>51</v>
@@ -16953,7 +16950,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B392" t="s">
         <v>25</v>
@@ -16973,7 +16970,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B393" t="s">
         <v>25</v>
@@ -16993,7 +16990,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B394" t="s">
         <v>25</v>
@@ -17013,7 +17010,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B395" t="s">
         <v>25</v>
@@ -17033,7 +17030,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B396" t="s">
         <v>25</v>
@@ -17053,7 +17050,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B397" t="s">
         <v>181</v>
@@ -17073,7 +17070,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B398" t="s">
         <v>181</v>
@@ -17093,7 +17090,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B399" t="s">
         <v>181</v>
@@ -17113,7 +17110,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B400" t="s">
         <v>181</v>
@@ -17133,7 +17130,7 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B401" t="s">
         <v>181</v>
@@ -17153,10 +17150,10 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B402" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C402" t="s">
         <v>52</v>
@@ -17173,10 +17170,10 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B403" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C403" t="s">
         <v>52</v>
@@ -17193,10 +17190,10 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B404" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C404" t="s">
         <v>52</v>
@@ -17213,10 +17210,10 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B405" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C405" t="s">
         <v>52</v>
@@ -17233,10 +17230,10 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B406" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C406" t="s">
         <v>52</v>
@@ -17253,7 +17250,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B407" t="s">
         <v>25</v>
@@ -17273,7 +17270,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B408" t="s">
         <v>25</v>
@@ -17293,7 +17290,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B409" t="s">
         <v>25</v>
@@ -17313,7 +17310,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B410" t="s">
         <v>25</v>
@@ -17333,7 +17330,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B411" t="s">
         <v>25</v>
@@ -17353,7 +17350,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B412" t="s">
         <v>181</v>
@@ -17373,7 +17370,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B413" t="s">
         <v>181</v>
@@ -17393,7 +17390,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B414" t="s">
         <v>181</v>
@@ -17413,7 +17410,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B415" t="s">
         <v>181</v>
@@ -17433,7 +17430,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B416" t="s">
         <v>181</v>
@@ -17453,10 +17450,10 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B417" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C417" t="s">
         <v>53</v>
@@ -17473,10 +17470,10 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B418" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C418" t="s">
         <v>53</v>
@@ -17493,10 +17490,10 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B419" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C419" t="s">
         <v>53</v>
@@ -17513,10 +17510,10 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B420" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C420" t="s">
         <v>53</v>
@@ -17533,10 +17530,10 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B421" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C421" t="s">
         <v>53</v>
@@ -17553,7 +17550,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B422" t="s">
         <v>25</v>
@@ -17573,7 +17570,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B423" t="s">
         <v>25</v>
@@ -17593,7 +17590,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B424" t="s">
         <v>25</v>
@@ -17613,7 +17610,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B425" t="s">
         <v>25</v>
@@ -17633,7 +17630,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B426" t="s">
         <v>25</v>
@@ -17653,7 +17650,7 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B427" t="s">
         <v>181</v>
@@ -17673,7 +17670,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B428" t="s">
         <v>181</v>
@@ -17693,7 +17690,7 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B429" t="s">
         <v>181</v>
@@ -17713,7 +17710,7 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B430" t="s">
         <v>181</v>
@@ -17733,7 +17730,7 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B431" t="s">
         <v>181</v>
@@ -17753,10 +17750,10 @@
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B432" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C432" t="s">
         <v>54</v>
@@ -17773,10 +17770,10 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B433" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C433" t="s">
         <v>54</v>
@@ -17793,10 +17790,10 @@
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B434" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C434" t="s">
         <v>54</v>
@@ -17813,10 +17810,10 @@
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B435" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C435" t="s">
         <v>54</v>
@@ -17833,10 +17830,10 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B436" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C436" t="s">
         <v>54</v>
@@ -17853,7 +17850,7 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B437" t="s">
         <v>25</v>
@@ -17873,7 +17870,7 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B438" t="s">
         <v>25</v>
@@ -17893,7 +17890,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B439" t="s">
         <v>25</v>
@@ -17913,7 +17910,7 @@
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B440" t="s">
         <v>25</v>
@@ -17933,7 +17930,7 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B441" t="s">
         <v>25</v>
@@ -17953,7 +17950,7 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B442" t="s">
         <v>181</v>
@@ -17973,7 +17970,7 @@
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B443" t="s">
         <v>181</v>
@@ -17993,7 +17990,7 @@
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B444" t="s">
         <v>181</v>
@@ -18013,7 +18010,7 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B445" t="s">
         <v>181</v>
@@ -18033,7 +18030,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B446" t="s">
         <v>181</v>
@@ -18053,10 +18050,10 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B447" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C447" t="s">
         <v>55</v>
@@ -18073,10 +18070,10 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C448" t="s">
         <v>55</v>
@@ -18093,10 +18090,10 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B449" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C449" t="s">
         <v>55</v>
@@ -18113,10 +18110,10 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B450" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C450" t="s">
         <v>55</v>
@@ -18133,10 +18130,10 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B451" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C451" t="s">
         <v>55</v>
@@ -18153,7 +18150,7 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B452" t="s">
         <v>25</v>
@@ -18173,7 +18170,7 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B453" t="s">
         <v>25</v>
@@ -18193,7 +18190,7 @@
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B454" t="s">
         <v>25</v>
@@ -18213,7 +18210,7 @@
     </row>
     <row r="455" spans="1:6">
       <c r="A455" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B455" t="s">
         <v>25</v>
@@ -18233,7 +18230,7 @@
     </row>
     <row r="456" spans="1:6">
       <c r="A456" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B456" t="s">
         <v>25</v>
@@ -18253,7 +18250,7 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B457" t="s">
         <v>181</v>
@@ -18273,7 +18270,7 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B458" t="s">
         <v>181</v>
@@ -18293,7 +18290,7 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B459" t="s">
         <v>181</v>
@@ -18313,7 +18310,7 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B460" t="s">
         <v>181</v>
@@ -18333,7 +18330,7 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B461" t="s">
         <v>181</v>
@@ -18353,10 +18350,10 @@
     </row>
     <row r="462" spans="1:6">
       <c r="A462" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B462" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C462" t="s">
         <v>56</v>
@@ -18373,10 +18370,10 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B463" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C463" t="s">
         <v>56</v>
@@ -18393,10 +18390,10 @@
     </row>
     <row r="464" spans="1:6">
       <c r="A464" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B464" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C464" t="s">
         <v>56</v>
@@ -18413,10 +18410,10 @@
     </row>
     <row r="465" spans="1:6">
       <c r="A465" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B465" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C465" t="s">
         <v>56</v>
@@ -18433,10 +18430,10 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B466" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C466" t="s">
         <v>56</v>
